--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BFCD3-25A8-4EAE-8A8C-6B1EFEBA45AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F085DEA-3CF4-4713-8309-5D96535B1B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="37" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="42" r:id="rId3"/>
-    <sheet name="1.1. Webサービス取引概要" sheetId="13" r:id="rId4"/>
-    <sheet name="1.2. 処理フロー" sheetId="48" r:id="rId5"/>
-    <sheet name="2. B10102(顧客詳細取得)" sheetId="43" r:id="rId6"/>
-    <sheet name="データ" sheetId="49" r:id="rId7"/>
+    <sheet name="Contents" sheetId="42" r:id="rId3"/>
+    <sheet name="1.1. Web service subfunction" sheetId="13" r:id="rId4"/>
+    <sheet name="1.2. Process flow" sheetId="48" r:id="rId5"/>
+    <sheet name="2. B010102 (Get client details)" sheetId="43" r:id="rId6"/>
+    <sheet name="Data" sheetId="49" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10102(顧客詳細取得)'!$A$1:$AI$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Web service subfunction'!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B010102 (Get client details)'!$A$1:$AI$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Data!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. Webサービス取引概要'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.2. 処理フロー'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. B10102(顧客詳細取得)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. Web service subfunction'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.2. Process flow'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. B010102 (Get client details)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
+    <definedName name="種別一覧">Data!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>PJ名</t>
   </si>
@@ -195,13 +197,7 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>1.2. Process flow</t>
-  </si>
-  <si>
-    <t>2. B010102 (Get client details)</t>
   </si>
   <si>
     <t>2.1. Input/output list</t>
@@ -511,6 +507,22 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.1. Web service subfunction overview</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.2. Process flow</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2. B010102 (Get client details)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1300,6 +1312,117 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1336,160 +1459,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,15 +1567,6 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1547,40 +1595,64 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1591,15 +1663,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1609,59 +1672,131 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1670,180 +1805,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1896,41 +1857,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1988,8 +2000,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -6319,57 +6331,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="195" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="204" t="s">
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="213" t="s">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="201" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="185" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="158" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="161">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="163"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6377,53 +6389,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="195" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="201" t="s">
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="198" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="171" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="188" t="str">
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="161" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="163"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6431,45 +6443,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="195" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="188"/>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="163"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6506,1030 +6518,1186 @@
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="191" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="193"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="166"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="194" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="191" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="191" t="s">
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="193"/>
-      <c r="AI7" s="192"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="165"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173">
+      <c r="C8" s="208"/>
+      <c r="D8" s="209">
         <v>43718</v>
       </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176" t="s">
+      <c r="E8" s="210"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="182"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="183"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="183"/>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="181" t="s">
+      <c r="H8" s="213"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="220"/>
+      <c r="AF8" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="AG8" s="215"/>
+      <c r="AH8" s="215"/>
+      <c r="AI8" s="216"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="166"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="206"/>
+      <c r="AF9" s="201"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="202"/>
+      <c r="AI9" s="203"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="168"/>
-      <c r="AC10" s="168"/>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="166"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="205"/>
+      <c r="AD10" s="205"/>
+      <c r="AE10" s="206"/>
+      <c r="AF10" s="201"/>
+      <c r="AG10" s="202"/>
+      <c r="AH10" s="202"/>
+      <c r="AI10" s="203"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="166"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="205"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="205"/>
+      <c r="AA11" s="205"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="205"/>
+      <c r="AD11" s="205"/>
+      <c r="AE11" s="206"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="202"/>
+      <c r="AI11" s="203"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="166"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="205"/>
+      <c r="U12" s="205"/>
+      <c r="V12" s="205"/>
+      <c r="W12" s="205"/>
+      <c r="X12" s="205"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="205"/>
+      <c r="AA12" s="205"/>
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="205"/>
+      <c r="AD12" s="205"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="201"/>
+      <c r="AG12" s="202"/>
+      <c r="AH12" s="202"/>
+      <c r="AI12" s="203"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="166"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
+      <c r="T13" s="205"/>
+      <c r="U13" s="205"/>
+      <c r="V13" s="205"/>
+      <c r="W13" s="205"/>
+      <c r="X13" s="205"/>
+      <c r="Y13" s="205"/>
+      <c r="Z13" s="205"/>
+      <c r="AA13" s="205"/>
+      <c r="AB13" s="205"/>
+      <c r="AC13" s="205"/>
+      <c r="AD13" s="205"/>
+      <c r="AE13" s="206"/>
+      <c r="AF13" s="201"/>
+      <c r="AG13" s="202"/>
+      <c r="AH13" s="202"/>
+      <c r="AI13" s="203"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="168"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="166"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="205"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
+      <c r="Z14" s="205"/>
+      <c r="AA14" s="205"/>
+      <c r="AB14" s="205"/>
+      <c r="AC14" s="205"/>
+      <c r="AD14" s="205"/>
+      <c r="AE14" s="206"/>
+      <c r="AF14" s="201"/>
+      <c r="AG14" s="202"/>
+      <c r="AH14" s="202"/>
+      <c r="AI14" s="203"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="166"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="205"/>
+      <c r="S15" s="205"/>
+      <c r="T15" s="205"/>
+      <c r="U15" s="205"/>
+      <c r="V15" s="205"/>
+      <c r="W15" s="205"/>
+      <c r="X15" s="205"/>
+      <c r="Y15" s="205"/>
+      <c r="Z15" s="205"/>
+      <c r="AA15" s="205"/>
+      <c r="AB15" s="205"/>
+      <c r="AC15" s="205"/>
+      <c r="AD15" s="205"/>
+      <c r="AE15" s="206"/>
+      <c r="AF15" s="201"/>
+      <c r="AG15" s="202"/>
+      <c r="AH15" s="202"/>
+      <c r="AI15" s="203"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="166"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="205"/>
+      <c r="U16" s="205"/>
+      <c r="V16" s="205"/>
+      <c r="W16" s="205"/>
+      <c r="X16" s="205"/>
+      <c r="Y16" s="205"/>
+      <c r="Z16" s="205"/>
+      <c r="AA16" s="205"/>
+      <c r="AB16" s="205"/>
+      <c r="AC16" s="205"/>
+      <c r="AD16" s="205"/>
+      <c r="AE16" s="206"/>
+      <c r="AF16" s="201"/>
+      <c r="AG16" s="202"/>
+      <c r="AH16" s="202"/>
+      <c r="AI16" s="203"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="168"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="166"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="205"/>
+      <c r="U17" s="205"/>
+      <c r="V17" s="205"/>
+      <c r="W17" s="205"/>
+      <c r="X17" s="205"/>
+      <c r="Y17" s="205"/>
+      <c r="Z17" s="205"/>
+      <c r="AA17" s="205"/>
+      <c r="AB17" s="205"/>
+      <c r="AC17" s="205"/>
+      <c r="AD17" s="205"/>
+      <c r="AE17" s="206"/>
+      <c r="AF17" s="201"/>
+      <c r="AG17" s="202"/>
+      <c r="AH17" s="202"/>
+      <c r="AI17" s="203"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="168"/>
-      <c r="T18" s="168"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="166"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="205"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="205"/>
+      <c r="AC18" s="205"/>
+      <c r="AD18" s="205"/>
+      <c r="AE18" s="206"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="202"/>
+      <c r="AH18" s="202"/>
+      <c r="AI18" s="203"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="168"/>
-      <c r="S19" s="168"/>
-      <c r="T19" s="168"/>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="166"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="205"/>
+      <c r="Z19" s="205"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="205"/>
+      <c r="AE19" s="206"/>
+      <c r="AF19" s="201"/>
+      <c r="AG19" s="202"/>
+      <c r="AH19" s="202"/>
+      <c r="AI19" s="203"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="169"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="166"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
+      <c r="W20" s="205"/>
+      <c r="X20" s="205"/>
+      <c r="Y20" s="205"/>
+      <c r="Z20" s="205"/>
+      <c r="AA20" s="205"/>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="205"/>
+      <c r="AD20" s="205"/>
+      <c r="AE20" s="206"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="202"/>
+      <c r="AH20" s="202"/>
+      <c r="AI20" s="203"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="167"/>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="169"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="166"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="205"/>
+      <c r="U21" s="205"/>
+      <c r="V21" s="205"/>
+      <c r="W21" s="205"/>
+      <c r="X21" s="205"/>
+      <c r="Y21" s="205"/>
+      <c r="Z21" s="205"/>
+      <c r="AA21" s="205"/>
+      <c r="AB21" s="205"/>
+      <c r="AC21" s="205"/>
+      <c r="AD21" s="205"/>
+      <c r="AE21" s="206"/>
+      <c r="AF21" s="201"/>
+      <c r="AG21" s="202"/>
+      <c r="AH21" s="202"/>
+      <c r="AI21" s="203"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="166"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="202"/>
+      <c r="M22" s="202"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="205"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="205"/>
+      <c r="W22" s="205"/>
+      <c r="X22" s="205"/>
+      <c r="Y22" s="205"/>
+      <c r="Z22" s="205"/>
+      <c r="AA22" s="205"/>
+      <c r="AB22" s="205"/>
+      <c r="AC22" s="205"/>
+      <c r="AD22" s="205"/>
+      <c r="AE22" s="206"/>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="202"/>
+      <c r="AH22" s="202"/>
+      <c r="AI22" s="203"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="166"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202"/>
+      <c r="O23" s="202"/>
+      <c r="P23" s="203"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="205"/>
+      <c r="U23" s="205"/>
+      <c r="V23" s="205"/>
+      <c r="W23" s="205"/>
+      <c r="X23" s="205"/>
+      <c r="Y23" s="205"/>
+      <c r="Z23" s="205"/>
+      <c r="AA23" s="205"/>
+      <c r="AB23" s="205"/>
+      <c r="AC23" s="205"/>
+      <c r="AD23" s="205"/>
+      <c r="AE23" s="206"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="202"/>
+      <c r="AH23" s="202"/>
+      <c r="AI23" s="203"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="168"/>
-      <c r="T24" s="168"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="169"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="166"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="202"/>
+      <c r="M24" s="202"/>
+      <c r="N24" s="202"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="203"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="205"/>
+      <c r="W24" s="205"/>
+      <c r="X24" s="205"/>
+      <c r="Y24" s="205"/>
+      <c r="Z24" s="205"/>
+      <c r="AA24" s="205"/>
+      <c r="AB24" s="205"/>
+      <c r="AC24" s="205"/>
+      <c r="AD24" s="205"/>
+      <c r="AE24" s="206"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="202"/>
+      <c r="AH24" s="202"/>
+      <c r="AI24" s="203"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="167"/>
-      <c r="R25" s="168"/>
-      <c r="S25" s="168"/>
-      <c r="T25" s="168"/>
-      <c r="U25" s="168"/>
-      <c r="V25" s="168"/>
-      <c r="W25" s="168"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="169"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="166"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="205"/>
+      <c r="V25" s="205"/>
+      <c r="W25" s="205"/>
+      <c r="X25" s="205"/>
+      <c r="Y25" s="205"/>
+      <c r="Z25" s="205"/>
+      <c r="AA25" s="205"/>
+      <c r="AB25" s="205"/>
+      <c r="AC25" s="205"/>
+      <c r="AD25" s="205"/>
+      <c r="AE25" s="206"/>
+      <c r="AF25" s="201"/>
+      <c r="AG25" s="202"/>
+      <c r="AH25" s="202"/>
+      <c r="AI25" s="203"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="168"/>
-      <c r="S26" s="168"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="166"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
+      <c r="N26" s="202"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="203"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="205"/>
+      <c r="AD26" s="205"/>
+      <c r="AE26" s="206"/>
+      <c r="AF26" s="201"/>
+      <c r="AG26" s="202"/>
+      <c r="AH26" s="202"/>
+      <c r="AI26" s="203"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="168"/>
-      <c r="S27" s="168"/>
-      <c r="T27" s="168"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="164"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="166"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="202"/>
+      <c r="M27" s="202"/>
+      <c r="N27" s="202"/>
+      <c r="O27" s="202"/>
+      <c r="P27" s="203"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="205"/>
+      <c r="V27" s="205"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="205"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="205"/>
+      <c r="AC27" s="205"/>
+      <c r="AD27" s="205"/>
+      <c r="AE27" s="206"/>
+      <c r="AF27" s="201"/>
+      <c r="AG27" s="202"/>
+      <c r="AH27" s="202"/>
+      <c r="AI27" s="203"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
-      <c r="T28" s="168"/>
-      <c r="U28" s="168"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="164"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="166"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="203"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="205"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="205"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="205"/>
+      <c r="AC28" s="205"/>
+      <c r="AD28" s="205"/>
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="201"/>
+      <c r="AG28" s="202"/>
+      <c r="AH28" s="202"/>
+      <c r="AI28" s="203"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="168"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="168"/>
-      <c r="V29" s="168"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="164"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="166"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="202"/>
+      <c r="N29" s="202"/>
+      <c r="O29" s="202"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="205"/>
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="205"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="205"/>
+      <c r="AC29" s="205"/>
+      <c r="AD29" s="205"/>
+      <c r="AE29" s="206"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="202"/>
+      <c r="AH29" s="202"/>
+      <c r="AI29" s="203"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="169"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="166"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="203"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="205"/>
+      <c r="Y30" s="205"/>
+      <c r="Z30" s="205"/>
+      <c r="AA30" s="205"/>
+      <c r="AB30" s="205"/>
+      <c r="AC30" s="205"/>
+      <c r="AD30" s="205"/>
+      <c r="AE30" s="206"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="202"/>
+      <c r="AH30" s="202"/>
+      <c r="AI30" s="203"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="168"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="168"/>
-      <c r="V31" s="168"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="164"/>
-      <c r="AG31" s="165"/>
-      <c r="AH31" s="165"/>
-      <c r="AI31" s="166"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="203"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="205"/>
+      <c r="V31" s="205"/>
+      <c r="W31" s="205"/>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="205"/>
+      <c r="Z31" s="205"/>
+      <c r="AA31" s="205"/>
+      <c r="AB31" s="205"/>
+      <c r="AC31" s="205"/>
+      <c r="AD31" s="205"/>
+      <c r="AE31" s="206"/>
+      <c r="AF31" s="201"/>
+      <c r="AG31" s="202"/>
+      <c r="AH31" s="202"/>
+      <c r="AI31" s="203"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="168"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="169"/>
-      <c r="AF32" s="164"/>
-      <c r="AG32" s="165"/>
-      <c r="AH32" s="165"/>
-      <c r="AI32" s="166"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="203"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="205"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="205"/>
+      <c r="AC32" s="205"/>
+      <c r="AD32" s="205"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="201"/>
+      <c r="AG32" s="202"/>
+      <c r="AH32" s="202"/>
+      <c r="AI32" s="203"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="165"/>
-      <c r="AH33" s="165"/>
-      <c r="AI33" s="166"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="O33" s="202"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="204"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="205"/>
+      <c r="W33" s="205"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="205"/>
+      <c r="AA33" s="205"/>
+      <c r="AB33" s="205"/>
+      <c r="AC33" s="205"/>
+      <c r="AD33" s="205"/>
+      <c r="AE33" s="206"/>
+      <c r="AF33" s="201"/>
+      <c r="AG33" s="202"/>
+      <c r="AH33" s="202"/>
+      <c r="AI33" s="203"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7553,162 +7721,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7864,157 +7876,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="228" t="str">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="243" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="231" t="str">
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="240" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="242"/>
-      <c r="AC1" s="222" t="str">
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="225">
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="240">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="226"/>
-      <c r="AI1" s="227"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
     </row>
     <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="228" t="str">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="240" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="242"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="225" t="str">
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="226"/>
-      <c r="AI2" s="227"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
     </row>
     <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="228" t="str">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="222" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="224"/>
+      <c r="AC3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="225" t="str">
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="239"/>
+      <c r="AG3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="226"/>
-      <c r="AI3" s="227"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
     </row>
     <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
@@ -8071,7 +8083,7 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="39" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
@@ -8132,7 +8144,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8172,7 +8184,7 @@
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -8211,7 +8223,7 @@
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -8286,7 +8298,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="51" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="40"/>
@@ -8326,7 +8338,7 @@
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="42"/>
@@ -8365,7 +8377,7 @@
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
@@ -8399,7 +8411,7 @@
       <c r="A14" s="40"/>
       <c r="B14" s="46"/>
       <c r="C14" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -8438,7 +8450,7 @@
       <c r="A15" s="40"/>
       <c r="B15" s="51"/>
       <c r="C15" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -8477,7 +8489,7 @@
       <c r="A16" s="40"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="36"/>
@@ -9481,14 +9493,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9498,6 +9502,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9525,157 +9537,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="228" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="269" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="231" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="266" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="222" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="228" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="266" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="268"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="228" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="268"/>
-      <c r="AC3" s="222" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="239"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
@@ -9717,7 +9729,7 @@
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -9757,7 +9769,7 @@
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -9831,94 +9843,94 @@
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="255" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
-      <c r="N8" s="265"/>
-      <c r="O8" s="265"/>
-      <c r="P8" s="265"/>
-      <c r="Q8" s="265"/>
-      <c r="R8" s="265"/>
-      <c r="S8" s="265"/>
-      <c r="T8" s="265"/>
-      <c r="U8" s="265"/>
-      <c r="V8" s="265"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="265"/>
-      <c r="Y8" s="265"/>
-      <c r="Z8" s="265"/>
-      <c r="AA8" s="265"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="265"/>
-      <c r="AE8" s="265"/>
-      <c r="AF8" s="265"/>
-      <c r="AG8" s="265"/>
-      <c r="AH8" s="265"/>
+      <c r="D8" s="269" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="270"/>
+      <c r="F8" s="270"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="268" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="268"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="268"/>
+      <c r="Q8" s="268"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
     </row>
     <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="255" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="261" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="261"/>
-      <c r="AG9" s="261"/>
-      <c r="AH9" s="261"/>
+      <c r="D9" s="269" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="270"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="264" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="264"/>
+      <c r="M9" s="264"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="264"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="264"/>
+      <c r="R9" s="264"/>
+      <c r="S9" s="264"/>
+      <c r="T9" s="264"/>
+      <c r="U9" s="264"/>
+      <c r="V9" s="264"/>
+      <c r="W9" s="264"/>
+      <c r="X9" s="264"/>
+      <c r="Y9" s="264"/>
+      <c r="Z9" s="264"/>
+      <c r="AA9" s="264"/>
+      <c r="AB9" s="264"/>
+      <c r="AC9" s="264"/>
+      <c r="AD9" s="264"/>
+      <c r="AE9" s="264"/>
+      <c r="AF9" s="264"/>
+      <c r="AG9" s="264"/>
+      <c r="AH9" s="264"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
-      <c r="D10" s="252" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="254"/>
+      <c r="D10" s="272" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="274"/>
       <c r="H10" s="83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
@@ -9951,174 +9963,174 @@
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
-      <c r="D11" s="255" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="265" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="265"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="265"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="265"/>
-      <c r="S11" s="265"/>
-      <c r="T11" s="265"/>
-      <c r="U11" s="265"/>
-      <c r="V11" s="265"/>
-      <c r="W11" s="265"/>
-      <c r="X11" s="265"/>
-      <c r="Y11" s="265"/>
-      <c r="Z11" s="265"/>
-      <c r="AA11" s="265"/>
-      <c r="AB11" s="265"/>
-      <c r="AC11" s="265"/>
-      <c r="AD11" s="265"/>
-      <c r="AE11" s="265"/>
-      <c r="AF11" s="265"/>
-      <c r="AG11" s="265"/>
-      <c r="AH11" s="265"/>
+      <c r="D11" s="269" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="270"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="268" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="268"/>
+      <c r="AD11" s="268"/>
+      <c r="AE11" s="268"/>
+      <c r="AF11" s="268"/>
+      <c r="AG11" s="268"/>
+      <c r="AH11" s="268"/>
     </row>
     <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="255" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="261" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="261"/>
-      <c r="J12" s="261"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="261"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
-      <c r="AD12" s="261"/>
-      <c r="AE12" s="261"/>
-      <c r="AF12" s="261"/>
-      <c r="AG12" s="261"/>
-      <c r="AH12" s="261"/>
+      <c r="D12" s="269" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="270"/>
+      <c r="F12" s="270"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="264" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="264"/>
+      <c r="J12" s="264"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="264"/>
+      <c r="M12" s="264"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="264"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="264"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="264"/>
+      <c r="T12" s="264"/>
+      <c r="U12" s="264"/>
+      <c r="V12" s="264"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
     </row>
     <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="255" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="261" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="261"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="261"/>
-      <c r="AF13" s="261"/>
-      <c r="AG13" s="261"/>
-      <c r="AH13" s="261"/>
+      <c r="D13" s="269" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="264" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="264"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="264"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="264"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="264"/>
+      <c r="V13" s="264"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
     </row>
     <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="261" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="261"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="261"/>
-      <c r="L14" s="261"/>
-      <c r="M14" s="261"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="261"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="261"/>
-      <c r="AE14" s="261"/>
-      <c r="AF14" s="261"/>
-      <c r="AG14" s="261"/>
-      <c r="AH14" s="261"/>
+      <c r="D14" s="269" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="270"/>
+      <c r="F14" s="270"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="264" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="264"/>
+      <c r="J14" s="264"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="264"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="264"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="264"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="264"/>
+      <c r="X14" s="264"/>
+      <c r="Y14" s="264"/>
+      <c r="Z14" s="264"/>
+      <c r="AA14" s="264"/>
+      <c r="AB14" s="264"/>
+      <c r="AC14" s="264"/>
+      <c r="AD14" s="264"/>
+      <c r="AE14" s="264"/>
+      <c r="AF14" s="264"/>
+      <c r="AG14" s="264"/>
+      <c r="AH14" s="264"/>
     </row>
     <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="257"/>
+      <c r="D15" s="269" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="271"/>
       <c r="H15" s="86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
@@ -10268,30 +10280,30 @@
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="260"/>
-      <c r="L19" s="260"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="260"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="259"/>
-      <c r="S19" s="259"/>
-      <c r="T19" s="259"/>
-      <c r="U19" s="259"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="259"/>
-      <c r="X19" s="259"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="259"/>
-      <c r="AA19" s="259"/>
-      <c r="AB19" s="259"/>
-      <c r="AC19" s="259"/>
-      <c r="AD19" s="259"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="277"/>
+      <c r="L19" s="277"/>
+      <c r="M19" s="277"/>
+      <c r="N19" s="277"/>
+      <c r="O19" s="275"/>
+      <c r="P19" s="276"/>
+      <c r="Q19" s="276"/>
+      <c r="R19" s="276"/>
+      <c r="S19" s="276"/>
+      <c r="T19" s="276"/>
+      <c r="U19" s="276"/>
+      <c r="V19" s="276"/>
+      <c r="W19" s="276"/>
+      <c r="X19" s="276"/>
+      <c r="Y19" s="276"/>
+      <c r="Z19" s="276"/>
+      <c r="AA19" s="276"/>
+      <c r="AB19" s="276"/>
+      <c r="AC19" s="276"/>
+      <c r="AD19" s="276"/>
       <c r="AE19" s="94"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10743,14 +10755,15 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10767,15 +10780,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10804,171 +10816,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="228" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="269" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="231" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="266" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="222" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="228" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="266" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="268"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="228" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="268"/>
-      <c r="AC3" s="222" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="239"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J13" s="96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -10980,12 +10998,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11015,163 +11027,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="228" t="str">
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="269" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="231" t="str">
+      <c r="P1" s="256"/>
+      <c r="Q1" s="256"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="243" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="233"/>
-      <c r="AA1" s="266" t="s">
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="222" t="str">
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="223"/>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
       <c r="AJ1" s="97"/>
       <c r="AK1" s="97"/>
       <c r="AL1" s="98"/>
     </row>
     <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="228" t="str">
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="266" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="258"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="268"/>
-      <c r="AC2" s="222" t="str">
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="223"/>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
       <c r="AJ2" s="97"/>
       <c r="AK2" s="97"/>
       <c r="AL2" s="97"/>
     </row>
     <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="228" t="str">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="268"/>
-      <c r="AC3" s="222" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250"/>
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="251"/>
+      <c r="AA3" s="252"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="224"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="239"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
       <c r="AJ3" s="97"/>
       <c r="AK3" s="97"/>
       <c r="AL3" s="97"/>
@@ -11179,7 +11191,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -11217,7 +11229,7 @@
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="80"/>
       <c r="C6" s="80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -11289,94 +11301,94 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="323" t="s">
+      <c r="D8" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="288" t="s">
+      <c r="E8" s="349" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="350"/>
+      <c r="G8" s="350"/>
+      <c r="H8" s="350"/>
+      <c r="I8" s="350"/>
+      <c r="J8" s="351"/>
+      <c r="K8" s="349" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="350"/>
+      <c r="M8" s="350"/>
+      <c r="N8" s="351"/>
+      <c r="O8" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="288" t="s">
+      <c r="P8" s="363" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="302" t="s">
+      <c r="Q8" s="364"/>
+      <c r="R8" s="364"/>
+      <c r="S8" s="364"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="365"/>
+      <c r="V8" s="360" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="307" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="304" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="304"/>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="304"/>
-      <c r="Z8" s="304"/>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="304"/>
-      <c r="AD8" s="304"/>
-      <c r="AE8" s="304"/>
-      <c r="AF8" s="304"/>
-      <c r="AG8" s="304"/>
-      <c r="AH8" s="304"/>
+      <c r="W8" s="360"/>
+      <c r="X8" s="360"/>
+      <c r="Y8" s="360"/>
+      <c r="Z8" s="360"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="360"/>
+      <c r="AC8" s="360"/>
+      <c r="AD8" s="360"/>
+      <c r="AE8" s="360"/>
+      <c r="AF8" s="360"/>
+      <c r="AG8" s="360"/>
+      <c r="AH8" s="360"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="292"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="303"/>
+      <c r="D9" s="348"/>
+      <c r="E9" s="352"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="353"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="352"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="354"/>
+      <c r="O9" s="359"/>
       <c r="P9" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="100" t="s">
+      <c r="S9" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="100" t="s">
+      <c r="T9" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="305" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" s="306"/>
-      <c r="V9" s="304"/>
-      <c r="W9" s="304"/>
-      <c r="X9" s="304"/>
-      <c r="Y9" s="304"/>
-      <c r="Z9" s="304"/>
-      <c r="AA9" s="304"/>
-      <c r="AB9" s="304"/>
-      <c r="AC9" s="304"/>
-      <c r="AD9" s="304"/>
-      <c r="AE9" s="304"/>
-      <c r="AF9" s="304"/>
-      <c r="AG9" s="304"/>
-      <c r="AH9" s="304"/>
+      <c r="U9" s="362"/>
+      <c r="V9" s="360"/>
+      <c r="W9" s="360"/>
+      <c r="X9" s="360"/>
+      <c r="Y9" s="360"/>
+      <c r="Z9" s="360"/>
+      <c r="AA9" s="360"/>
+      <c r="AB9" s="360"/>
+      <c r="AC9" s="360"/>
+      <c r="AD9" s="360"/>
+      <c r="AE9" s="360"/>
+      <c r="AF9" s="360"/>
+      <c r="AG9" s="360"/>
+      <c r="AH9" s="360"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="80"/>
@@ -11384,52 +11396,52 @@
       <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="297" t="s">
+      <c r="E10" s="287" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="289"/>
+      <c r="K10" s="287" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="288"/>
+      <c r="M10" s="288"/>
+      <c r="N10" s="289"/>
+      <c r="O10" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="297" t="s">
+      <c r="P10" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="298"/>
-      <c r="M10" s="298"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="103" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R10" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S10" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="300" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="301"/>
-      <c r="V10" s="297"/>
-      <c r="W10" s="298"/>
-      <c r="X10" s="298"/>
-      <c r="Y10" s="298"/>
-      <c r="Z10" s="298"/>
-      <c r="AA10" s="298"/>
-      <c r="AB10" s="298"/>
-      <c r="AC10" s="298"/>
-      <c r="AD10" s="298"/>
-      <c r="AE10" s="298"/>
-      <c r="AF10" s="298"/>
-      <c r="AG10" s="298"/>
-      <c r="AH10" s="299"/>
+        <v>78</v>
+      </c>
+      <c r="T10" s="279" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="280"/>
+      <c r="V10" s="287"/>
+      <c r="W10" s="288"/>
+      <c r="X10" s="288"/>
+      <c r="Y10" s="288"/>
+      <c r="Z10" s="288"/>
+      <c r="AA10" s="288"/>
+      <c r="AB10" s="288"/>
+      <c r="AC10" s="288"/>
+      <c r="AD10" s="288"/>
+      <c r="AE10" s="288"/>
+      <c r="AF10" s="288"/>
+      <c r="AG10" s="288"/>
+      <c r="AH10" s="289"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="80"/>
@@ -11437,52 +11449,52 @@
       <c r="D11" s="101">
         <v>2</v>
       </c>
-      <c r="E11" s="297" t="s">
+      <c r="E11" s="287" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="287" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="298"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="297" t="s">
+      <c r="P11" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="298"/>
-      <c r="M11" s="298"/>
-      <c r="N11" s="299"/>
-      <c r="O11" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="103" t="s">
-        <v>84</v>
-      </c>
       <c r="R11" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S11" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="300" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="301"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="298"/>
-      <c r="X11" s="298"/>
-      <c r="Y11" s="298"/>
-      <c r="Z11" s="298"/>
-      <c r="AA11" s="298"/>
-      <c r="AB11" s="298"/>
-      <c r="AC11" s="298"/>
-      <c r="AD11" s="298"/>
-      <c r="AE11" s="298"/>
-      <c r="AF11" s="298"/>
-      <c r="AG11" s="298"/>
-      <c r="AH11" s="299"/>
+        <v>78</v>
+      </c>
+      <c r="T11" s="279" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" s="280"/>
+      <c r="V11" s="287"/>
+      <c r="W11" s="288"/>
+      <c r="X11" s="288"/>
+      <c r="Y11" s="288"/>
+      <c r="Z11" s="288"/>
+      <c r="AA11" s="288"/>
+      <c r="AB11" s="288"/>
+      <c r="AC11" s="288"/>
+      <c r="AD11" s="288"/>
+      <c r="AE11" s="288"/>
+      <c r="AF11" s="288"/>
+      <c r="AG11" s="288"/>
+      <c r="AH11" s="289"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="80"/>
@@ -11490,52 +11502,52 @@
       <c r="D12" s="101">
         <v>3</v>
       </c>
-      <c r="E12" s="297" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="298"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="297" t="s">
+      <c r="E12" s="287" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="289"/>
+      <c r="K12" s="287" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="298"/>
-      <c r="M12" s="298"/>
-      <c r="N12" s="299"/>
-      <c r="O12" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" s="103" t="s">
-        <v>80</v>
-      </c>
       <c r="Q12" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R12" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S12" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12" s="300" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="301"/>
-      <c r="V12" s="297"/>
-      <c r="W12" s="298"/>
-      <c r="X12" s="298"/>
-      <c r="Y12" s="298"/>
-      <c r="Z12" s="298"/>
-      <c r="AA12" s="298"/>
-      <c r="AB12" s="298"/>
-      <c r="AC12" s="298"/>
-      <c r="AD12" s="298"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="298"/>
-      <c r="AG12" s="298"/>
-      <c r="AH12" s="299"/>
+        <v>78</v>
+      </c>
+      <c r="T12" s="279" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" s="280"/>
+      <c r="V12" s="287"/>
+      <c r="W12" s="288"/>
+      <c r="X12" s="288"/>
+      <c r="Y12" s="288"/>
+      <c r="Z12" s="288"/>
+      <c r="AA12" s="288"/>
+      <c r="AB12" s="288"/>
+      <c r="AC12" s="288"/>
+      <c r="AD12" s="288"/>
+      <c r="AE12" s="288"/>
+      <c r="AF12" s="288"/>
+      <c r="AG12" s="288"/>
+      <c r="AH12" s="289"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="80"/>
@@ -11610,7 +11622,7 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="80"/>
       <c r="C15" s="96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -11685,40 +11697,40 @@
       <c r="D17" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="311" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="312"/>
-      <c r="G17" s="313"/>
-      <c r="H17" s="363" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="364"/>
-      <c r="J17" s="364"/>
-      <c r="K17" s="364"/>
-      <c r="L17" s="364"/>
-      <c r="M17" s="364"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="364"/>
-      <c r="P17" s="364"/>
-      <c r="Q17" s="364"/>
-      <c r="R17" s="364"/>
-      <c r="S17" s="364"/>
-      <c r="T17" s="364"/>
-      <c r="U17" s="364"/>
-      <c r="V17" s="364"/>
-      <c r="W17" s="364"/>
-      <c r="X17" s="364"/>
-      <c r="Y17" s="364"/>
-      <c r="Z17" s="364"/>
-      <c r="AA17" s="364"/>
-      <c r="AB17" s="364"/>
-      <c r="AC17" s="364"/>
-      <c r="AD17" s="364"/>
-      <c r="AE17" s="364"/>
-      <c r="AF17" s="364"/>
-      <c r="AG17" s="364"/>
-      <c r="AH17" s="365"/>
+      <c r="E17" s="366" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="367"/>
+      <c r="G17" s="368"/>
+      <c r="H17" s="284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="285"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="285"/>
+      <c r="L17" s="285"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="285"/>
+      <c r="O17" s="285"/>
+      <c r="P17" s="285"/>
+      <c r="Q17" s="285"/>
+      <c r="R17" s="285"/>
+      <c r="S17" s="285"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="285"/>
+      <c r="V17" s="285"/>
+      <c r="W17" s="285"/>
+      <c r="X17" s="285"/>
+      <c r="Y17" s="285"/>
+      <c r="Z17" s="285"/>
+      <c r="AA17" s="285"/>
+      <c r="AB17" s="285"/>
+      <c r="AC17" s="285"/>
+      <c r="AD17" s="285"/>
+      <c r="AE17" s="285"/>
+      <c r="AF17" s="285"/>
+      <c r="AG17" s="285"/>
+      <c r="AH17" s="286"/>
     </row>
     <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="80"/>
@@ -11726,40 +11738,40 @@
       <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="297" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="298"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="297" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="298"/>
-      <c r="J18" s="298"/>
-      <c r="K18" s="298"/>
-      <c r="L18" s="298"/>
-      <c r="M18" s="298"/>
-      <c r="N18" s="298"/>
-      <c r="O18" s="298"/>
-      <c r="P18" s="298"/>
-      <c r="Q18" s="298"/>
-      <c r="R18" s="298"/>
-      <c r="S18" s="298"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="298"/>
-      <c r="V18" s="298"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="298"/>
-      <c r="Y18" s="298"/>
-      <c r="Z18" s="298"/>
-      <c r="AA18" s="298"/>
-      <c r="AB18" s="298"/>
-      <c r="AC18" s="298"/>
-      <c r="AD18" s="298"/>
-      <c r="AE18" s="298"/>
-      <c r="AF18" s="298"/>
-      <c r="AG18" s="298"/>
-      <c r="AH18" s="299"/>
+      <c r="E18" s="287" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="287" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
+      <c r="N18" s="288"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="288"/>
+      <c r="Q18" s="288"/>
+      <c r="R18" s="288"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="288"/>
+      <c r="V18" s="288"/>
+      <c r="W18" s="288"/>
+      <c r="X18" s="288"/>
+      <c r="Y18" s="288"/>
+      <c r="Z18" s="288"/>
+      <c r="AA18" s="288"/>
+      <c r="AB18" s="288"/>
+      <c r="AC18" s="288"/>
+      <c r="AD18" s="288"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="288"/>
+      <c r="AH18" s="289"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
@@ -11767,40 +11779,40 @@
       <c r="D19" s="101">
         <v>2</v>
       </c>
-      <c r="E19" s="297" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="298"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="297" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="298"/>
-      <c r="J19" s="298"/>
-      <c r="K19" s="298"/>
-      <c r="L19" s="298"/>
-      <c r="M19" s="298"/>
-      <c r="N19" s="298"/>
-      <c r="O19" s="298"/>
-      <c r="P19" s="298"/>
-      <c r="Q19" s="298"/>
-      <c r="R19" s="298"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="298"/>
-      <c r="U19" s="298"/>
-      <c r="V19" s="298"/>
-      <c r="W19" s="298"/>
-      <c r="X19" s="298"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="298"/>
-      <c r="AA19" s="298"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="298"/>
-      <c r="AD19" s="298"/>
-      <c r="AE19" s="298"/>
-      <c r="AF19" s="298"/>
-      <c r="AG19" s="298"/>
-      <c r="AH19" s="299"/>
+      <c r="E19" s="287" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="288"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="287" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
+      <c r="N19" s="288"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="288"/>
+      <c r="Q19" s="288"/>
+      <c r="R19" s="288"/>
+      <c r="S19" s="288"/>
+      <c r="T19" s="288"/>
+      <c r="U19" s="288"/>
+      <c r="V19" s="288"/>
+      <c r="W19" s="288"/>
+      <c r="X19" s="288"/>
+      <c r="Y19" s="288"/>
+      <c r="Z19" s="288"/>
+      <c r="AA19" s="288"/>
+      <c r="AB19" s="288"/>
+      <c r="AC19" s="288"/>
+      <c r="AD19" s="288"/>
+      <c r="AE19" s="288"/>
+      <c r="AF19" s="288"/>
+      <c r="AG19" s="288"/>
+      <c r="AH19" s="289"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
@@ -11808,40 +11820,40 @@
       <c r="D20" s="101">
         <v>3</v>
       </c>
-      <c r="E20" s="297" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="298"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="297" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="298"/>
-      <c r="J20" s="298"/>
-      <c r="K20" s="298"/>
-      <c r="L20" s="298"/>
-      <c r="M20" s="298"/>
-      <c r="N20" s="298"/>
-      <c r="O20" s="298"/>
-      <c r="P20" s="298"/>
-      <c r="Q20" s="298"/>
-      <c r="R20" s="298"/>
-      <c r="S20" s="298"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="298"/>
-      <c r="V20" s="298"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="298"/>
-      <c r="Y20" s="298"/>
-      <c r="Z20" s="298"/>
-      <c r="AA20" s="298"/>
-      <c r="AB20" s="298"/>
-      <c r="AC20" s="298"/>
-      <c r="AD20" s="298"/>
-      <c r="AE20" s="298"/>
-      <c r="AF20" s="298"/>
-      <c r="AG20" s="298"/>
-      <c r="AH20" s="299"/>
+      <c r="E20" s="287" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="288"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="287" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="288"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="288"/>
+      <c r="Q20" s="288"/>
+      <c r="R20" s="288"/>
+      <c r="S20" s="288"/>
+      <c r="T20" s="288"/>
+      <c r="U20" s="288"/>
+      <c r="V20" s="288"/>
+      <c r="W20" s="288"/>
+      <c r="X20" s="288"/>
+      <c r="Y20" s="288"/>
+      <c r="Z20" s="288"/>
+      <c r="AA20" s="288"/>
+      <c r="AB20" s="288"/>
+      <c r="AC20" s="288"/>
+      <c r="AD20" s="288"/>
+      <c r="AE20" s="288"/>
+      <c r="AF20" s="288"/>
+      <c r="AG20" s="288"/>
+      <c r="AH20" s="289"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="112"/>
@@ -11916,7 +11928,7 @@
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="112"/>
       <c r="C23" s="90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="117"/>
@@ -11954,7 +11966,7 @@
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
       <c r="D24" s="117" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" s="117"/>
       <c r="F24" s="117"/>
@@ -12029,7 +12041,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="120" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="121"/>
       <c r="H26" s="121"/>
@@ -12037,7 +12049,7 @@
       <c r="J26" s="121"/>
       <c r="K26" s="122"/>
       <c r="L26" s="120" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M26" s="121"/>
       <c r="N26" s="121"/>
@@ -12049,10 +12061,10 @@
       <c r="T26" s="121"/>
       <c r="U26" s="122"/>
       <c r="V26" s="120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W26" s="120" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X26" s="121"/>
       <c r="Y26" s="121"/>
@@ -12073,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="127" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="128"/>
       <c r="H27" s="128"/>
@@ -12081,7 +12093,7 @@
       <c r="J27" s="128"/>
       <c r="K27" s="129"/>
       <c r="L27" s="127" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M27" s="128"/>
       <c r="N27" s="128"/>
@@ -12093,10 +12105,10 @@
       <c r="T27" s="128"/>
       <c r="U27" s="129"/>
       <c r="V27" s="127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W27" s="130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X27" s="131"/>
       <c r="Y27" s="131"/>
@@ -12153,7 +12165,7 @@
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -12193,7 +12205,7 @@
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -12272,43 +12284,43 @@
       <c r="E33" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="331" t="s">
+      <c r="F33" s="308" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="310"/>
+      <c r="L33" s="308" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="309"/>
+      <c r="N33" s="309"/>
+      <c r="O33" s="309"/>
+      <c r="P33" s="309"/>
+      <c r="Q33" s="309"/>
+      <c r="R33" s="309"/>
+      <c r="S33" s="309"/>
+      <c r="T33" s="309"/>
+      <c r="U33" s="310"/>
+      <c r="V33" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="332"/>
-      <c r="H33" s="332"/>
-      <c r="I33" s="332"/>
-      <c r="J33" s="332"/>
-      <c r="K33" s="333"/>
-      <c r="L33" s="331" t="s">
+      <c r="W33" s="312"/>
+      <c r="X33" s="313"/>
+      <c r="Y33" s="311" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="332"/>
-      <c r="N33" s="332"/>
-      <c r="O33" s="332"/>
-      <c r="P33" s="332"/>
-      <c r="Q33" s="332"/>
-      <c r="R33" s="332"/>
-      <c r="S33" s="332"/>
-      <c r="T33" s="332"/>
-      <c r="U33" s="333"/>
-      <c r="V33" s="283" t="s">
+      <c r="Z33" s="312"/>
+      <c r="AA33" s="312"/>
+      <c r="AB33" s="313"/>
+      <c r="AC33" s="314" t="s">
         <v>104</v>
       </c>
-      <c r="W33" s="284"/>
-      <c r="X33" s="285"/>
-      <c r="Y33" s="283" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z33" s="284"/>
-      <c r="AA33" s="284"/>
-      <c r="AB33" s="285"/>
-      <c r="AC33" s="334" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD33" s="335"/>
-      <c r="AE33" s="335"/>
-      <c r="AF33" s="336"/>
+      <c r="AD33" s="315"/>
+      <c r="AE33" s="315"/>
+      <c r="AF33" s="316"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
@@ -12321,43 +12333,43 @@
       <c r="E34" s="136">
         <v>1</v>
       </c>
-      <c r="F34" s="279" t="s">
+      <c r="F34" s="320" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="321"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="321"/>
+      <c r="J34" s="321"/>
+      <c r="K34" s="322"/>
+      <c r="L34" s="320" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="321"/>
+      <c r="N34" s="321"/>
+      <c r="O34" s="321"/>
+      <c r="P34" s="321"/>
+      <c r="Q34" s="321"/>
+      <c r="R34" s="321"/>
+      <c r="S34" s="321"/>
+      <c r="T34" s="321"/>
+      <c r="U34" s="322"/>
+      <c r="V34" s="340" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="280"/>
-      <c r="H34" s="280"/>
-      <c r="I34" s="280"/>
-      <c r="J34" s="280"/>
-      <c r="K34" s="281"/>
-      <c r="L34" s="279" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" s="280"/>
-      <c r="N34" s="280"/>
-      <c r="O34" s="280"/>
-      <c r="P34" s="280"/>
-      <c r="Q34" s="280"/>
-      <c r="R34" s="280"/>
-      <c r="S34" s="280"/>
-      <c r="T34" s="280"/>
-      <c r="U34" s="281"/>
-      <c r="V34" s="357" t="s">
-        <v>109</v>
-      </c>
-      <c r="W34" s="358"/>
-      <c r="X34" s="359"/>
-      <c r="Y34" s="337" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z34" s="338"/>
-      <c r="AA34" s="338"/>
-      <c r="AB34" s="339"/>
-      <c r="AC34" s="279" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD34" s="280"/>
-      <c r="AE34" s="280"/>
-      <c r="AF34" s="281"/>
+      <c r="W34" s="341"/>
+      <c r="X34" s="342"/>
+      <c r="Y34" s="317" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z34" s="318"/>
+      <c r="AA34" s="318"/>
+      <c r="AB34" s="319"/>
+      <c r="AC34" s="320" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD34" s="321"/>
+      <c r="AE34" s="321"/>
+      <c r="AF34" s="322"/>
       <c r="AG34" s="40"/>
       <c r="AH34" s="40"/>
       <c r="AI34" s="40"/>
@@ -12404,7 +12416,7 @@
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="E36" s="96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA36" s="40"/>
       <c r="AB36" s="40"/>
@@ -12420,79 +12432,79 @@
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="E37" s="286" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="287"/>
-      <c r="G37" s="287"/>
-      <c r="H37" s="287"/>
-      <c r="I37" s="287"/>
-      <c r="J37" s="282" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" s="282"/>
-      <c r="L37" s="282"/>
-      <c r="M37" s="283" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" s="284"/>
-      <c r="O37" s="284"/>
-      <c r="P37" s="284"/>
-      <c r="Q37" s="284"/>
-      <c r="R37" s="284"/>
-      <c r="S37" s="285"/>
-      <c r="T37" s="283" t="s">
-        <v>105</v>
-      </c>
-      <c r="U37" s="284"/>
-      <c r="V37" s="284"/>
-      <c r="W37" s="284"/>
-      <c r="X37" s="284"/>
-      <c r="Y37" s="284"/>
-      <c r="Z37" s="284"/>
-      <c r="AA37" s="284"/>
-      <c r="AB37" s="284"/>
-      <c r="AC37" s="284"/>
-      <c r="AD37" s="285"/>
+      <c r="E37" s="369" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="370"/>
+      <c r="G37" s="370"/>
+      <c r="H37" s="370"/>
+      <c r="I37" s="370"/>
+      <c r="J37" s="278" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="278"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="311" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" s="312"/>
+      <c r="O37" s="312"/>
+      <c r="P37" s="312"/>
+      <c r="Q37" s="312"/>
+      <c r="R37" s="312"/>
+      <c r="S37" s="313"/>
+      <c r="T37" s="311" t="s">
+        <v>103</v>
+      </c>
+      <c r="U37" s="312"/>
+      <c r="V37" s="312"/>
+      <c r="W37" s="312"/>
+      <c r="X37" s="312"/>
+      <c r="Y37" s="312"/>
+      <c r="Z37" s="312"/>
+      <c r="AA37" s="312"/>
+      <c r="AB37" s="312"/>
+      <c r="AC37" s="312"/>
+      <c r="AD37" s="313"/>
     </row>
     <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="E38" s="279" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="280"/>
-      <c r="G38" s="280"/>
-      <c r="H38" s="280"/>
-      <c r="I38" s="280"/>
-      <c r="J38" s="278" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
-      <c r="M38" s="279" t="s">
-        <v>109</v>
-      </c>
-      <c r="N38" s="280"/>
-      <c r="O38" s="280"/>
-      <c r="P38" s="280"/>
-      <c r="Q38" s="280"/>
-      <c r="R38" s="280"/>
-      <c r="S38" s="281"/>
-      <c r="T38" s="279" t="s">
-        <v>109</v>
-      </c>
-      <c r="U38" s="280"/>
-      <c r="V38" s="280"/>
-      <c r="W38" s="280"/>
-      <c r="X38" s="280"/>
-      <c r="Y38" s="280"/>
-      <c r="Z38" s="280"/>
-      <c r="AA38" s="280"/>
-      <c r="AB38" s="280"/>
-      <c r="AC38" s="280"/>
-      <c r="AD38" s="281"/>
+      <c r="E38" s="320" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
+      <c r="J38" s="371" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="371"/>
+      <c r="L38" s="371"/>
+      <c r="M38" s="320" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" s="321"/>
+      <c r="O38" s="321"/>
+      <c r="P38" s="321"/>
+      <c r="Q38" s="321"/>
+      <c r="R38" s="321"/>
+      <c r="S38" s="322"/>
+      <c r="T38" s="320" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="321"/>
+      <c r="V38" s="321"/>
+      <c r="W38" s="321"/>
+      <c r="X38" s="321"/>
+      <c r="Y38" s="321"/>
+      <c r="Z38" s="321"/>
+      <c r="AA38" s="321"/>
+      <c r="AB38" s="321"/>
+      <c r="AC38" s="321"/>
+      <c r="AD38" s="322"/>
     </row>
     <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
@@ -12561,7 +12573,7 @@
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -12637,30 +12649,30 @@
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="369" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="370"/>
-      <c r="G43" s="370"/>
-      <c r="H43" s="370"/>
-      <c r="I43" s="370"/>
-      <c r="J43" s="370"/>
-      <c r="K43" s="370"/>
-      <c r="L43" s="370"/>
-      <c r="M43" s="370"/>
-      <c r="N43" s="371"/>
-      <c r="O43" s="340" t="s">
-        <v>116</v>
-      </c>
-      <c r="P43" s="341"/>
-      <c r="Q43" s="341"/>
-      <c r="R43" s="341"/>
-      <c r="S43" s="341"/>
-      <c r="T43" s="341"/>
-      <c r="U43" s="341"/>
-      <c r="V43" s="341"/>
-      <c r="W43" s="341"/>
-      <c r="X43" s="342"/>
+      <c r="E43" s="296" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
+      <c r="H43" s="297"/>
+      <c r="I43" s="297"/>
+      <c r="J43" s="297"/>
+      <c r="K43" s="297"/>
+      <c r="L43" s="297"/>
+      <c r="M43" s="297"/>
+      <c r="N43" s="298"/>
+      <c r="O43" s="323" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" s="324"/>
+      <c r="Q43" s="324"/>
+      <c r="R43" s="324"/>
+      <c r="S43" s="324"/>
+      <c r="T43" s="324"/>
+      <c r="U43" s="324"/>
+      <c r="V43" s="324"/>
+      <c r="W43" s="324"/>
+      <c r="X43" s="325"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -12678,30 +12690,30 @@
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="343" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="344"/>
-      <c r="G44" s="344"/>
-      <c r="H44" s="344"/>
-      <c r="I44" s="344"/>
-      <c r="J44" s="344"/>
-      <c r="K44" s="344"/>
-      <c r="L44" s="344"/>
-      <c r="M44" s="344"/>
-      <c r="N44" s="345"/>
-      <c r="O44" s="352" t="s">
-        <v>99</v>
-      </c>
-      <c r="P44" s="352"/>
-      <c r="Q44" s="352"/>
-      <c r="R44" s="352"/>
-      <c r="S44" s="352"/>
-      <c r="T44" s="352"/>
-      <c r="U44" s="352"/>
-      <c r="V44" s="352"/>
-      <c r="W44" s="352"/>
-      <c r="X44" s="353"/>
+      <c r="E44" s="326" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="327"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="327"/>
+      <c r="I44" s="327"/>
+      <c r="J44" s="327"/>
+      <c r="K44" s="327"/>
+      <c r="L44" s="327"/>
+      <c r="M44" s="327"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="335" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" s="335"/>
+      <c r="Q44" s="335"/>
+      <c r="R44" s="335"/>
+      <c r="S44" s="335"/>
+      <c r="T44" s="335"/>
+      <c r="U44" s="335"/>
+      <c r="V44" s="335"/>
+      <c r="W44" s="335"/>
+      <c r="X44" s="336"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -12719,28 +12731,28 @@
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="346"/>
-      <c r="F45" s="347"/>
-      <c r="G45" s="347"/>
-      <c r="H45" s="347"/>
-      <c r="I45" s="347"/>
-      <c r="J45" s="347"/>
-      <c r="K45" s="347"/>
-      <c r="L45" s="347"/>
-      <c r="M45" s="347"/>
-      <c r="N45" s="348"/>
-      <c r="O45" s="352" t="s">
-        <v>117</v>
-      </c>
-      <c r="P45" s="352"/>
-      <c r="Q45" s="352"/>
-      <c r="R45" s="352"/>
-      <c r="S45" s="352"/>
-      <c r="T45" s="352"/>
-      <c r="U45" s="352"/>
-      <c r="V45" s="352"/>
-      <c r="W45" s="352"/>
-      <c r="X45" s="353"/>
+      <c r="E45" s="329"/>
+      <c r="F45" s="330"/>
+      <c r="G45" s="330"/>
+      <c r="H45" s="330"/>
+      <c r="I45" s="330"/>
+      <c r="J45" s="330"/>
+      <c r="K45" s="330"/>
+      <c r="L45" s="330"/>
+      <c r="M45" s="330"/>
+      <c r="N45" s="331"/>
+      <c r="O45" s="335" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45" s="335"/>
+      <c r="Q45" s="335"/>
+      <c r="R45" s="335"/>
+      <c r="S45" s="335"/>
+      <c r="T45" s="335"/>
+      <c r="U45" s="335"/>
+      <c r="V45" s="335"/>
+      <c r="W45" s="335"/>
+      <c r="X45" s="336"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -12758,28 +12770,28 @@
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="349"/>
-      <c r="F46" s="350"/>
-      <c r="G46" s="350"/>
-      <c r="H46" s="350"/>
-      <c r="I46" s="350"/>
-      <c r="J46" s="350"/>
-      <c r="K46" s="350"/>
-      <c r="L46" s="350"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="351"/>
-      <c r="O46" s="354" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" s="355"/>
-      <c r="Q46" s="355"/>
-      <c r="R46" s="355"/>
-      <c r="S46" s="355"/>
-      <c r="T46" s="355"/>
-      <c r="U46" s="355"/>
-      <c r="V46" s="355"/>
-      <c r="W46" s="355"/>
-      <c r="X46" s="356"/>
+      <c r="E46" s="332"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="334"/>
+      <c r="O46" s="337" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" s="338"/>
+      <c r="Q46" s="338"/>
+      <c r="R46" s="338"/>
+      <c r="S46" s="338"/>
+      <c r="T46" s="338"/>
+      <c r="U46" s="338"/>
+      <c r="V46" s="338"/>
+      <c r="W46" s="338"/>
+      <c r="X46" s="339"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -12797,28 +12809,28 @@
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="366" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="367"/>
-      <c r="G47" s="367"/>
-      <c r="H47" s="367"/>
-      <c r="I47" s="367"/>
-      <c r="J47" s="367"/>
-      <c r="K47" s="367"/>
-      <c r="L47" s="367"/>
-      <c r="M47" s="367"/>
-      <c r="N47" s="367"/>
-      <c r="O47" s="367"/>
-      <c r="P47" s="367"/>
-      <c r="Q47" s="367"/>
-      <c r="R47" s="367"/>
-      <c r="S47" s="367"/>
-      <c r="T47" s="367"/>
-      <c r="U47" s="367"/>
-      <c r="V47" s="367"/>
-      <c r="W47" s="367"/>
-      <c r="X47" s="368"/>
+      <c r="E47" s="293" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="294"/>
+      <c r="I47" s="294"/>
+      <c r="J47" s="294"/>
+      <c r="K47" s="294"/>
+      <c r="L47" s="294"/>
+      <c r="M47" s="294"/>
+      <c r="N47" s="294"/>
+      <c r="O47" s="294"/>
+      <c r="P47" s="294"/>
+      <c r="Q47" s="294"/>
+      <c r="R47" s="294"/>
+      <c r="S47" s="294"/>
+      <c r="T47" s="294"/>
+      <c r="U47" s="294"/>
+      <c r="V47" s="294"/>
+      <c r="W47" s="294"/>
+      <c r="X47" s="295"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
@@ -12875,19 +12887,19 @@
       <c r="D49" s="40"/>
       <c r="E49" s="142"/>
       <c r="F49" s="143" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G49" s="143"/>
       <c r="H49" s="143"/>
       <c r="I49" s="143"/>
       <c r="J49" s="144"/>
       <c r="K49" s="144" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L49" s="143"/>
       <c r="M49" s="143"/>
       <c r="N49" s="143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O49" s="143"/>
       <c r="P49" s="143"/>
@@ -12990,7 +13002,7 @@
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="E52" s="96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA52" s="40"/>
       <c r="AB52" s="40"/>
@@ -13006,79 +13018,79 @@
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
-      <c r="E53" s="286" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="287"/>
-      <c r="G53" s="287"/>
-      <c r="H53" s="287"/>
-      <c r="I53" s="287"/>
-      <c r="J53" s="282" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53" s="282"/>
-      <c r="L53" s="282"/>
-      <c r="M53" s="283" t="s">
-        <v>104</v>
-      </c>
-      <c r="N53" s="284"/>
-      <c r="O53" s="284"/>
-      <c r="P53" s="284"/>
-      <c r="Q53" s="284"/>
-      <c r="R53" s="284"/>
-      <c r="S53" s="285"/>
-      <c r="T53" s="283" t="s">
-        <v>105</v>
-      </c>
-      <c r="U53" s="284"/>
-      <c r="V53" s="284"/>
-      <c r="W53" s="284"/>
-      <c r="X53" s="284"/>
-      <c r="Y53" s="284"/>
-      <c r="Z53" s="284"/>
-      <c r="AA53" s="284"/>
-      <c r="AB53" s="284"/>
-      <c r="AC53" s="284"/>
-      <c r="AD53" s="285"/>
+      <c r="E53" s="369" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="370"/>
+      <c r="G53" s="370"/>
+      <c r="H53" s="370"/>
+      <c r="I53" s="370"/>
+      <c r="J53" s="278" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="278"/>
+      <c r="L53" s="278"/>
+      <c r="M53" s="311" t="s">
+        <v>102</v>
+      </c>
+      <c r="N53" s="312"/>
+      <c r="O53" s="312"/>
+      <c r="P53" s="312"/>
+      <c r="Q53" s="312"/>
+      <c r="R53" s="312"/>
+      <c r="S53" s="313"/>
+      <c r="T53" s="311" t="s">
+        <v>103</v>
+      </c>
+      <c r="U53" s="312"/>
+      <c r="V53" s="312"/>
+      <c r="W53" s="312"/>
+      <c r="X53" s="312"/>
+      <c r="Y53" s="312"/>
+      <c r="Z53" s="312"/>
+      <c r="AA53" s="312"/>
+      <c r="AB53" s="312"/>
+      <c r="AC53" s="312"/>
+      <c r="AD53" s="313"/>
     </row>
     <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
-      <c r="E54" s="279" t="s">
+      <c r="E54" s="320" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="321"/>
+      <c r="G54" s="321"/>
+      <c r="H54" s="321"/>
+      <c r="I54" s="321"/>
+      <c r="J54" s="371" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="371"/>
+      <c r="L54" s="371"/>
+      <c r="M54" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="280"/>
-      <c r="G54" s="280"/>
-      <c r="H54" s="280"/>
-      <c r="I54" s="280"/>
-      <c r="J54" s="278" t="s">
-        <v>125</v>
-      </c>
-      <c r="K54" s="278"/>
-      <c r="L54" s="278"/>
-      <c r="M54" s="279" t="s">
-        <v>126</v>
-      </c>
-      <c r="N54" s="280"/>
-      <c r="O54" s="280"/>
-      <c r="P54" s="280"/>
-      <c r="Q54" s="280"/>
-      <c r="R54" s="280"/>
-      <c r="S54" s="281"/>
-      <c r="T54" s="279" t="s">
-        <v>64</v>
-      </c>
-      <c r="U54" s="280"/>
-      <c r="V54" s="280"/>
-      <c r="W54" s="280"/>
-      <c r="X54" s="280"/>
-      <c r="Y54" s="280"/>
-      <c r="Z54" s="280"/>
-      <c r="AA54" s="280"/>
-      <c r="AB54" s="280"/>
-      <c r="AC54" s="280"/>
-      <c r="AD54" s="281"/>
+      <c r="N54" s="321"/>
+      <c r="O54" s="321"/>
+      <c r="P54" s="321"/>
+      <c r="Q54" s="321"/>
+      <c r="R54" s="321"/>
+      <c r="S54" s="322"/>
+      <c r="T54" s="320" t="s">
+        <v>62</v>
+      </c>
+      <c r="U54" s="321"/>
+      <c r="V54" s="321"/>
+      <c r="W54" s="321"/>
+      <c r="X54" s="321"/>
+      <c r="Y54" s="321"/>
+      <c r="Z54" s="321"/>
+      <c r="AA54" s="321"/>
+      <c r="AB54" s="321"/>
+      <c r="AC54" s="321"/>
+      <c r="AD54" s="322"/>
     </row>
     <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40"/>
@@ -13116,7 +13128,7 @@
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -13193,7 +13205,7 @@
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -13302,7 +13314,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C61" s="80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -13337,7 +13349,7 @@
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
@@ -13403,7 +13415,7 @@
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="E64" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -13468,44 +13480,44 @@
     <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="310" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="310"/>
-      <c r="G66" s="294" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="295"/>
-      <c r="I66" s="295"/>
-      <c r="J66" s="295"/>
-      <c r="K66" s="295"/>
-      <c r="L66" s="296"/>
-      <c r="M66" s="310" t="s">
-        <v>132</v>
-      </c>
-      <c r="N66" s="310"/>
-      <c r="O66" s="294" t="s">
-        <v>85</v>
-      </c>
-      <c r="P66" s="295"/>
-      <c r="Q66" s="295"/>
-      <c r="R66" s="295"/>
-      <c r="S66" s="295"/>
-      <c r="T66" s="295"/>
-      <c r="U66" s="295"/>
-      <c r="V66" s="295"/>
-      <c r="W66" s="295"/>
-      <c r="X66" s="295"/>
-      <c r="Y66" s="295"/>
-      <c r="Z66" s="295"/>
-      <c r="AA66" s="295"/>
-      <c r="AB66" s="295"/>
-      <c r="AC66" s="295"/>
-      <c r="AD66" s="295"/>
-      <c r="AE66" s="295"/>
-      <c r="AF66" s="295"/>
-      <c r="AG66" s="295"/>
-      <c r="AH66" s="296"/>
+      <c r="E66" s="343" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="343"/>
+      <c r="G66" s="355" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66" s="356"/>
+      <c r="I66" s="356"/>
+      <c r="J66" s="356"/>
+      <c r="K66" s="356"/>
+      <c r="L66" s="357"/>
+      <c r="M66" s="343" t="s">
+        <v>130</v>
+      </c>
+      <c r="N66" s="343"/>
+      <c r="O66" s="355" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" s="356"/>
+      <c r="Q66" s="356"/>
+      <c r="R66" s="356"/>
+      <c r="S66" s="356"/>
+      <c r="T66" s="356"/>
+      <c r="U66" s="356"/>
+      <c r="V66" s="356"/>
+      <c r="W66" s="356"/>
+      <c r="X66" s="356"/>
+      <c r="Y66" s="356"/>
+      <c r="Z66" s="356"/>
+      <c r="AA66" s="356"/>
+      <c r="AB66" s="356"/>
+      <c r="AC66" s="356"/>
+      <c r="AD66" s="356"/>
+      <c r="AE66" s="356"/>
+      <c r="AF66" s="356"/>
+      <c r="AG66" s="356"/>
+      <c r="AH66" s="357"/>
     </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
@@ -13574,7 +13586,7 @@
     <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E69" s="80"/>
       <c r="F69" s="80"/>
@@ -13640,86 +13652,86 @@
     <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
-      <c r="E71" s="320" t="s">
+      <c r="E71" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="314" t="s">
+      <c r="F71" s="302" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="303"/>
+      <c r="H71" s="303"/>
+      <c r="I71" s="304"/>
+      <c r="J71" s="302" t="s">
+        <v>133</v>
+      </c>
+      <c r="K71" s="303"/>
+      <c r="L71" s="303"/>
+      <c r="M71" s="304"/>
+      <c r="N71" s="346" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="315"/>
-      <c r="H71" s="315"/>
-      <c r="I71" s="316"/>
-      <c r="J71" s="314" t="s">
+      <c r="O71" s="346"/>
+      <c r="P71" s="346"/>
+      <c r="Q71" s="346"/>
+      <c r="R71" s="346"/>
+      <c r="S71" s="346"/>
+      <c r="T71" s="346"/>
+      <c r="U71" s="346"/>
+      <c r="V71" s="346"/>
+      <c r="W71" s="302" t="s">
         <v>135</v>
       </c>
-      <c r="K71" s="315"/>
-      <c r="L71" s="315"/>
-      <c r="M71" s="316"/>
-      <c r="N71" s="322" t="s">
-        <v>136</v>
-      </c>
-      <c r="O71" s="322"/>
-      <c r="P71" s="322"/>
-      <c r="Q71" s="322"/>
-      <c r="R71" s="322"/>
-      <c r="S71" s="322"/>
-      <c r="T71" s="322"/>
-      <c r="U71" s="322"/>
-      <c r="V71" s="322"/>
-      <c r="W71" s="314" t="s">
-        <v>137</v>
-      </c>
-      <c r="X71" s="315"/>
-      <c r="Y71" s="315"/>
-      <c r="Z71" s="315"/>
-      <c r="AA71" s="315"/>
-      <c r="AB71" s="315"/>
-      <c r="AC71" s="316"/>
-      <c r="AD71" s="314" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE71" s="315"/>
-      <c r="AF71" s="315"/>
-      <c r="AG71" s="315"/>
-      <c r="AH71" s="316"/>
+      <c r="X71" s="303"/>
+      <c r="Y71" s="303"/>
+      <c r="Z71" s="303"/>
+      <c r="AA71" s="303"/>
+      <c r="AB71" s="303"/>
+      <c r="AC71" s="304"/>
+      <c r="AD71" s="302" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE71" s="303"/>
+      <c r="AF71" s="303"/>
+      <c r="AG71" s="303"/>
+      <c r="AH71" s="304"/>
     </row>
     <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="321"/>
-      <c r="F72" s="317"/>
-      <c r="G72" s="318"/>
-      <c r="H72" s="318"/>
-      <c r="I72" s="319"/>
-      <c r="J72" s="317"/>
-      <c r="K72" s="318"/>
-      <c r="L72" s="318"/>
-      <c r="M72" s="319"/>
-      <c r="N72" s="322" t="s">
-        <v>138</v>
-      </c>
-      <c r="O72" s="322"/>
-      <c r="P72" s="322"/>
-      <c r="Q72" s="322"/>
-      <c r="R72" s="322"/>
-      <c r="S72" s="282" t="s">
-        <v>135</v>
-      </c>
-      <c r="T72" s="282"/>
-      <c r="U72" s="282"/>
-      <c r="V72" s="282"/>
-      <c r="W72" s="317"/>
-      <c r="X72" s="318"/>
-      <c r="Y72" s="318"/>
-      <c r="Z72" s="318"/>
-      <c r="AA72" s="318"/>
-      <c r="AB72" s="318"/>
-      <c r="AC72" s="319"/>
-      <c r="AD72" s="317"/>
-      <c r="AE72" s="318"/>
-      <c r="AF72" s="318"/>
-      <c r="AG72" s="318"/>
-      <c r="AH72" s="319"/>
+      <c r="E72" s="345"/>
+      <c r="F72" s="305"/>
+      <c r="G72" s="306"/>
+      <c r="H72" s="306"/>
+      <c r="I72" s="307"/>
+      <c r="J72" s="305"/>
+      <c r="K72" s="306"/>
+      <c r="L72" s="306"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="346" t="s">
+        <v>136</v>
+      </c>
+      <c r="O72" s="346"/>
+      <c r="P72" s="346"/>
+      <c r="Q72" s="346"/>
+      <c r="R72" s="346"/>
+      <c r="S72" s="278" t="s">
+        <v>133</v>
+      </c>
+      <c r="T72" s="278"/>
+      <c r="U72" s="278"/>
+      <c r="V72" s="278"/>
+      <c r="W72" s="305"/>
+      <c r="X72" s="306"/>
+      <c r="Y72" s="306"/>
+      <c r="Z72" s="306"/>
+      <c r="AA72" s="306"/>
+      <c r="AB72" s="306"/>
+      <c r="AC72" s="307"/>
+      <c r="AD72" s="305"/>
+      <c r="AE72" s="306"/>
+      <c r="AF72" s="306"/>
+      <c r="AG72" s="306"/>
+      <c r="AH72" s="307"/>
     </row>
     <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
@@ -13727,43 +13739,43 @@
       <c r="E73" s="153">
         <v>1</v>
       </c>
-      <c r="F73" s="328" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="329"/>
-      <c r="H73" s="329"/>
-      <c r="I73" s="330"/>
-      <c r="J73" s="328" t="s">
-        <v>99</v>
-      </c>
-      <c r="K73" s="329"/>
-      <c r="L73" s="329"/>
-      <c r="M73" s="330"/>
-      <c r="N73" s="326" t="s">
-        <v>81</v>
-      </c>
-      <c r="O73" s="327"/>
-      <c r="P73" s="327"/>
-      <c r="Q73" s="327"/>
-      <c r="R73" s="327"/>
-      <c r="S73" s="325" t="s">
-        <v>99</v>
-      </c>
-      <c r="T73" s="325"/>
-      <c r="U73" s="325"/>
-      <c r="V73" s="325"/>
-      <c r="W73" s="360"/>
-      <c r="X73" s="361"/>
-      <c r="Y73" s="361"/>
-      <c r="Z73" s="361"/>
-      <c r="AA73" s="361"/>
-      <c r="AB73" s="361"/>
-      <c r="AC73" s="362"/>
-      <c r="AD73" s="360"/>
-      <c r="AE73" s="361"/>
-      <c r="AF73" s="361"/>
-      <c r="AG73" s="361"/>
-      <c r="AH73" s="362"/>
+      <c r="F73" s="299" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="300"/>
+      <c r="H73" s="300"/>
+      <c r="I73" s="301"/>
+      <c r="J73" s="299" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="300"/>
+      <c r="L73" s="300"/>
+      <c r="M73" s="301"/>
+      <c r="N73" s="290" t="s">
+        <v>79</v>
+      </c>
+      <c r="O73" s="291"/>
+      <c r="P73" s="291"/>
+      <c r="Q73" s="291"/>
+      <c r="R73" s="291"/>
+      <c r="S73" s="292" t="s">
+        <v>97</v>
+      </c>
+      <c r="T73" s="292"/>
+      <c r="U73" s="292"/>
+      <c r="V73" s="292"/>
+      <c r="W73" s="281"/>
+      <c r="X73" s="282"/>
+      <c r="Y73" s="282"/>
+      <c r="Z73" s="282"/>
+      <c r="AA73" s="282"/>
+      <c r="AB73" s="282"/>
+      <c r="AC73" s="283"/>
+      <c r="AD73" s="281"/>
+      <c r="AE73" s="282"/>
+      <c r="AF73" s="282"/>
+      <c r="AG73" s="282"/>
+      <c r="AH73" s="283"/>
     </row>
     <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="80"/>
@@ -13771,43 +13783,43 @@
       <c r="E74" s="153">
         <v>2</v>
       </c>
-      <c r="F74" s="328" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="329"/>
-      <c r="H74" s="329"/>
-      <c r="I74" s="330"/>
-      <c r="J74" s="328" t="s">
-        <v>117</v>
-      </c>
-      <c r="K74" s="329"/>
-      <c r="L74" s="329"/>
-      <c r="M74" s="330"/>
-      <c r="N74" s="326" t="s">
-        <v>81</v>
-      </c>
-      <c r="O74" s="327"/>
-      <c r="P74" s="327"/>
-      <c r="Q74" s="327"/>
-      <c r="R74" s="327"/>
-      <c r="S74" s="325" t="s">
-        <v>117</v>
-      </c>
-      <c r="T74" s="325"/>
-      <c r="U74" s="325"/>
-      <c r="V74" s="325"/>
-      <c r="W74" s="360"/>
-      <c r="X74" s="361"/>
-      <c r="Y74" s="361"/>
-      <c r="Z74" s="361"/>
-      <c r="AA74" s="361"/>
-      <c r="AB74" s="361"/>
-      <c r="AC74" s="362"/>
-      <c r="AD74" s="360"/>
-      <c r="AE74" s="361"/>
-      <c r="AF74" s="361"/>
-      <c r="AG74" s="361"/>
-      <c r="AH74" s="362"/>
+      <c r="F74" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="300"/>
+      <c r="H74" s="300"/>
+      <c r="I74" s="301"/>
+      <c r="J74" s="299" t="s">
+        <v>115</v>
+      </c>
+      <c r="K74" s="300"/>
+      <c r="L74" s="300"/>
+      <c r="M74" s="301"/>
+      <c r="N74" s="290" t="s">
+        <v>79</v>
+      </c>
+      <c r="O74" s="291"/>
+      <c r="P74" s="291"/>
+      <c r="Q74" s="291"/>
+      <c r="R74" s="291"/>
+      <c r="S74" s="292" t="s">
+        <v>115</v>
+      </c>
+      <c r="T74" s="292"/>
+      <c r="U74" s="292"/>
+      <c r="V74" s="292"/>
+      <c r="W74" s="281"/>
+      <c r="X74" s="282"/>
+      <c r="Y74" s="282"/>
+      <c r="Z74" s="282"/>
+      <c r="AA74" s="282"/>
+      <c r="AB74" s="282"/>
+      <c r="AC74" s="283"/>
+      <c r="AD74" s="281"/>
+      <c r="AE74" s="282"/>
+      <c r="AF74" s="282"/>
+      <c r="AG74" s="282"/>
+      <c r="AH74" s="283"/>
     </row>
     <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="80"/>
@@ -13815,43 +13827,43 @@
       <c r="E75" s="153">
         <v>3</v>
       </c>
-      <c r="F75" s="328" t="s">
-        <v>140</v>
-      </c>
-      <c r="G75" s="329"/>
-      <c r="H75" s="329"/>
-      <c r="I75" s="330"/>
-      <c r="J75" s="328" t="s">
-        <v>118</v>
-      </c>
-      <c r="K75" s="329"/>
-      <c r="L75" s="329"/>
-      <c r="M75" s="330"/>
-      <c r="N75" s="326" t="s">
-        <v>81</v>
-      </c>
-      <c r="O75" s="327"/>
-      <c r="P75" s="327"/>
-      <c r="Q75" s="327"/>
-      <c r="R75" s="327"/>
-      <c r="S75" s="325" t="s">
-        <v>118</v>
-      </c>
-      <c r="T75" s="325"/>
-      <c r="U75" s="325"/>
-      <c r="V75" s="325"/>
-      <c r="W75" s="360"/>
-      <c r="X75" s="361"/>
-      <c r="Y75" s="361"/>
-      <c r="Z75" s="361"/>
-      <c r="AA75" s="361"/>
-      <c r="AB75" s="361"/>
-      <c r="AC75" s="362"/>
-      <c r="AD75" s="360"/>
-      <c r="AE75" s="361"/>
-      <c r="AF75" s="361"/>
-      <c r="AG75" s="361"/>
-      <c r="AH75" s="362"/>
+      <c r="F75" s="299" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="300"/>
+      <c r="H75" s="300"/>
+      <c r="I75" s="301"/>
+      <c r="J75" s="299" t="s">
+        <v>116</v>
+      </c>
+      <c r="K75" s="300"/>
+      <c r="L75" s="300"/>
+      <c r="M75" s="301"/>
+      <c r="N75" s="290" t="s">
+        <v>79</v>
+      </c>
+      <c r="O75" s="291"/>
+      <c r="P75" s="291"/>
+      <c r="Q75" s="291"/>
+      <c r="R75" s="291"/>
+      <c r="S75" s="292" t="s">
+        <v>116</v>
+      </c>
+      <c r="T75" s="292"/>
+      <c r="U75" s="292"/>
+      <c r="V75" s="292"/>
+      <c r="W75" s="281"/>
+      <c r="X75" s="282"/>
+      <c r="Y75" s="282"/>
+      <c r="Z75" s="282"/>
+      <c r="AA75" s="282"/>
+      <c r="AB75" s="282"/>
+      <c r="AC75" s="283"/>
+      <c r="AD75" s="281"/>
+      <c r="AE75" s="282"/>
+      <c r="AF75" s="282"/>
+      <c r="AG75" s="282"/>
+      <c r="AH75" s="283"/>
     </row>
     <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="80"/>
@@ -13859,35 +13871,35 @@
       <c r="E76" s="153">
         <v>4</v>
       </c>
-      <c r="F76" s="328"/>
-      <c r="G76" s="329"/>
-      <c r="H76" s="329"/>
-      <c r="I76" s="330"/>
-      <c r="J76" s="328"/>
-      <c r="K76" s="329"/>
-      <c r="L76" s="329"/>
-      <c r="M76" s="330"/>
-      <c r="N76" s="326"/>
-      <c r="O76" s="327"/>
-      <c r="P76" s="327"/>
-      <c r="Q76" s="327"/>
-      <c r="R76" s="327"/>
-      <c r="S76" s="325"/>
-      <c r="T76" s="325"/>
-      <c r="U76" s="325"/>
-      <c r="V76" s="325"/>
-      <c r="W76" s="360"/>
-      <c r="X76" s="361"/>
-      <c r="Y76" s="361"/>
-      <c r="Z76" s="361"/>
-      <c r="AA76" s="361"/>
-      <c r="AB76" s="361"/>
-      <c r="AC76" s="362"/>
-      <c r="AD76" s="360"/>
-      <c r="AE76" s="361"/>
-      <c r="AF76" s="361"/>
-      <c r="AG76" s="361"/>
-      <c r="AH76" s="362"/>
+      <c r="F76" s="299"/>
+      <c r="G76" s="300"/>
+      <c r="H76" s="300"/>
+      <c r="I76" s="301"/>
+      <c r="J76" s="299"/>
+      <c r="K76" s="300"/>
+      <c r="L76" s="300"/>
+      <c r="M76" s="301"/>
+      <c r="N76" s="290"/>
+      <c r="O76" s="291"/>
+      <c r="P76" s="291"/>
+      <c r="Q76" s="291"/>
+      <c r="R76" s="291"/>
+      <c r="S76" s="292"/>
+      <c r="T76" s="292"/>
+      <c r="U76" s="292"/>
+      <c r="V76" s="292"/>
+      <c r="W76" s="281"/>
+      <c r="X76" s="282"/>
+      <c r="Y76" s="282"/>
+      <c r="Z76" s="282"/>
+      <c r="AA76" s="282"/>
+      <c r="AB76" s="282"/>
+      <c r="AC76" s="283"/>
+      <c r="AD76" s="281"/>
+      <c r="AE76" s="282"/>
+      <c r="AF76" s="282"/>
+      <c r="AG76" s="282"/>
+      <c r="AH76" s="283"/>
     </row>
     <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="80"/>
@@ -13895,38 +13907,133 @@
       <c r="E77" s="153">
         <v>5</v>
       </c>
-      <c r="F77" s="328"/>
-      <c r="G77" s="329"/>
-      <c r="H77" s="329"/>
-      <c r="I77" s="330"/>
-      <c r="J77" s="328"/>
-      <c r="K77" s="329"/>
-      <c r="L77" s="329"/>
-      <c r="M77" s="330"/>
-      <c r="N77" s="326"/>
-      <c r="O77" s="327"/>
-      <c r="P77" s="327"/>
-      <c r="Q77" s="327"/>
-      <c r="R77" s="327"/>
-      <c r="S77" s="325"/>
-      <c r="T77" s="325"/>
-      <c r="U77" s="325"/>
-      <c r="V77" s="325"/>
-      <c r="W77" s="360"/>
-      <c r="X77" s="361"/>
-      <c r="Y77" s="361"/>
-      <c r="Z77" s="361"/>
-      <c r="AA77" s="361"/>
-      <c r="AB77" s="361"/>
-      <c r="AC77" s="362"/>
-      <c r="AD77" s="360"/>
-      <c r="AE77" s="361"/>
-      <c r="AF77" s="361"/>
-      <c r="AG77" s="361"/>
-      <c r="AH77" s="362"/>
+      <c r="F77" s="299"/>
+      <c r="G77" s="300"/>
+      <c r="H77" s="300"/>
+      <c r="I77" s="301"/>
+      <c r="J77" s="299"/>
+      <c r="K77" s="300"/>
+      <c r="L77" s="300"/>
+      <c r="M77" s="301"/>
+      <c r="N77" s="290"/>
+      <c r="O77" s="291"/>
+      <c r="P77" s="291"/>
+      <c r="Q77" s="291"/>
+      <c r="R77" s="291"/>
+      <c r="S77" s="292"/>
+      <c r="T77" s="292"/>
+      <c r="U77" s="292"/>
+      <c r="V77" s="292"/>
+      <c r="W77" s="281"/>
+      <c r="X77" s="282"/>
+      <c r="Y77" s="282"/>
+      <c r="Z77" s="282"/>
+      <c r="AA77" s="282"/>
+      <c r="AB77" s="282"/>
+      <c r="AC77" s="283"/>
+      <c r="AD77" s="281"/>
+      <c r="AE77" s="282"/>
+      <c r="AF77" s="282"/>
+      <c r="AG77" s="282"/>
+      <c r="AH77" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="O66:AH66"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="N74:R74"/>
     <mergeCell ref="S72:V72"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="AD76:AH76"/>
@@ -13951,101 +14058,6 @@
     <mergeCell ref="E43:N43"/>
     <mergeCell ref="W73:AC73"/>
     <mergeCell ref="W74:AC74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="O66:AH66"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -14089,37 +14101,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="156" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="156" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F085DEA-3CF4-4713-8309-5D96535B1B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3D084-0037-4B1F-98DB-2D085A271DF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="360" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
   <si>
     <t>PJ名</t>
   </si>
@@ -416,9 +414,6 @@
     <t>Search conditions</t>
   </si>
   <si>
-    <t>Client.Client ID</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -523,6 +518,26 @@
   </si>
   <si>
     <t>2. B010102 (Get client details)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client_name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>industry_code</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client.client_id</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1312,6 +1327,87 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1423,86 +1519,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1540,59 +1609,47 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1630,82 +1687,148 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1714,27 +1837,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1744,24 +1846,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1771,15 +1855,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1796,15 +1871,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1857,92 +1923,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3193,8 +3208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5943600" y="5124450"/>
-          <a:ext cx="609600" cy="361950"/>
+          <a:off x="6383655" y="5124450"/>
+          <a:ext cx="651510" cy="361950"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3650,8 +3665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7686675" y="4667250"/>
-          <a:ext cx="685800" cy="371475"/>
+          <a:off x="8252460" y="4667250"/>
+          <a:ext cx="748665" cy="371475"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -3875,8 +3890,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7686675" y="5143500"/>
-          <a:ext cx="685800" cy="371475"/>
+          <a:off x="8252460" y="5143500"/>
+          <a:ext cx="748665" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4279,7 +4294,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4267200" y="4219575"/>
+          <a:off x="4581525" y="4219575"/>
           <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -5637,42 +5652,42 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -5683,7 +5698,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5692,7 +5707,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5704,7 +5719,7 @@
       <c r="K25" s="157"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -5713,7 +5728,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5722,7 +5737,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5731,7 +5746,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -5739,7 +5754,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
@@ -5748,7 +5763,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
@@ -5757,7 +5772,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -5766,7 +5781,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -5778,7 +5793,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -5793,515 +5808,515 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="30"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="29"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6325,63 +6340,63 @@
       <selection activeCell="J8" sqref="J8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="20"/>
+    <col min="1" max="16384" width="4.875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="168" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="174" t="s">
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="185" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="188">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6389,53 +6404,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="168" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="174" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="161" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="188" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6443,45 +6458,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="168" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="188"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6518,1186 +6533,1030 @@
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="167" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="164" t="s">
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="164" t="s">
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="165"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="192"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209">
+      <c r="C8" s="172"/>
+      <c r="D8" s="173">
         <v>43718</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="213"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="217" t="s">
+      <c r="H8" s="177"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183"/>
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="215"/>
-      <c r="AH8" s="215"/>
-      <c r="AI8" s="216"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="205"/>
-      <c r="U9" s="205"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="205"/>
-      <c r="X9" s="205"/>
-      <c r="Y9" s="205"/>
-      <c r="Z9" s="205"/>
-      <c r="AA9" s="205"/>
-      <c r="AB9" s="205"/>
-      <c r="AC9" s="205"/>
-      <c r="AD9" s="205"/>
-      <c r="AE9" s="206"/>
-      <c r="AF9" s="201"/>
-      <c r="AG9" s="202"/>
-      <c r="AH9" s="202"/>
-      <c r="AI9" s="203"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="166"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="205"/>
-      <c r="AD10" s="205"/>
-      <c r="AE10" s="206"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="202"/>
-      <c r="AH10" s="202"/>
-      <c r="AI10" s="203"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="166"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
-      <c r="T11" s="205"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="205"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="205"/>
-      <c r="Z11" s="205"/>
-      <c r="AA11" s="205"/>
-      <c r="AB11" s="205"/>
-      <c r="AC11" s="205"/>
-      <c r="AD11" s="205"/>
-      <c r="AE11" s="206"/>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="202"/>
-      <c r="AH11" s="202"/>
-      <c r="AI11" s="203"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="166"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="205"/>
-      <c r="U12" s="205"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="205"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="205"/>
-      <c r="AA12" s="205"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="205"/>
-      <c r="AD12" s="205"/>
-      <c r="AE12" s="206"/>
-      <c r="AF12" s="201"/>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="203"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
-      <c r="T13" s="205"/>
-      <c r="U13" s="205"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="205"/>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="205"/>
-      <c r="Z13" s="205"/>
-      <c r="AA13" s="205"/>
-      <c r="AB13" s="205"/>
-      <c r="AC13" s="205"/>
-      <c r="AD13" s="205"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="201"/>
-      <c r="AG13" s="202"/>
-      <c r="AH13" s="202"/>
-      <c r="AI13" s="203"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="166"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
-      <c r="U14" s="205"/>
-      <c r="V14" s="205"/>
-      <c r="W14" s="205"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="205"/>
-      <c r="Z14" s="205"/>
-      <c r="AA14" s="205"/>
-      <c r="AB14" s="205"/>
-      <c r="AC14" s="205"/>
-      <c r="AD14" s="205"/>
-      <c r="AE14" s="206"/>
-      <c r="AF14" s="201"/>
-      <c r="AG14" s="202"/>
-      <c r="AH14" s="202"/>
-      <c r="AI14" s="203"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="166"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="205"/>
-      <c r="T15" s="205"/>
-      <c r="U15" s="205"/>
-      <c r="V15" s="205"/>
-      <c r="W15" s="205"/>
-      <c r="X15" s="205"/>
-      <c r="Y15" s="205"/>
-      <c r="Z15" s="205"/>
-      <c r="AA15" s="205"/>
-      <c r="AB15" s="205"/>
-      <c r="AC15" s="205"/>
-      <c r="AD15" s="205"/>
-      <c r="AE15" s="206"/>
-      <c r="AF15" s="201"/>
-      <c r="AG15" s="202"/>
-      <c r="AH15" s="202"/>
-      <c r="AI15" s="203"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="166"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
-      <c r="W16" s="205"/>
-      <c r="X16" s="205"/>
-      <c r="Y16" s="205"/>
-      <c r="Z16" s="205"/>
-      <c r="AA16" s="205"/>
-      <c r="AB16" s="205"/>
-      <c r="AC16" s="205"/>
-      <c r="AD16" s="205"/>
-      <c r="AE16" s="206"/>
-      <c r="AF16" s="201"/>
-      <c r="AG16" s="202"/>
-      <c r="AH16" s="202"/>
-      <c r="AI16" s="203"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="166"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="202"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="205"/>
-      <c r="T17" s="205"/>
-      <c r="U17" s="205"/>
-      <c r="V17" s="205"/>
-      <c r="W17" s="205"/>
-      <c r="X17" s="205"/>
-      <c r="Y17" s="205"/>
-      <c r="Z17" s="205"/>
-      <c r="AA17" s="205"/>
-      <c r="AB17" s="205"/>
-      <c r="AC17" s="205"/>
-      <c r="AD17" s="205"/>
-      <c r="AE17" s="206"/>
-      <c r="AF17" s="201"/>
-      <c r="AG17" s="202"/>
-      <c r="AH17" s="202"/>
-      <c r="AI17" s="203"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="166"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="205"/>
-      <c r="AA18" s="205"/>
-      <c r="AB18" s="205"/>
-      <c r="AC18" s="205"/>
-      <c r="AD18" s="205"/>
-      <c r="AE18" s="206"/>
-      <c r="AF18" s="201"/>
-      <c r="AG18" s="202"/>
-      <c r="AH18" s="202"/>
-      <c r="AI18" s="203"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="166"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="205"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="205"/>
-      <c r="AD19" s="205"/>
-      <c r="AE19" s="206"/>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="202"/>
-      <c r="AH19" s="202"/>
-      <c r="AI19" s="203"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="166"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="202"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="205"/>
-      <c r="X20" s="205"/>
-      <c r="Y20" s="205"/>
-      <c r="Z20" s="205"/>
-      <c r="AA20" s="205"/>
-      <c r="AB20" s="205"/>
-      <c r="AC20" s="205"/>
-      <c r="AD20" s="205"/>
-      <c r="AE20" s="206"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="202"/>
-      <c r="AH20" s="202"/>
-      <c r="AI20" s="203"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="166"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="202"/>
-      <c r="P21" s="203"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-      <c r="U21" s="205"/>
-      <c r="V21" s="205"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="205"/>
-      <c r="Z21" s="205"/>
-      <c r="AA21" s="205"/>
-      <c r="AB21" s="205"/>
-      <c r="AC21" s="205"/>
-      <c r="AD21" s="205"/>
-      <c r="AE21" s="206"/>
-      <c r="AF21" s="201"/>
-      <c r="AG21" s="202"/>
-      <c r="AH21" s="202"/>
-      <c r="AI21" s="203"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="166"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="202"/>
-      <c r="P22" s="203"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="205"/>
-      <c r="U22" s="205"/>
-      <c r="V22" s="205"/>
-      <c r="W22" s="205"/>
-      <c r="X22" s="205"/>
-      <c r="Y22" s="205"/>
-      <c r="Z22" s="205"/>
-      <c r="AA22" s="205"/>
-      <c r="AB22" s="205"/>
-      <c r="AC22" s="205"/>
-      <c r="AD22" s="205"/>
-      <c r="AE22" s="206"/>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="202"/>
-      <c r="AH22" s="202"/>
-      <c r="AI22" s="203"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="166"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="203"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="205"/>
-      <c r="T23" s="205"/>
-      <c r="U23" s="205"/>
-      <c r="V23" s="205"/>
-      <c r="W23" s="205"/>
-      <c r="X23" s="205"/>
-      <c r="Y23" s="205"/>
-      <c r="Z23" s="205"/>
-      <c r="AA23" s="205"/>
-      <c r="AB23" s="205"/>
-      <c r="AC23" s="205"/>
-      <c r="AD23" s="205"/>
-      <c r="AE23" s="206"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="202"/>
-      <c r="AH23" s="202"/>
-      <c r="AI23" s="203"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="166"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="205"/>
-      <c r="U24" s="205"/>
-      <c r="V24" s="205"/>
-      <c r="W24" s="205"/>
-      <c r="X24" s="205"/>
-      <c r="Y24" s="205"/>
-      <c r="Z24" s="205"/>
-      <c r="AA24" s="205"/>
-      <c r="AB24" s="205"/>
-      <c r="AC24" s="205"/>
-      <c r="AD24" s="205"/>
-      <c r="AE24" s="206"/>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="202"/>
-      <c r="AH24" s="202"/>
-      <c r="AI24" s="203"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="166"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="205"/>
-      <c r="S25" s="205"/>
-      <c r="T25" s="205"/>
-      <c r="U25" s="205"/>
-      <c r="V25" s="205"/>
-      <c r="W25" s="205"/>
-      <c r="X25" s="205"/>
-      <c r="Y25" s="205"/>
-      <c r="Z25" s="205"/>
-      <c r="AA25" s="205"/>
-      <c r="AB25" s="205"/>
-      <c r="AC25" s="205"/>
-      <c r="AD25" s="205"/>
-      <c r="AE25" s="206"/>
-      <c r="AF25" s="201"/>
-      <c r="AG25" s="202"/>
-      <c r="AH25" s="202"/>
-      <c r="AI25" s="203"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="166"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="202"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="205"/>
-      <c r="U26" s="205"/>
-      <c r="V26" s="205"/>
-      <c r="W26" s="205"/>
-      <c r="X26" s="205"/>
-      <c r="Y26" s="205"/>
-      <c r="Z26" s="205"/>
-      <c r="AA26" s="205"/>
-      <c r="AB26" s="205"/>
-      <c r="AC26" s="205"/>
-      <c r="AD26" s="205"/>
-      <c r="AE26" s="206"/>
-      <c r="AF26" s="201"/>
-      <c r="AG26" s="202"/>
-      <c r="AH26" s="202"/>
-      <c r="AI26" s="203"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="166"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="202"/>
-      <c r="P27" s="203"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="205"/>
-      <c r="U27" s="205"/>
-      <c r="V27" s="205"/>
-      <c r="W27" s="205"/>
-      <c r="X27" s="205"/>
-      <c r="Y27" s="205"/>
-      <c r="Z27" s="205"/>
-      <c r="AA27" s="205"/>
-      <c r="AB27" s="205"/>
-      <c r="AC27" s="205"/>
-      <c r="AD27" s="205"/>
-      <c r="AE27" s="206"/>
-      <c r="AF27" s="201"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="202"/>
-      <c r="AI27" s="203"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="166"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="205"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="205"/>
-      <c r="AC28" s="205"/>
-      <c r="AD28" s="205"/>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="201"/>
-      <c r="AG28" s="202"/>
-      <c r="AH28" s="202"/>
-      <c r="AI28" s="203"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="166"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="202"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="204"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="205"/>
-      <c r="T29" s="205"/>
-      <c r="U29" s="205"/>
-      <c r="V29" s="205"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
-      <c r="Y29" s="205"/>
-      <c r="Z29" s="205"/>
-      <c r="AA29" s="205"/>
-      <c r="AB29" s="205"/>
-      <c r="AC29" s="205"/>
-      <c r="AD29" s="205"/>
-      <c r="AE29" s="206"/>
-      <c r="AF29" s="201"/>
-      <c r="AG29" s="202"/>
-      <c r="AH29" s="202"/>
-      <c r="AI29" s="203"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="166"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="205"/>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205"/>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="205"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="205"/>
-      <c r="AA30" s="205"/>
-      <c r="AB30" s="205"/>
-      <c r="AC30" s="205"/>
-      <c r="AD30" s="205"/>
-      <c r="AE30" s="206"/>
-      <c r="AF30" s="201"/>
-      <c r="AG30" s="202"/>
-      <c r="AH30" s="202"/>
-      <c r="AI30" s="203"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="166"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="203"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205"/>
-      <c r="T31" s="205"/>
-      <c r="U31" s="205"/>
-      <c r="V31" s="205"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="205"/>
-      <c r="AA31" s="205"/>
-      <c r="AB31" s="205"/>
-      <c r="AC31" s="205"/>
-      <c r="AD31" s="205"/>
-      <c r="AE31" s="206"/>
-      <c r="AF31" s="201"/>
-      <c r="AG31" s="202"/>
-      <c r="AH31" s="202"/>
-      <c r="AI31" s="203"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="166"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="204"/>
-      <c r="R32" s="205"/>
-      <c r="S32" s="205"/>
-      <c r="T32" s="205"/>
-      <c r="U32" s="205"/>
-      <c r="V32" s="205"/>
-      <c r="W32" s="205"/>
-      <c r="X32" s="205"/>
-      <c r="Y32" s="205"/>
-      <c r="Z32" s="205"/>
-      <c r="AA32" s="205"/>
-      <c r="AB32" s="205"/>
-      <c r="AC32" s="205"/>
-      <c r="AD32" s="205"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="201"/>
-      <c r="AG32" s="202"/>
-      <c r="AH32" s="202"/>
-      <c r="AI32" s="203"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="166"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="202"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="205"/>
-      <c r="T33" s="205"/>
-      <c r="U33" s="205"/>
-      <c r="V33" s="205"/>
-      <c r="W33" s="205"/>
-      <c r="X33" s="205"/>
-      <c r="Y33" s="205"/>
-      <c r="Z33" s="205"/>
-      <c r="AA33" s="205"/>
-      <c r="AB33" s="205"/>
-      <c r="AC33" s="205"/>
-      <c r="AD33" s="205"/>
-      <c r="AE33" s="206"/>
-      <c r="AF33" s="201"/>
-      <c r="AG33" s="202"/>
-      <c r="AH33" s="202"/>
-      <c r="AI33" s="203"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="165"/>
+      <c r="AH33" s="165"/>
+      <c r="AI33" s="166"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7721,6 +7580,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7740,295 +7755,295 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="47" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="68" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="47" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="68" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="47"/>
-    <col min="257" max="290" width="4.83203125" style="47" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="47"/>
-    <col min="513" max="546" width="4.83203125" style="47" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="47"/>
-    <col min="769" max="802" width="4.83203125" style="47" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="47"/>
-    <col min="1025" max="1058" width="4.83203125" style="47" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="47"/>
-    <col min="1281" max="1314" width="4.83203125" style="47" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="47"/>
-    <col min="1537" max="1570" width="4.83203125" style="47" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="47"/>
-    <col min="1793" max="1826" width="4.83203125" style="47" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="47"/>
-    <col min="2049" max="2082" width="4.83203125" style="47" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="47"/>
-    <col min="2305" max="2338" width="4.83203125" style="47" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="47"/>
-    <col min="2561" max="2594" width="4.83203125" style="47" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="47"/>
-    <col min="2817" max="2850" width="4.83203125" style="47" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="47"/>
-    <col min="3073" max="3106" width="4.83203125" style="47" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="47"/>
-    <col min="3329" max="3362" width="4.83203125" style="47" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="47"/>
-    <col min="3585" max="3618" width="4.83203125" style="47" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="47"/>
-    <col min="3841" max="3874" width="4.83203125" style="47" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="47"/>
-    <col min="4097" max="4130" width="4.83203125" style="47" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="47"/>
-    <col min="4353" max="4386" width="4.83203125" style="47" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="47"/>
-    <col min="4609" max="4642" width="4.83203125" style="47" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="47"/>
-    <col min="4865" max="4898" width="4.83203125" style="47" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="47"/>
-    <col min="5121" max="5154" width="4.83203125" style="47" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="47"/>
-    <col min="5377" max="5410" width="4.83203125" style="47" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="47"/>
-    <col min="5633" max="5666" width="4.83203125" style="47" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="47"/>
-    <col min="5889" max="5922" width="4.83203125" style="47" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="47"/>
-    <col min="6145" max="6178" width="4.83203125" style="47" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="47"/>
-    <col min="6401" max="6434" width="4.83203125" style="47" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="47"/>
-    <col min="6657" max="6690" width="4.83203125" style="47" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="47"/>
-    <col min="6913" max="6946" width="4.83203125" style="47" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="47"/>
-    <col min="7169" max="7202" width="4.83203125" style="47" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="47"/>
-    <col min="7425" max="7458" width="4.83203125" style="47" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="47"/>
-    <col min="7681" max="7714" width="4.83203125" style="47" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="47"/>
-    <col min="7937" max="7970" width="4.83203125" style="47" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="47"/>
-    <col min="8193" max="8226" width="4.83203125" style="47" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="47"/>
-    <col min="8449" max="8482" width="4.83203125" style="47" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="47"/>
-    <col min="8705" max="8738" width="4.83203125" style="47" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="47"/>
-    <col min="8961" max="8994" width="4.83203125" style="47" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="47"/>
-    <col min="9217" max="9250" width="4.83203125" style="47" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="47"/>
-    <col min="9473" max="9506" width="4.83203125" style="47" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="47"/>
-    <col min="9729" max="9762" width="4.83203125" style="47" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="47"/>
-    <col min="9985" max="10018" width="4.83203125" style="47" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="47"/>
-    <col min="10241" max="10274" width="4.83203125" style="47" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="47"/>
-    <col min="10497" max="10530" width="4.83203125" style="47" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="47"/>
-    <col min="10753" max="10786" width="4.83203125" style="47" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="47"/>
-    <col min="11009" max="11042" width="4.83203125" style="47" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="47"/>
-    <col min="11265" max="11298" width="4.83203125" style="47" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="47"/>
-    <col min="11521" max="11554" width="4.83203125" style="47" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="47"/>
-    <col min="11777" max="11810" width="4.83203125" style="47" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="47"/>
-    <col min="12033" max="12066" width="4.83203125" style="47" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="47"/>
-    <col min="12289" max="12322" width="4.83203125" style="47" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="47"/>
-    <col min="12545" max="12578" width="4.83203125" style="47" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="47"/>
-    <col min="12801" max="12834" width="4.83203125" style="47" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="47"/>
-    <col min="13057" max="13090" width="4.83203125" style="47" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="47"/>
-    <col min="13313" max="13346" width="4.83203125" style="47" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="47"/>
-    <col min="13569" max="13602" width="4.83203125" style="47" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="47"/>
-    <col min="13825" max="13858" width="4.83203125" style="47" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="47"/>
-    <col min="14081" max="14114" width="4.83203125" style="47" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="47"/>
-    <col min="14337" max="14370" width="4.83203125" style="47" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="47"/>
-    <col min="14593" max="14626" width="4.83203125" style="47" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="47"/>
-    <col min="14849" max="14882" width="4.83203125" style="47" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="47"/>
-    <col min="15105" max="15138" width="4.83203125" style="47" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="47"/>
-    <col min="15361" max="15394" width="4.83203125" style="47" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="47"/>
-    <col min="15617" max="15650" width="4.83203125" style="47" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="47"/>
-    <col min="15873" max="15906" width="4.83203125" style="47" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="47"/>
-    <col min="16129" max="16162" width="4.83203125" style="47" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="47"/>
+    <col min="1" max="16" width="4.875" style="47" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="68" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="47" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="68" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="47"/>
+    <col min="257" max="290" width="4.875" style="47" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="47"/>
+    <col min="513" max="546" width="4.875" style="47" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="47"/>
+    <col min="769" max="802" width="4.875" style="47" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="47"/>
+    <col min="1025" max="1058" width="4.875" style="47" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="47"/>
+    <col min="1281" max="1314" width="4.875" style="47" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="47"/>
+    <col min="1537" max="1570" width="4.875" style="47" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="47"/>
+    <col min="1793" max="1826" width="4.875" style="47" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="47"/>
+    <col min="2049" max="2082" width="4.875" style="47" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="47"/>
+    <col min="2305" max="2338" width="4.875" style="47" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="47"/>
+    <col min="2561" max="2594" width="4.875" style="47" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="47"/>
+    <col min="2817" max="2850" width="4.875" style="47" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="47"/>
+    <col min="3073" max="3106" width="4.875" style="47" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="47"/>
+    <col min="3329" max="3362" width="4.875" style="47" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="47"/>
+    <col min="3585" max="3618" width="4.875" style="47" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="47"/>
+    <col min="3841" max="3874" width="4.875" style="47" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="47"/>
+    <col min="4097" max="4130" width="4.875" style="47" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="47"/>
+    <col min="4353" max="4386" width="4.875" style="47" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="47"/>
+    <col min="4609" max="4642" width="4.875" style="47" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="47"/>
+    <col min="4865" max="4898" width="4.875" style="47" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="47"/>
+    <col min="5121" max="5154" width="4.875" style="47" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="47"/>
+    <col min="5377" max="5410" width="4.875" style="47" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="47"/>
+    <col min="5633" max="5666" width="4.875" style="47" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="47"/>
+    <col min="5889" max="5922" width="4.875" style="47" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="47"/>
+    <col min="6145" max="6178" width="4.875" style="47" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="47"/>
+    <col min="6401" max="6434" width="4.875" style="47" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="47"/>
+    <col min="6657" max="6690" width="4.875" style="47" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="47"/>
+    <col min="6913" max="6946" width="4.875" style="47" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="47"/>
+    <col min="7169" max="7202" width="4.875" style="47" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="47"/>
+    <col min="7425" max="7458" width="4.875" style="47" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="47"/>
+    <col min="7681" max="7714" width="4.875" style="47" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="47"/>
+    <col min="7937" max="7970" width="4.875" style="47" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="47"/>
+    <col min="8193" max="8226" width="4.875" style="47" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="47"/>
+    <col min="8449" max="8482" width="4.875" style="47" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="47"/>
+    <col min="8705" max="8738" width="4.875" style="47" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="47"/>
+    <col min="8961" max="8994" width="4.875" style="47" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="47"/>
+    <col min="9217" max="9250" width="4.875" style="47" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="47"/>
+    <col min="9473" max="9506" width="4.875" style="47" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="47"/>
+    <col min="9729" max="9762" width="4.875" style="47" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="47"/>
+    <col min="9985" max="10018" width="4.875" style="47" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="47"/>
+    <col min="10241" max="10274" width="4.875" style="47" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="47"/>
+    <col min="10497" max="10530" width="4.875" style="47" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="47"/>
+    <col min="10753" max="10786" width="4.875" style="47" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="47"/>
+    <col min="11009" max="11042" width="4.875" style="47" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="47"/>
+    <col min="11265" max="11298" width="4.875" style="47" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="47"/>
+    <col min="11521" max="11554" width="4.875" style="47" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="47"/>
+    <col min="11777" max="11810" width="4.875" style="47" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="47"/>
+    <col min="12033" max="12066" width="4.875" style="47" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="47"/>
+    <col min="12289" max="12322" width="4.875" style="47" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="47"/>
+    <col min="12545" max="12578" width="4.875" style="47" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="47"/>
+    <col min="12801" max="12834" width="4.875" style="47" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="47"/>
+    <col min="13057" max="13090" width="4.875" style="47" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="47"/>
+    <col min="13313" max="13346" width="4.875" style="47" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="47"/>
+    <col min="13569" max="13602" width="4.875" style="47" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="47"/>
+    <col min="13825" max="13858" width="4.875" style="47" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="47"/>
+    <col min="14081" max="14114" width="4.875" style="47" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="47"/>
+    <col min="14337" max="14370" width="4.875" style="47" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="47"/>
+    <col min="14593" max="14626" width="4.875" style="47" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="47"/>
+    <col min="14849" max="14882" width="4.875" style="47" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="47"/>
+    <col min="15105" max="15138" width="4.875" style="47" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="47"/>
+    <col min="15361" max="15394" width="4.875" style="47" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="47"/>
+    <col min="15617" max="15650" width="4.875" style="47" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="47"/>
+    <col min="15873" max="15906" width="4.875" style="47" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="47"/>
+    <col min="16129" max="16162" width="4.875" style="47" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="222" t="s">
+    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="225" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="225">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
-    </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="227"/>
+    </row>
+    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
-    </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="227"/>
+    </row>
+    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="224"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
-    </row>
-    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="227"/>
+    </row>
+    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8065,7 +8080,7 @@
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
     </row>
-    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -8083,7 +8098,7 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
@@ -8104,7 +8119,7 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="36"/>
     </row>
-    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8141,10 +8156,10 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8180,11 +8195,11 @@
       <c r="AH7" s="45"/>
       <c r="AI7" s="46"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -8219,11 +8234,11 @@
       <c r="AH8" s="49"/>
       <c r="AI8" s="46"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -8258,7 +8273,7 @@
       <c r="AH9" s="50"/>
       <c r="AI9" s="40"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -8295,10 +8310,10 @@
       <c r="AH10" s="45"/>
       <c r="AI10" s="46"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="40"/>
@@ -8334,7 +8349,7 @@
       <c r="AH11" s="45"/>
       <c r="AI11" s="46"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="51" t="s">
@@ -8373,7 +8388,7 @@
       <c r="AH12" s="45"/>
       <c r="AI12" s="46"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40" t="s">
@@ -8407,7 +8422,7 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="46"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="46"/>
       <c r="C14" s="51" t="s">
@@ -8446,7 +8461,7 @@
       <c r="AH14" s="45"/>
       <c r="AI14" s="46"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="51"/>
       <c r="C15" s="40" t="s">
@@ -8485,7 +8500,7 @@
       <c r="AH15" s="45"/>
       <c r="AI15" s="46"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
@@ -8520,7 +8535,7 @@
       <c r="AH16" s="45"/>
       <c r="AI16" s="46"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="36"/>
       <c r="C17" s="51"/>
@@ -8557,7 +8572,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="46"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="36"/>
       <c r="C18" s="40"/>
@@ -8594,7 +8609,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="46"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="36"/>
       <c r="C19" s="40"/>
@@ -8631,7 +8646,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="36"/>
       <c r="C20" s="40"/>
@@ -8668,7 +8683,7 @@
       <c r="AH20" s="45"/>
       <c r="AI20" s="46"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="36"/>
       <c r="C21" s="40"/>
@@ -8705,7 +8720,7 @@
       <c r="AH21" s="45"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="36"/>
       <c r="C22" s="40"/>
@@ -8742,7 +8757,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="46"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="52"/>
       <c r="C23" s="42"/>
@@ -8779,7 +8794,7 @@
       <c r="AH23" s="45"/>
       <c r="AI23" s="46"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="36"/>
       <c r="C24" s="40"/>
@@ -8816,7 +8831,7 @@
       <c r="AH24" s="45"/>
       <c r="AI24" s="46"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="36"/>
       <c r="C25" s="40"/>
@@ -8853,7 +8868,7 @@
       <c r="AH25" s="45"/>
       <c r="AI25" s="46"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="36"/>
       <c r="C26" s="40"/>
@@ -8890,7 +8905,7 @@
       <c r="AH26" s="45"/>
       <c r="AI26" s="46"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="36"/>
       <c r="C27" s="40"/>
@@ -8927,7 +8942,7 @@
       <c r="AH27" s="45"/>
       <c r="AI27" s="46"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="36"/>
       <c r="C28" s="40"/>
@@ -8964,7 +8979,7 @@
       <c r="AH28" s="45"/>
       <c r="AI28" s="46"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="36"/>
       <c r="C29" s="40"/>
@@ -9001,7 +9016,7 @@
       <c r="AH29" s="45"/>
       <c r="AI29" s="46"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -9038,7 +9053,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="57"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -9075,7 +9090,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="57"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53"/>
       <c r="B32" s="60"/>
       <c r="C32" s="40"/>
@@ -9112,7 +9127,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="57"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="60"/>
       <c r="C33" s="40"/>
@@ -9149,7 +9164,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="57"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53"/>
       <c r="B34" s="60"/>
       <c r="C34" s="40"/>
@@ -9186,7 +9201,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="57"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="60"/>
       <c r="C35" s="40"/>
@@ -9223,7 +9238,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="57"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -9493,6 +9508,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9502,14 +9525,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9529,167 +9544,167 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="4.83203125" style="51"/>
-    <col min="33" max="33" width="4.83203125" style="51" customWidth="1"/>
-    <col min="34" max="16384" width="4.83203125" style="51"/>
+    <col min="1" max="32" width="4.875" style="51"/>
+    <col min="33" max="33" width="4.875" style="51" customWidth="1"/>
+    <col min="34" max="16384" width="4.875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
-    </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -9726,10 +9741,10 @@
       <c r="AH4" s="80"/>
       <c r="AI4" s="80"/>
     </row>
-    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -9765,11 +9780,11 @@
       <c r="AH5" s="80"/>
       <c r="AI5" s="80"/>
     </row>
-    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -9803,7 +9818,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -9843,92 +9858,92 @@
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="269" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="270"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="268" t="s">
+      <c r="D8" s="255" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="265"/>
+      <c r="U8" s="265"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
     </row>
     <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="269" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="264" t="s">
+      <c r="D9" s="255" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="264"/>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="264"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="264"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="264"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
-      <c r="X9" s="264"/>
-      <c r="Y9" s="264"/>
-      <c r="Z9" s="264"/>
-      <c r="AA9" s="264"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="264"/>
-      <c r="AD9" s="264"/>
-      <c r="AE9" s="264"/>
-      <c r="AF9" s="264"/>
-      <c r="AG9" s="264"/>
-      <c r="AH9" s="264"/>
-    </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+    </row>
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
-      <c r="D10" s="272" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
+      <c r="D10" s="252" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="83" t="s">
         <v>54</v>
       </c>
@@ -9963,172 +9978,172 @@
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
-      <c r="D11" s="269" t="s">
+      <c r="D11" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="268" t="s">
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268"/>
-      <c r="AH11" s="268"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="265"/>
+      <c r="O11" s="265"/>
+      <c r="P11" s="265"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="265"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="265"/>
+      <c r="X11" s="265"/>
+      <c r="Y11" s="265"/>
+      <c r="Z11" s="265"/>
+      <c r="AA11" s="265"/>
+      <c r="AB11" s="265"/>
+      <c r="AC11" s="265"/>
+      <c r="AD11" s="265"/>
+      <c r="AE11" s="265"/>
+      <c r="AF11" s="265"/>
+      <c r="AG11" s="265"/>
+      <c r="AH11" s="265"/>
     </row>
     <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="269" t="s">
+      <c r="D12" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="270"/>
-      <c r="F12" s="270"/>
-      <c r="G12" s="271"/>
-      <c r="H12" s="264" t="s">
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="264"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="264"/>
-      <c r="L12" s="264"/>
-      <c r="M12" s="264"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="264"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="261"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="261"/>
+      <c r="V12" s="261"/>
+      <c r="W12" s="261"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="261"/>
+      <c r="AF12" s="261"/>
+      <c r="AG12" s="261"/>
+      <c r="AH12" s="261"/>
     </row>
     <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="269" t="s">
+      <c r="D13" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="271"/>
-      <c r="H13" s="264" t="s">
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="264"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="264"/>
-      <c r="L13" s="264"/>
-      <c r="M13" s="264"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="264"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="264"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="264"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="264"/>
-      <c r="AH13" s="264"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="261"/>
+      <c r="M13" s="261"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="261"/>
+      <c r="S13" s="261"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="261"/>
+      <c r="V13" s="261"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="261"/>
+      <c r="Y13" s="261"/>
+      <c r="Z13" s="261"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="261"/>
+      <c r="AF13" s="261"/>
+      <c r="AG13" s="261"/>
+      <c r="AH13" s="261"/>
     </row>
     <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="269" t="s">
+      <c r="D14" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="270"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="264" t="s">
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="264"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="264"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="264"/>
-      <c r="X14" s="264"/>
-      <c r="Y14" s="264"/>
-      <c r="Z14" s="264"/>
-      <c r="AA14" s="264"/>
-      <c r="AB14" s="264"/>
-      <c r="AC14" s="264"/>
-      <c r="AD14" s="264"/>
-      <c r="AE14" s="264"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="264"/>
-      <c r="AH14" s="264"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="261"/>
+      <c r="L14" s="261"/>
+      <c r="M14" s="261"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="261"/>
+      <c r="S14" s="261"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="261"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="261"/>
+      <c r="AF14" s="261"/>
+      <c r="AG14" s="261"/>
+      <c r="AH14" s="261"/>
     </row>
     <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="269" t="s">
+      <c r="D15" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="271"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="257"/>
       <c r="H15" s="86" t="s">
         <v>62</v>
       </c>
@@ -10159,7 +10174,7 @@
       <c r="AG15" s="87"/>
       <c r="AH15" s="88"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -10199,7 +10214,7 @@
       <c r="AK16" s="91"/>
       <c r="AL16" s="91"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -10236,7 +10251,7 @@
       <c r="AH17" s="90"/>
       <c r="AI17" s="80"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -10280,33 +10295,33 @@
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="277"/>
-      <c r="L19" s="277"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="277"/>
-      <c r="O19" s="275"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="276"/>
-      <c r="R19" s="276"/>
-      <c r="S19" s="276"/>
-      <c r="T19" s="276"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="276"/>
-      <c r="W19" s="276"/>
-      <c r="X19" s="276"/>
-      <c r="Y19" s="276"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="276"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="276"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="260"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="260"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="259"/>
+      <c r="U19" s="259"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="259"/>
+      <c r="X19" s="259"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="259"/>
+      <c r="AD19" s="259"/>
       <c r="AE19" s="94"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -10343,7 +10358,7 @@
       <c r="AH20" s="80"/>
       <c r="AI20" s="80"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -10380,7 +10395,7 @@
       <c r="AH21" s="80"/>
       <c r="AI21" s="80"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -10417,7 +10432,7 @@
       <c r="AH22" s="80"/>
       <c r="AI22" s="80"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -10454,7 +10469,7 @@
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -10491,7 +10506,7 @@
       <c r="AH24" s="80"/>
       <c r="AI24" s="80"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -10528,7 +10543,7 @@
       <c r="AH25" s="80"/>
       <c r="AI25" s="80"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -10565,7 +10580,7 @@
       <c r="AH26" s="80"/>
       <c r="AI26" s="80"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -10602,7 +10617,7 @@
       <c r="AH27" s="80"/>
       <c r="AI27" s="80"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -10639,7 +10654,7 @@
       <c r="AH28" s="80"/>
       <c r="AI28" s="80"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -10676,7 +10691,7 @@
       <c r="AH29" s="80"/>
       <c r="AI29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -10713,7 +10728,7 @@
       <c r="AH30" s="80"/>
       <c r="AI30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -10750,20 +10765,19 @@
       <c r="AH31" s="80"/>
       <c r="AI31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10780,14 +10794,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10810,183 +10825,177 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="96"/>
+    <col min="1" max="16384" width="4.875" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="J13" s="96" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -10998,6 +11007,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11021,175 +11036,175 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="96"/>
+    <col min="1" max="16384" width="4.875" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
       <c r="AJ1" s="97"/>
       <c r="AK1" s="97"/>
       <c r="AL1" s="98"/>
     </row>
-    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="252" t="s">
+    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
       <c r="AJ2" s="97"/>
       <c r="AK2" s="97"/>
       <c r="AL2" s="97"/>
     </row>
-    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="252" t="s">
+    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
       <c r="AJ3" s="97"/>
       <c r="AK3" s="97"/>
       <c r="AL3" s="97"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="80" t="s">
         <v>64</v>
       </c>
@@ -11226,7 +11241,7 @@
       <c r="AG5" s="80"/>
       <c r="AH5" s="80"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="80"/>
       <c r="C6" s="80" t="s">
         <v>47</v>
@@ -11263,7 +11278,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="99"/>
@@ -11298,68 +11313,68 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="80"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="347" t="s">
+      <c r="D8" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="349" t="s">
+      <c r="E8" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="351"/>
-      <c r="K8" s="349" t="s">
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="350"/>
-      <c r="M8" s="350"/>
-      <c r="N8" s="351"/>
-      <c r="O8" s="358" t="s">
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="302" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="363" t="s">
+      <c r="P8" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="364"/>
-      <c r="R8" s="364"/>
-      <c r="S8" s="364"/>
-      <c r="T8" s="364"/>
-      <c r="U8" s="365"/>
-      <c r="V8" s="360" t="s">
+      <c r="Q8" s="308"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="309"/>
+      <c r="V8" s="304" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="360"/>
-      <c r="X8" s="360"/>
-      <c r="Y8" s="360"/>
-      <c r="Z8" s="360"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="360"/>
-      <c r="AC8" s="360"/>
-      <c r="AD8" s="360"/>
-      <c r="AE8" s="360"/>
-      <c r="AF8" s="360"/>
-      <c r="AG8" s="360"/>
-      <c r="AH8" s="360"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="W8" s="304"/>
+      <c r="X8" s="304"/>
+      <c r="Y8" s="304"/>
+      <c r="Z8" s="304"/>
+      <c r="AA8" s="304"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="304"/>
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="304"/>
+      <c r="AH8" s="304"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="353"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="353"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="352"/>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="359"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="292"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="303"/>
       <c r="P9" s="100" t="s">
         <v>70</v>
       </c>
@@ -11372,44 +11387,44 @@
       <c r="S9" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="361" t="s">
+      <c r="T9" s="305" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="362"/>
-      <c r="V9" s="360"/>
-      <c r="W9" s="360"/>
-      <c r="X9" s="360"/>
-      <c r="Y9" s="360"/>
-      <c r="Z9" s="360"/>
-      <c r="AA9" s="360"/>
-      <c r="AB9" s="360"/>
-      <c r="AC9" s="360"/>
-      <c r="AD9" s="360"/>
-      <c r="AE9" s="360"/>
-      <c r="AF9" s="360"/>
-      <c r="AG9" s="360"/>
-      <c r="AH9" s="360"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="U9" s="306"/>
+      <c r="V9" s="304"/>
+      <c r="W9" s="304"/>
+      <c r="X9" s="304"/>
+      <c r="Y9" s="304"/>
+      <c r="Z9" s="304"/>
+      <c r="AA9" s="304"/>
+      <c r="AB9" s="304"/>
+      <c r="AC9" s="304"/>
+      <c r="AD9" s="304"/>
+      <c r="AE9" s="304"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="304"/>
+      <c r="AH9" s="304"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="287" t="s">
+      <c r="E10" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="287" t="s">
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="289"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="299"/>
       <c r="O10" s="102" t="s">
         <v>77</v>
       </c>
@@ -11425,44 +11440,44 @@
       <c r="S10" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="279" t="s">
+      <c r="T10" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="280"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="288"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="288"/>
-      <c r="Z10" s="288"/>
-      <c r="AA10" s="288"/>
-      <c r="AB10" s="288"/>
-      <c r="AC10" s="288"/>
-      <c r="AD10" s="288"/>
-      <c r="AE10" s="288"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="288"/>
-      <c r="AH10" s="289"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="U10" s="301"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="298"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
+      <c r="Z10" s="298"/>
+      <c r="AA10" s="298"/>
+      <c r="AB10" s="298"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="298"/>
+      <c r="AG10" s="298"/>
+      <c r="AH10" s="299"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="101">
         <v>2</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="287" t="s">
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="289"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="298"/>
+      <c r="N11" s="299"/>
       <c r="O11" s="104" t="s">
         <v>81</v>
       </c>
@@ -11478,44 +11493,44 @@
       <c r="S11" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T11" s="279" t="s">
+      <c r="T11" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="U11" s="280"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="288"/>
-      <c r="Z11" s="288"/>
-      <c r="AA11" s="288"/>
-      <c r="AB11" s="288"/>
-      <c r="AC11" s="288"/>
-      <c r="AD11" s="288"/>
-      <c r="AE11" s="288"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="288"/>
-      <c r="AH11" s="289"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="U11" s="301"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="298"/>
+      <c r="AA11" s="298"/>
+      <c r="AB11" s="298"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="298"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="298"/>
+      <c r="AG11" s="298"/>
+      <c r="AH11" s="299"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="101">
         <v>3</v>
       </c>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="287" t="s">
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="289"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="298"/>
+      <c r="N12" s="299"/>
       <c r="O12" s="104" t="s">
         <v>81</v>
       </c>
@@ -11531,25 +11546,25 @@
       <c r="S12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="279" t="s">
+      <c r="T12" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="U12" s="280"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="288"/>
-      <c r="Z12" s="288"/>
-      <c r="AA12" s="288"/>
-      <c r="AB12" s="288"/>
-      <c r="AC12" s="288"/>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="288"/>
-      <c r="AH12" s="289"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="U12" s="301"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="298"/>
+      <c r="X12" s="298"/>
+      <c r="Y12" s="298"/>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="298"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="298"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="298"/>
+      <c r="AG12" s="298"/>
+      <c r="AH12" s="299"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="105"/>
@@ -11584,7 +11599,7 @@
       <c r="AG13" s="109"/>
       <c r="AH13" s="109"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="99"/>
@@ -11619,7 +11634,7 @@
       <c r="AG14" s="80"/>
       <c r="AH14" s="80"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="80"/>
       <c r="C15" s="96" t="s">
         <v>48</v>
@@ -11656,7 +11671,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="90"/>
     </row>
-    <row r="16" spans="1:38" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="80"/>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -11691,171 +11706,171 @@
       <c r="AG16" s="90"/>
       <c r="AH16" s="90"/>
     </row>
-    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="80"/>
       <c r="C17" s="90"/>
       <c r="D17" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="366" t="s">
+      <c r="E17" s="311" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="367"/>
-      <c r="G17" s="368"/>
-      <c r="H17" s="284" t="s">
+      <c r="F17" s="312"/>
+      <c r="G17" s="313"/>
+      <c r="H17" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="285"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="285"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="285"/>
-      <c r="V17" s="285"/>
-      <c r="W17" s="285"/>
-      <c r="X17" s="285"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="285"/>
-      <c r="AC17" s="285"/>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="285"/>
-      <c r="AH17" s="286"/>
-    </row>
-    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="364"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="364"/>
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="364"/>
+      <c r="V17" s="364"/>
+      <c r="W17" s="364"/>
+      <c r="X17" s="364"/>
+      <c r="Y17" s="364"/>
+      <c r="Z17" s="364"/>
+      <c r="AA17" s="364"/>
+      <c r="AB17" s="364"/>
+      <c r="AC17" s="364"/>
+      <c r="AD17" s="364"/>
+      <c r="AE17" s="364"/>
+      <c r="AF17" s="364"/>
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="365"/>
+    </row>
+    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="80"/>
       <c r="C18" s="90"/>
       <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="287" t="s">
+      <c r="E18" s="297" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="288"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="287" t="s">
+      <c r="F18" s="298"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="297" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="289"/>
-    </row>
-    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="298"/>
+      <c r="J18" s="298"/>
+      <c r="K18" s="298"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="298"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="298"/>
+      <c r="W18" s="298"/>
+      <c r="X18" s="298"/>
+      <c r="Y18" s="298"/>
+      <c r="Z18" s="298"/>
+      <c r="AA18" s="298"/>
+      <c r="AB18" s="298"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="298"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="298"/>
+      <c r="AG18" s="298"/>
+      <c r="AH18" s="299"/>
+    </row>
+    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="51"/>
       <c r="C19" s="90"/>
       <c r="D19" s="101">
         <v>2</v>
       </c>
-      <c r="E19" s="287" t="s">
+      <c r="E19" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="288"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="287" t="s">
+      <c r="F19" s="298"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="288"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="288"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="288"/>
-      <c r="Z19" s="288"/>
-      <c r="AA19" s="288"/>
-      <c r="AB19" s="288"/>
-      <c r="AC19" s="288"/>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="288"/>
-      <c r="AH19" s="289"/>
-    </row>
-    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="298"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="298"/>
+      <c r="Q19" s="298"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="298"/>
+      <c r="W19" s="298"/>
+      <c r="X19" s="298"/>
+      <c r="Y19" s="298"/>
+      <c r="Z19" s="298"/>
+      <c r="AA19" s="298"/>
+      <c r="AB19" s="298"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="298"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="298"/>
+      <c r="AG19" s="298"/>
+      <c r="AH19" s="299"/>
+    </row>
+    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="51"/>
       <c r="C20" s="90"/>
       <c r="D20" s="101">
         <v>3</v>
       </c>
-      <c r="E20" s="287" t="s">
+      <c r="E20" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="288"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="287" t="s">
+      <c r="F20" s="298"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="297" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="288"/>
-      <c r="N20" s="288"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="288"/>
-      <c r="R20" s="288"/>
-      <c r="S20" s="288"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="288"/>
-      <c r="Z20" s="288"/>
-      <c r="AA20" s="288"/>
-      <c r="AB20" s="288"/>
-      <c r="AC20" s="288"/>
-      <c r="AD20" s="288"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="288"/>
-      <c r="AH20" s="289"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="I20" s="298"/>
+      <c r="J20" s="298"/>
+      <c r="K20" s="298"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="298"/>
+      <c r="N20" s="298"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="298"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="298"/>
+      <c r="W20" s="298"/>
+      <c r="X20" s="298"/>
+      <c r="Y20" s="298"/>
+      <c r="Z20" s="298"/>
+      <c r="AA20" s="298"/>
+      <c r="AB20" s="298"/>
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="298"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="298"/>
+      <c r="AG20" s="298"/>
+      <c r="AH20" s="299"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B21" s="112"/>
       <c r="C21" s="90"/>
       <c r="D21" s="113"/>
@@ -11890,7 +11905,7 @@
       <c r="AG21" s="90"/>
       <c r="AH21" s="90"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B22" s="112"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
@@ -11925,7 +11940,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="90"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B23" s="112"/>
       <c r="C23" s="90" t="s">
         <v>49</v>
@@ -11962,7 +11977,7 @@
       <c r="AG23" s="118"/>
       <c r="AH23" s="118"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
       <c r="D24" s="117" t="s">
@@ -11999,7 +12014,7 @@
       <c r="AG24" s="118"/>
       <c r="AH24" s="118"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B25" s="112"/>
       <c r="C25" s="90"/>
       <c r="D25" s="117"/>
@@ -12034,7 +12049,7 @@
       <c r="AG25" s="118"/>
       <c r="AH25" s="118"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B26" s="112"/>
       <c r="C26" s="90"/>
       <c r="E26" s="119" t="s">
@@ -12061,7 +12076,7 @@
       <c r="T26" s="121"/>
       <c r="U26" s="122"/>
       <c r="V26" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W26" s="120" t="s">
         <v>95</v>
@@ -12076,7 +12091,7 @@
       <c r="AG26" s="118"/>
       <c r="AH26" s="125"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="112"/>
       <c r="C27" s="90"/>
@@ -12124,7 +12139,7 @@
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -12161,7 +12176,7 @@
       <c r="AH29" s="40"/>
       <c r="AI29" s="40"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40" t="s">
@@ -12200,7 +12215,7 @@
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -12239,7 +12254,7 @@
       <c r="AH31" s="40"/>
       <c r="AI31" s="40"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -12276,7 +12291,7 @@
       <c r="AH32" s="40"/>
       <c r="AI32" s="40"/>
     </row>
-    <row r="33" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -12284,48 +12299,48 @@
       <c r="E33" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="308" t="s">
+      <c r="F33" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="309"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="309"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="308" t="s">
+      <c r="G33" s="332"/>
+      <c r="H33" s="332"/>
+      <c r="I33" s="332"/>
+      <c r="J33" s="332"/>
+      <c r="K33" s="333"/>
+      <c r="L33" s="331" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="309"/>
-      <c r="N33" s="309"/>
-      <c r="O33" s="309"/>
-      <c r="P33" s="309"/>
-      <c r="Q33" s="309"/>
-      <c r="R33" s="309"/>
-      <c r="S33" s="309"/>
-      <c r="T33" s="309"/>
-      <c r="U33" s="310"/>
-      <c r="V33" s="311" t="s">
+      <c r="M33" s="332"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
+      <c r="P33" s="332"/>
+      <c r="Q33" s="332"/>
+      <c r="R33" s="332"/>
+      <c r="S33" s="332"/>
+      <c r="T33" s="332"/>
+      <c r="U33" s="333"/>
+      <c r="V33" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="W33" s="312"/>
-      <c r="X33" s="313"/>
-      <c r="Y33" s="311" t="s">
+      <c r="W33" s="284"/>
+      <c r="X33" s="285"/>
+      <c r="Y33" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="Z33" s="312"/>
-      <c r="AA33" s="312"/>
-      <c r="AB33" s="313"/>
-      <c r="AC33" s="314" t="s">
+      <c r="Z33" s="284"/>
+      <c r="AA33" s="284"/>
+      <c r="AB33" s="285"/>
+      <c r="AC33" s="334" t="s">
         <v>104</v>
       </c>
-      <c r="AD33" s="315"/>
-      <c r="AE33" s="315"/>
-      <c r="AF33" s="316"/>
+      <c r="AD33" s="335"/>
+      <c r="AE33" s="335"/>
+      <c r="AF33" s="336"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
     </row>
-    <row r="34" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -12333,48 +12348,48 @@
       <c r="E34" s="136">
         <v>1</v>
       </c>
-      <c r="F34" s="320" t="s">
+      <c r="F34" s="279" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="321"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="321"/>
-      <c r="J34" s="321"/>
-      <c r="K34" s="322"/>
-      <c r="L34" s="320" t="s">
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="281"/>
+      <c r="L34" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="M34" s="321"/>
-      <c r="N34" s="321"/>
-      <c r="O34" s="321"/>
-      <c r="P34" s="321"/>
-      <c r="Q34" s="321"/>
-      <c r="R34" s="321"/>
-      <c r="S34" s="321"/>
-      <c r="T34" s="321"/>
-      <c r="U34" s="322"/>
-      <c r="V34" s="340" t="s">
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
+      <c r="O34" s="280"/>
+      <c r="P34" s="280"/>
+      <c r="Q34" s="280"/>
+      <c r="R34" s="280"/>
+      <c r="S34" s="280"/>
+      <c r="T34" s="280"/>
+      <c r="U34" s="281"/>
+      <c r="V34" s="357" t="s">
         <v>107</v>
       </c>
-      <c r="W34" s="341"/>
-      <c r="X34" s="342"/>
-      <c r="Y34" s="317" t="s">
+      <c r="W34" s="358"/>
+      <c r="X34" s="359"/>
+      <c r="Y34" s="337" t="s">
         <v>107</v>
       </c>
-      <c r="Z34" s="318"/>
-      <c r="AA34" s="318"/>
-      <c r="AB34" s="319"/>
-      <c r="AC34" s="320" t="s">
+      <c r="Z34" s="338"/>
+      <c r="AA34" s="338"/>
+      <c r="AB34" s="339"/>
+      <c r="AC34" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="AD34" s="321"/>
-      <c r="AE34" s="321"/>
-      <c r="AF34" s="322"/>
+      <c r="AD34" s="280"/>
+      <c r="AE34" s="280"/>
+      <c r="AF34" s="281"/>
       <c r="AG34" s="40"/>
       <c r="AH34" s="40"/>
       <c r="AI34" s="40"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -12411,7 +12426,7 @@
       <c r="AH35" s="40"/>
       <c r="AI35" s="40"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -12428,85 +12443,85 @@
       <c r="AH36" s="40"/>
       <c r="AI36" s="40"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="286" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="370"/>
-      <c r="H37" s="370"/>
-      <c r="I37" s="370"/>
-      <c r="J37" s="278" t="s">
+      <c r="F37" s="287"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="282" t="s">
         <v>109</v>
       </c>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
-      <c r="M37" s="311" t="s">
+      <c r="K37" s="282"/>
+      <c r="L37" s="282"/>
+      <c r="M37" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="N37" s="312"/>
-      <c r="O37" s="312"/>
-      <c r="P37" s="312"/>
-      <c r="Q37" s="312"/>
-      <c r="R37" s="312"/>
-      <c r="S37" s="313"/>
-      <c r="T37" s="311" t="s">
+      <c r="N37" s="284"/>
+      <c r="O37" s="284"/>
+      <c r="P37" s="284"/>
+      <c r="Q37" s="284"/>
+      <c r="R37" s="284"/>
+      <c r="S37" s="285"/>
+      <c r="T37" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="U37" s="312"/>
-      <c r="V37" s="312"/>
-      <c r="W37" s="312"/>
-      <c r="X37" s="312"/>
-      <c r="Y37" s="312"/>
-      <c r="Z37" s="312"/>
-      <c r="AA37" s="312"/>
-      <c r="AB37" s="312"/>
-      <c r="AC37" s="312"/>
-      <c r="AD37" s="313"/>
-    </row>
-    <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U37" s="284"/>
+      <c r="V37" s="284"/>
+      <c r="W37" s="284"/>
+      <c r="X37" s="284"/>
+      <c r="Y37" s="284"/>
+      <c r="Z37" s="284"/>
+      <c r="AA37" s="284"/>
+      <c r="AB37" s="284"/>
+      <c r="AC37" s="284"/>
+      <c r="AD37" s="285"/>
+    </row>
+    <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="E38" s="320" t="s">
+      <c r="E38" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="371" t="s">
+      <c r="F38" s="280"/>
+      <c r="G38" s="280"/>
+      <c r="H38" s="280"/>
+      <c r="I38" s="280"/>
+      <c r="J38" s="278" t="s">
         <v>111</v>
       </c>
-      <c r="K38" s="371"/>
-      <c r="L38" s="371"/>
-      <c r="M38" s="320" t="s">
+      <c r="K38" s="278"/>
+      <c r="L38" s="278"/>
+      <c r="M38" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="N38" s="321"/>
-      <c r="O38" s="321"/>
-      <c r="P38" s="321"/>
-      <c r="Q38" s="321"/>
-      <c r="R38" s="321"/>
-      <c r="S38" s="322"/>
-      <c r="T38" s="320" t="s">
+      <c r="N38" s="280"/>
+      <c r="O38" s="280"/>
+      <c r="P38" s="280"/>
+      <c r="Q38" s="280"/>
+      <c r="R38" s="280"/>
+      <c r="S38" s="281"/>
+      <c r="T38" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="U38" s="321"/>
-      <c r="V38" s="321"/>
-      <c r="W38" s="321"/>
-      <c r="X38" s="321"/>
-      <c r="Y38" s="321"/>
-      <c r="Z38" s="321"/>
-      <c r="AA38" s="321"/>
-      <c r="AB38" s="321"/>
-      <c r="AC38" s="321"/>
-      <c r="AD38" s="322"/>
-    </row>
-    <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U38" s="280"/>
+      <c r="V38" s="280"/>
+      <c r="W38" s="280"/>
+      <c r="X38" s="280"/>
+      <c r="Y38" s="280"/>
+      <c r="Z38" s="280"/>
+      <c r="AA38" s="280"/>
+      <c r="AB38" s="280"/>
+      <c r="AC38" s="280"/>
+      <c r="AD38" s="281"/>
+    </row>
+    <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -12537,7 +12552,7 @@
       <c r="AC39" s="137"/>
       <c r="AD39" s="137"/>
     </row>
-    <row r="40" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -12568,7 +12583,7 @@
       <c r="AC40" s="137"/>
       <c r="AD40" s="137"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -12607,7 +12622,7 @@
       <c r="AH41" s="40"/>
       <c r="AI41" s="40"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -12644,35 +12659,35 @@
       <c r="AH42" s="40"/>
       <c r="AI42" s="40"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="296" t="s">
+      <c r="E43" s="369" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-      <c r="H43" s="297"/>
-      <c r="I43" s="297"/>
-      <c r="J43" s="297"/>
-      <c r="K43" s="297"/>
-      <c r="L43" s="297"/>
-      <c r="M43" s="297"/>
-      <c r="N43" s="298"/>
-      <c r="O43" s="323" t="s">
+      <c r="F43" s="370"/>
+      <c r="G43" s="370"/>
+      <c r="H43" s="370"/>
+      <c r="I43" s="370"/>
+      <c r="J43" s="370"/>
+      <c r="K43" s="370"/>
+      <c r="L43" s="370"/>
+      <c r="M43" s="370"/>
+      <c r="N43" s="371"/>
+      <c r="O43" s="340" t="s">
         <v>114</v>
       </c>
-      <c r="P43" s="324"/>
-      <c r="Q43" s="324"/>
-      <c r="R43" s="324"/>
-      <c r="S43" s="324"/>
-      <c r="T43" s="324"/>
-      <c r="U43" s="324"/>
-      <c r="V43" s="324"/>
-      <c r="W43" s="324"/>
-      <c r="X43" s="325"/>
+      <c r="P43" s="341"/>
+      <c r="Q43" s="341"/>
+      <c r="R43" s="341"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
+      <c r="X43" s="342"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -12685,35 +12700,35 @@
       <c r="AH43" s="40"/>
       <c r="AI43" s="40"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="326" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="327"/>
-      <c r="G44" s="327"/>
-      <c r="H44" s="327"/>
-      <c r="I44" s="327"/>
-      <c r="J44" s="327"/>
-      <c r="K44" s="327"/>
-      <c r="L44" s="327"/>
-      <c r="M44" s="327"/>
-      <c r="N44" s="328"/>
-      <c r="O44" s="335" t="s">
-        <v>97</v>
-      </c>
-      <c r="P44" s="335"/>
-      <c r="Q44" s="335"/>
-      <c r="R44" s="335"/>
-      <c r="S44" s="335"/>
-      <c r="T44" s="335"/>
-      <c r="U44" s="335"/>
-      <c r="V44" s="335"/>
-      <c r="W44" s="335"/>
-      <c r="X44" s="336"/>
+      <c r="E44" s="343" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="344"/>
+      <c r="G44" s="344"/>
+      <c r="H44" s="344"/>
+      <c r="I44" s="344"/>
+      <c r="J44" s="344"/>
+      <c r="K44" s="344"/>
+      <c r="L44" s="344"/>
+      <c r="M44" s="344"/>
+      <c r="N44" s="345"/>
+      <c r="O44" s="352" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="352"/>
+      <c r="Q44" s="352"/>
+      <c r="R44" s="352"/>
+      <c r="S44" s="352"/>
+      <c r="T44" s="352"/>
+      <c r="U44" s="352"/>
+      <c r="V44" s="352"/>
+      <c r="W44" s="352"/>
+      <c r="X44" s="353"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -12726,33 +12741,33 @@
       <c r="AH44" s="40"/>
       <c r="AI44" s="40"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="329"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="330"/>
-      <c r="H45" s="330"/>
-      <c r="I45" s="330"/>
-      <c r="J45" s="330"/>
-      <c r="K45" s="330"/>
-      <c r="L45" s="330"/>
-      <c r="M45" s="330"/>
-      <c r="N45" s="331"/>
-      <c r="O45" s="335" t="s">
-        <v>115</v>
-      </c>
-      <c r="P45" s="335"/>
-      <c r="Q45" s="335"/>
-      <c r="R45" s="335"/>
-      <c r="S45" s="335"/>
-      <c r="T45" s="335"/>
-      <c r="U45" s="335"/>
-      <c r="V45" s="335"/>
-      <c r="W45" s="335"/>
-      <c r="X45" s="336"/>
+      <c r="E45" s="346"/>
+      <c r="F45" s="347"/>
+      <c r="G45" s="347"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="347"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="347"/>
+      <c r="L45" s="347"/>
+      <c r="M45" s="347"/>
+      <c r="N45" s="348"/>
+      <c r="O45" s="352" t="s">
+        <v>154</v>
+      </c>
+      <c r="P45" s="352"/>
+      <c r="Q45" s="352"/>
+      <c r="R45" s="352"/>
+      <c r="S45" s="352"/>
+      <c r="T45" s="352"/>
+      <c r="U45" s="352"/>
+      <c r="V45" s="352"/>
+      <c r="W45" s="352"/>
+      <c r="X45" s="353"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -12765,33 +12780,33 @@
       <c r="AH45" s="40"/>
       <c r="AI45" s="40"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="337" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="338"/>
-      <c r="Q46" s="338"/>
-      <c r="R46" s="338"/>
-      <c r="S46" s="338"/>
-      <c r="T46" s="338"/>
-      <c r="U46" s="338"/>
-      <c r="V46" s="338"/>
-      <c r="W46" s="338"/>
-      <c r="X46" s="339"/>
+      <c r="E46" s="349"/>
+      <c r="F46" s="350"/>
+      <c r="G46" s="350"/>
+      <c r="H46" s="350"/>
+      <c r="I46" s="350"/>
+      <c r="J46" s="350"/>
+      <c r="K46" s="350"/>
+      <c r="L46" s="350"/>
+      <c r="M46" s="350"/>
+      <c r="N46" s="351"/>
+      <c r="O46" s="354" t="s">
+        <v>155</v>
+      </c>
+      <c r="P46" s="355"/>
+      <c r="Q46" s="355"/>
+      <c r="R46" s="355"/>
+      <c r="S46" s="355"/>
+      <c r="T46" s="355"/>
+      <c r="U46" s="355"/>
+      <c r="V46" s="355"/>
+      <c r="W46" s="355"/>
+      <c r="X46" s="356"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -12804,33 +12819,33 @@
       <c r="AH46" s="40"/>
       <c r="AI46" s="40"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="366" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="294"/>
-      <c r="I47" s="294"/>
-      <c r="J47" s="294"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="294"/>
-      <c r="M47" s="294"/>
-      <c r="N47" s="294"/>
-      <c r="O47" s="294"/>
-      <c r="P47" s="294"/>
-      <c r="Q47" s="294"/>
-      <c r="R47" s="294"/>
-      <c r="S47" s="294"/>
-      <c r="T47" s="294"/>
-      <c r="U47" s="294"/>
-      <c r="V47" s="294"/>
-      <c r="W47" s="294"/>
-      <c r="X47" s="295"/>
+      <c r="F47" s="367"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="367"/>
+      <c r="I47" s="367"/>
+      <c r="J47" s="367"/>
+      <c r="K47" s="367"/>
+      <c r="L47" s="367"/>
+      <c r="M47" s="367"/>
+      <c r="N47" s="367"/>
+      <c r="O47" s="367"/>
+      <c r="P47" s="367"/>
+      <c r="Q47" s="367"/>
+      <c r="R47" s="367"/>
+      <c r="S47" s="367"/>
+      <c r="T47" s="367"/>
+      <c r="U47" s="367"/>
+      <c r="V47" s="367"/>
+      <c r="W47" s="367"/>
+      <c r="X47" s="368"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
@@ -12843,7 +12858,7 @@
       <c r="AH47" s="40"/>
       <c r="AI47" s="40"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -12880,26 +12895,26 @@
       <c r="AH48" s="40"/>
       <c r="AI48" s="40"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
       <c r="E49" s="142"/>
       <c r="F49" s="143" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="G49" s="143"/>
       <c r="H49" s="143"/>
       <c r="I49" s="143"/>
       <c r="J49" s="144"/>
       <c r="K49" s="144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L49" s="143"/>
       <c r="M49" s="143"/>
       <c r="N49" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O49" s="143"/>
       <c r="P49" s="143"/>
@@ -12923,7 +12938,7 @@
       <c r="AH49" s="40"/>
       <c r="AI49" s="40"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -12960,7 +12975,7 @@
       <c r="AH50" s="40"/>
       <c r="AI50" s="40"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -12997,12 +13012,12 @@
       <c r="AH51" s="40"/>
       <c r="AI51" s="40"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="E52" s="96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA52" s="40"/>
       <c r="AB52" s="40"/>
@@ -13014,85 +13029,85 @@
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
-      <c r="E53" s="369" t="s">
+      <c r="E53" s="286" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="370"/>
-      <c r="G53" s="370"/>
-      <c r="H53" s="370"/>
-      <c r="I53" s="370"/>
-      <c r="J53" s="278" t="s">
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="287"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="282" t="s">
         <v>109</v>
       </c>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
-      <c r="M53" s="311" t="s">
+      <c r="K53" s="282"/>
+      <c r="L53" s="282"/>
+      <c r="M53" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="N53" s="312"/>
-      <c r="O53" s="312"/>
-      <c r="P53" s="312"/>
-      <c r="Q53" s="312"/>
-      <c r="R53" s="312"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="311" t="s">
+      <c r="N53" s="284"/>
+      <c r="O53" s="284"/>
+      <c r="P53" s="284"/>
+      <c r="Q53" s="284"/>
+      <c r="R53" s="284"/>
+      <c r="S53" s="285"/>
+      <c r="T53" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="U53" s="312"/>
-      <c r="V53" s="312"/>
-      <c r="W53" s="312"/>
-      <c r="X53" s="312"/>
-      <c r="Y53" s="312"/>
-      <c r="Z53" s="312"/>
-      <c r="AA53" s="312"/>
-      <c r="AB53" s="312"/>
-      <c r="AC53" s="312"/>
-      <c r="AD53" s="313"/>
-    </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="284"/>
+      <c r="V53" s="284"/>
+      <c r="W53" s="284"/>
+      <c r="X53" s="284"/>
+      <c r="Y53" s="284"/>
+      <c r="Z53" s="284"/>
+      <c r="AA53" s="284"/>
+      <c r="AB53" s="284"/>
+      <c r="AC53" s="284"/>
+      <c r="AD53" s="285"/>
+    </row>
+    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
-      <c r="E54" s="320" t="s">
+      <c r="E54" s="279" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="280"/>
+      <c r="G54" s="280"/>
+      <c r="H54" s="280"/>
+      <c r="I54" s="280"/>
+      <c r="J54" s="278" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="321"/>
-      <c r="G54" s="321"/>
-      <c r="H54" s="321"/>
-      <c r="I54" s="321"/>
-      <c r="J54" s="371" t="s">
+      <c r="K54" s="278"/>
+      <c r="L54" s="278"/>
+      <c r="M54" s="279" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="371"/>
-      <c r="L54" s="371"/>
-      <c r="M54" s="320" t="s">
-        <v>124</v>
-      </c>
-      <c r="N54" s="321"/>
-      <c r="O54" s="321"/>
-      <c r="P54" s="321"/>
-      <c r="Q54" s="321"/>
-      <c r="R54" s="321"/>
-      <c r="S54" s="322"/>
-      <c r="T54" s="320" t="s">
+      <c r="N54" s="280"/>
+      <c r="O54" s="280"/>
+      <c r="P54" s="280"/>
+      <c r="Q54" s="280"/>
+      <c r="R54" s="280"/>
+      <c r="S54" s="281"/>
+      <c r="T54" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="U54" s="321"/>
-      <c r="V54" s="321"/>
-      <c r="W54" s="321"/>
-      <c r="X54" s="321"/>
-      <c r="Y54" s="321"/>
-      <c r="Z54" s="321"/>
-      <c r="AA54" s="321"/>
-      <c r="AB54" s="321"/>
-      <c r="AC54" s="321"/>
-      <c r="AD54" s="322"/>
-    </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="280"/>
+      <c r="V54" s="280"/>
+      <c r="W54" s="280"/>
+      <c r="X54" s="280"/>
+      <c r="Y54" s="280"/>
+      <c r="Z54" s="280"/>
+      <c r="AA54" s="280"/>
+      <c r="AB54" s="280"/>
+      <c r="AC54" s="280"/>
+      <c r="AD54" s="281"/>
+    </row>
+    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -13123,12 +13138,12 @@
       <c r="AC55" s="137"/>
       <c r="AD55" s="137"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -13162,7 +13177,7 @@
       <c r="AH56" s="40"/>
       <c r="AI56" s="40"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -13199,13 +13214,13 @@
       <c r="AH57" s="40"/>
       <c r="AI57" s="40"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -13238,7 +13253,7 @@
       <c r="AH58" s="40"/>
       <c r="AI58" s="40"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
@@ -13275,7 +13290,7 @@
       <c r="AH59" s="40"/>
       <c r="AI59" s="40"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -13312,7 +13327,7 @@
       <c r="AH60" s="40"/>
       <c r="AI60" s="40"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C61" s="80" t="s">
         <v>51</v>
       </c>
@@ -13346,10 +13361,10 @@
       <c r="AE61" s="80"/>
       <c r="AF61" s="80"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C62" s="80"/>
       <c r="D62" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
@@ -13380,7 +13395,7 @@
       <c r="AE62" s="80"/>
       <c r="AF62" s="80"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -13412,10 +13427,10 @@
       <c r="AE63" s="80"/>
       <c r="AF63" s="80"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C64" s="80"/>
       <c r="E64" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -13445,7 +13460,7 @@
       <c r="AE64" s="80"/>
       <c r="AF64" s="80"/>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C65" s="80"/>
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
@@ -13477,49 +13492,49 @@
       <c r="AE65" s="80"/>
       <c r="AF65" s="80"/>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="343" t="s">
+      <c r="E66" s="310" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="343"/>
-      <c r="G66" s="355" t="s">
+      <c r="F66" s="310"/>
+      <c r="G66" s="294" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="295"/>
+      <c r="I66" s="295"/>
+      <c r="J66" s="295"/>
+      <c r="K66" s="295"/>
+      <c r="L66" s="296"/>
+      <c r="M66" s="310" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="356"/>
-      <c r="I66" s="356"/>
-      <c r="J66" s="356"/>
-      <c r="K66" s="356"/>
-      <c r="L66" s="357"/>
-      <c r="M66" s="343" t="s">
-        <v>130</v>
-      </c>
-      <c r="N66" s="343"/>
-      <c r="O66" s="355" t="s">
+      <c r="N66" s="310"/>
+      <c r="O66" s="294" t="s">
         <v>83</v>
       </c>
-      <c r="P66" s="356"/>
-      <c r="Q66" s="356"/>
-      <c r="R66" s="356"/>
-      <c r="S66" s="356"/>
-      <c r="T66" s="356"/>
-      <c r="U66" s="356"/>
-      <c r="V66" s="356"/>
-      <c r="W66" s="356"/>
-      <c r="X66" s="356"/>
-      <c r="Y66" s="356"/>
-      <c r="Z66" s="356"/>
-      <c r="AA66" s="356"/>
-      <c r="AB66" s="356"/>
-      <c r="AC66" s="356"/>
-      <c r="AD66" s="356"/>
-      <c r="AE66" s="356"/>
-      <c r="AF66" s="356"/>
-      <c r="AG66" s="356"/>
-      <c r="AH66" s="357"/>
-    </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="P66" s="295"/>
+      <c r="Q66" s="295"/>
+      <c r="R66" s="295"/>
+      <c r="S66" s="295"/>
+      <c r="T66" s="295"/>
+      <c r="U66" s="295"/>
+      <c r="V66" s="295"/>
+      <c r="W66" s="295"/>
+      <c r="X66" s="295"/>
+      <c r="Y66" s="295"/>
+      <c r="Z66" s="295"/>
+      <c r="AA66" s="295"/>
+      <c r="AB66" s="295"/>
+      <c r="AC66" s="295"/>
+      <c r="AD66" s="295"/>
+      <c r="AE66" s="295"/>
+      <c r="AF66" s="295"/>
+      <c r="AG66" s="295"/>
+      <c r="AH66" s="296"/>
+    </row>
+    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -13551,7 +13566,7 @@
       <c r="AE67" s="80"/>
       <c r="AF67" s="80"/>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -13583,10 +13598,10 @@
       <c r="AE68" s="80"/>
       <c r="AF68" s="80"/>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C69" s="80"/>
       <c r="D69" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="80"/>
       <c r="F69" s="80"/>
@@ -13617,7 +13632,7 @@
       <c r="AE69" s="80"/>
       <c r="AF69" s="80"/>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -13649,310 +13664,377 @@
       <c r="AE70" s="80"/>
       <c r="AF70" s="80"/>
     </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
-      <c r="E71" s="344" t="s">
+      <c r="E71" s="320" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="302" t="s">
+      <c r="F71" s="314" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="315"/>
+      <c r="H71" s="315"/>
+      <c r="I71" s="316"/>
+      <c r="J71" s="314" t="s">
         <v>132</v>
       </c>
-      <c r="G71" s="303"/>
-      <c r="H71" s="303"/>
-      <c r="I71" s="304"/>
-      <c r="J71" s="302" t="s">
+      <c r="K71" s="315"/>
+      <c r="L71" s="315"/>
+      <c r="M71" s="316"/>
+      <c r="N71" s="322" t="s">
         <v>133</v>
       </c>
-      <c r="K71" s="303"/>
-      <c r="L71" s="303"/>
-      <c r="M71" s="304"/>
-      <c r="N71" s="346" t="s">
+      <c r="O71" s="322"/>
+      <c r="P71" s="322"/>
+      <c r="Q71" s="322"/>
+      <c r="R71" s="322"/>
+      <c r="S71" s="322"/>
+      <c r="T71" s="322"/>
+      <c r="U71" s="322"/>
+      <c r="V71" s="322"/>
+      <c r="W71" s="314" t="s">
         <v>134</v>
       </c>
-      <c r="O71" s="346"/>
-      <c r="P71" s="346"/>
-      <c r="Q71" s="346"/>
-      <c r="R71" s="346"/>
-      <c r="S71" s="346"/>
-      <c r="T71" s="346"/>
-      <c r="U71" s="346"/>
-      <c r="V71" s="346"/>
-      <c r="W71" s="302" t="s">
-        <v>135</v>
-      </c>
-      <c r="X71" s="303"/>
-      <c r="Y71" s="303"/>
-      <c r="Z71" s="303"/>
-      <c r="AA71" s="303"/>
-      <c r="AB71" s="303"/>
-      <c r="AC71" s="304"/>
-      <c r="AD71" s="302" t="s">
+      <c r="X71" s="315"/>
+      <c r="Y71" s="315"/>
+      <c r="Z71" s="315"/>
+      <c r="AA71" s="315"/>
+      <c r="AB71" s="315"/>
+      <c r="AC71" s="316"/>
+      <c r="AD71" s="314" t="s">
         <v>69</v>
       </c>
-      <c r="AE71" s="303"/>
-      <c r="AF71" s="303"/>
-      <c r="AG71" s="303"/>
-      <c r="AH71" s="304"/>
-    </row>
-    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="AE71" s="315"/>
+      <c r="AF71" s="315"/>
+      <c r="AG71" s="315"/>
+      <c r="AH71" s="316"/>
+    </row>
+    <row r="72" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C72" s="80"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="345"/>
-      <c r="F72" s="305"/>
-      <c r="G72" s="306"/>
-      <c r="H72" s="306"/>
-      <c r="I72" s="307"/>
-      <c r="J72" s="305"/>
-      <c r="K72" s="306"/>
-      <c r="L72" s="306"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="346" t="s">
-        <v>136</v>
-      </c>
-      <c r="O72" s="346"/>
-      <c r="P72" s="346"/>
-      <c r="Q72" s="346"/>
-      <c r="R72" s="346"/>
-      <c r="S72" s="278" t="s">
-        <v>133</v>
-      </c>
-      <c r="T72" s="278"/>
-      <c r="U72" s="278"/>
-      <c r="V72" s="278"/>
-      <c r="W72" s="305"/>
-      <c r="X72" s="306"/>
-      <c r="Y72" s="306"/>
-      <c r="Z72" s="306"/>
-      <c r="AA72" s="306"/>
-      <c r="AB72" s="306"/>
-      <c r="AC72" s="307"/>
-      <c r="AD72" s="305"/>
-      <c r="AE72" s="306"/>
-      <c r="AF72" s="306"/>
-      <c r="AG72" s="306"/>
-      <c r="AH72" s="307"/>
-    </row>
-    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="E72" s="321"/>
+      <c r="F72" s="317"/>
+      <c r="G72" s="318"/>
+      <c r="H72" s="318"/>
+      <c r="I72" s="319"/>
+      <c r="J72" s="317"/>
+      <c r="K72" s="318"/>
+      <c r="L72" s="318"/>
+      <c r="M72" s="319"/>
+      <c r="N72" s="322" t="s">
+        <v>135</v>
+      </c>
+      <c r="O72" s="322"/>
+      <c r="P72" s="322"/>
+      <c r="Q72" s="322"/>
+      <c r="R72" s="322"/>
+      <c r="S72" s="282" t="s">
+        <v>132</v>
+      </c>
+      <c r="T72" s="282"/>
+      <c r="U72" s="282"/>
+      <c r="V72" s="282"/>
+      <c r="W72" s="317"/>
+      <c r="X72" s="318"/>
+      <c r="Y72" s="318"/>
+      <c r="Z72" s="318"/>
+      <c r="AA72" s="318"/>
+      <c r="AB72" s="318"/>
+      <c r="AC72" s="319"/>
+      <c r="AD72" s="317"/>
+      <c r="AE72" s="318"/>
+      <c r="AF72" s="318"/>
+      <c r="AG72" s="318"/>
+      <c r="AH72" s="319"/>
+    </row>
+    <row r="73" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C73" s="80"/>
       <c r="D73" s="51"/>
       <c r="E73" s="153">
         <v>1</v>
       </c>
-      <c r="F73" s="299" t="s">
+      <c r="F73" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="300"/>
-      <c r="H73" s="300"/>
-      <c r="I73" s="301"/>
-      <c r="J73" s="299" t="s">
+      <c r="G73" s="329"/>
+      <c r="H73" s="329"/>
+      <c r="I73" s="330"/>
+      <c r="J73" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="K73" s="300"/>
-      <c r="L73" s="300"/>
-      <c r="M73" s="301"/>
-      <c r="N73" s="290" t="s">
+      <c r="K73" s="329"/>
+      <c r="L73" s="329"/>
+      <c r="M73" s="330"/>
+      <c r="N73" s="326" t="s">
         <v>79</v>
       </c>
-      <c r="O73" s="291"/>
-      <c r="P73" s="291"/>
-      <c r="Q73" s="291"/>
-      <c r="R73" s="291"/>
-      <c r="S73" s="292" t="s">
+      <c r="O73" s="327"/>
+      <c r="P73" s="327"/>
+      <c r="Q73" s="327"/>
+      <c r="R73" s="327"/>
+      <c r="S73" s="325" t="s">
         <v>97</v>
       </c>
-      <c r="T73" s="292"/>
-      <c r="U73" s="292"/>
-      <c r="V73" s="292"/>
-      <c r="W73" s="281"/>
-      <c r="X73" s="282"/>
-      <c r="Y73" s="282"/>
-      <c r="Z73" s="282"/>
-      <c r="AA73" s="282"/>
-      <c r="AB73" s="282"/>
-      <c r="AC73" s="283"/>
-      <c r="AD73" s="281"/>
-      <c r="AE73" s="282"/>
-      <c r="AF73" s="282"/>
-      <c r="AG73" s="282"/>
-      <c r="AH73" s="283"/>
-    </row>
-    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="T73" s="325"/>
+      <c r="U73" s="325"/>
+      <c r="V73" s="325"/>
+      <c r="W73" s="360"/>
+      <c r="X73" s="361"/>
+      <c r="Y73" s="361"/>
+      <c r="Z73" s="361"/>
+      <c r="AA73" s="361"/>
+      <c r="AB73" s="361"/>
+      <c r="AC73" s="362"/>
+      <c r="AD73" s="360"/>
+      <c r="AE73" s="361"/>
+      <c r="AF73" s="361"/>
+      <c r="AG73" s="361"/>
+      <c r="AH73" s="362"/>
+    </row>
+    <row r="74" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C74" s="80"/>
       <c r="D74" s="51"/>
       <c r="E74" s="153">
         <v>2</v>
       </c>
-      <c r="F74" s="299" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" s="300"/>
-      <c r="H74" s="300"/>
-      <c r="I74" s="301"/>
-      <c r="J74" s="299" t="s">
+      <c r="F74" s="328" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="329"/>
+      <c r="H74" s="329"/>
+      <c r="I74" s="330"/>
+      <c r="J74" s="328" t="s">
         <v>115</v>
       </c>
-      <c r="K74" s="300"/>
-      <c r="L74" s="300"/>
-      <c r="M74" s="301"/>
-      <c r="N74" s="290" t="s">
+      <c r="K74" s="329"/>
+      <c r="L74" s="329"/>
+      <c r="M74" s="330"/>
+      <c r="N74" s="326" t="s">
         <v>79</v>
       </c>
-      <c r="O74" s="291"/>
-      <c r="P74" s="291"/>
-      <c r="Q74" s="291"/>
-      <c r="R74" s="291"/>
-      <c r="S74" s="292" t="s">
+      <c r="O74" s="327"/>
+      <c r="P74" s="327"/>
+      <c r="Q74" s="327"/>
+      <c r="R74" s="327"/>
+      <c r="S74" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="T74" s="292"/>
-      <c r="U74" s="292"/>
-      <c r="V74" s="292"/>
-      <c r="W74" s="281"/>
-      <c r="X74" s="282"/>
-      <c r="Y74" s="282"/>
-      <c r="Z74" s="282"/>
-      <c r="AA74" s="282"/>
-      <c r="AB74" s="282"/>
-      <c r="AC74" s="283"/>
-      <c r="AD74" s="281"/>
-      <c r="AE74" s="282"/>
-      <c r="AF74" s="282"/>
-      <c r="AG74" s="282"/>
-      <c r="AH74" s="283"/>
-    </row>
-    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="T74" s="325"/>
+      <c r="U74" s="325"/>
+      <c r="V74" s="325"/>
+      <c r="W74" s="360"/>
+      <c r="X74" s="361"/>
+      <c r="Y74" s="361"/>
+      <c r="Z74" s="361"/>
+      <c r="AA74" s="361"/>
+      <c r="AB74" s="361"/>
+      <c r="AC74" s="362"/>
+      <c r="AD74" s="360"/>
+      <c r="AE74" s="361"/>
+      <c r="AF74" s="361"/>
+      <c r="AG74" s="361"/>
+      <c r="AH74" s="362"/>
+    </row>
+    <row r="75" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C75" s="80"/>
       <c r="D75" s="51"/>
       <c r="E75" s="153">
         <v>3</v>
       </c>
-      <c r="F75" s="299" t="s">
-        <v>138</v>
-      </c>
-      <c r="G75" s="300"/>
-      <c r="H75" s="300"/>
-      <c r="I75" s="301"/>
-      <c r="J75" s="299" t="s">
+      <c r="F75" s="328" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="329"/>
+      <c r="H75" s="329"/>
+      <c r="I75" s="330"/>
+      <c r="J75" s="328" t="s">
         <v>116</v>
       </c>
-      <c r="K75" s="300"/>
-      <c r="L75" s="300"/>
-      <c r="M75" s="301"/>
-      <c r="N75" s="290" t="s">
+      <c r="K75" s="329"/>
+      <c r="L75" s="329"/>
+      <c r="M75" s="330"/>
+      <c r="N75" s="326" t="s">
         <v>79</v>
       </c>
-      <c r="O75" s="291"/>
-      <c r="P75" s="291"/>
-      <c r="Q75" s="291"/>
-      <c r="R75" s="291"/>
-      <c r="S75" s="292" t="s">
+      <c r="O75" s="327"/>
+      <c r="P75" s="327"/>
+      <c r="Q75" s="327"/>
+      <c r="R75" s="327"/>
+      <c r="S75" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="T75" s="292"/>
-      <c r="U75" s="292"/>
-      <c r="V75" s="292"/>
-      <c r="W75" s="281"/>
-      <c r="X75" s="282"/>
-      <c r="Y75" s="282"/>
-      <c r="Z75" s="282"/>
-      <c r="AA75" s="282"/>
-      <c r="AB75" s="282"/>
-      <c r="AC75" s="283"/>
-      <c r="AD75" s="281"/>
-      <c r="AE75" s="282"/>
-      <c r="AF75" s="282"/>
-      <c r="AG75" s="282"/>
-      <c r="AH75" s="283"/>
-    </row>
-    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="T75" s="325"/>
+      <c r="U75" s="325"/>
+      <c r="V75" s="325"/>
+      <c r="W75" s="360"/>
+      <c r="X75" s="361"/>
+      <c r="Y75" s="361"/>
+      <c r="Z75" s="361"/>
+      <c r="AA75" s="361"/>
+      <c r="AB75" s="361"/>
+      <c r="AC75" s="362"/>
+      <c r="AD75" s="360"/>
+      <c r="AE75" s="361"/>
+      <c r="AF75" s="361"/>
+      <c r="AG75" s="361"/>
+      <c r="AH75" s="362"/>
+    </row>
+    <row r="76" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C76" s="80"/>
       <c r="D76" s="51"/>
       <c r="E76" s="153">
         <v>4</v>
       </c>
-      <c r="F76" s="299"/>
-      <c r="G76" s="300"/>
-      <c r="H76" s="300"/>
-      <c r="I76" s="301"/>
-      <c r="J76" s="299"/>
-      <c r="K76" s="300"/>
-      <c r="L76" s="300"/>
-      <c r="M76" s="301"/>
-      <c r="N76" s="290"/>
-      <c r="O76" s="291"/>
-      <c r="P76" s="291"/>
-      <c r="Q76" s="291"/>
-      <c r="R76" s="291"/>
-      <c r="S76" s="292"/>
-      <c r="T76" s="292"/>
-      <c r="U76" s="292"/>
-      <c r="V76" s="292"/>
-      <c r="W76" s="281"/>
-      <c r="X76" s="282"/>
-      <c r="Y76" s="282"/>
-      <c r="Z76" s="282"/>
-      <c r="AA76" s="282"/>
-      <c r="AB76" s="282"/>
-      <c r="AC76" s="283"/>
-      <c r="AD76" s="281"/>
-      <c r="AE76" s="282"/>
-      <c r="AF76" s="282"/>
-      <c r="AG76" s="282"/>
-      <c r="AH76" s="283"/>
-    </row>
-    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="F76" s="328"/>
+      <c r="G76" s="329"/>
+      <c r="H76" s="329"/>
+      <c r="I76" s="330"/>
+      <c r="J76" s="328"/>
+      <c r="K76" s="329"/>
+      <c r="L76" s="329"/>
+      <c r="M76" s="330"/>
+      <c r="N76" s="326"/>
+      <c r="O76" s="327"/>
+      <c r="P76" s="327"/>
+      <c r="Q76" s="327"/>
+      <c r="R76" s="327"/>
+      <c r="S76" s="325"/>
+      <c r="T76" s="325"/>
+      <c r="U76" s="325"/>
+      <c r="V76" s="325"/>
+      <c r="W76" s="360"/>
+      <c r="X76" s="361"/>
+      <c r="Y76" s="361"/>
+      <c r="Z76" s="361"/>
+      <c r="AA76" s="361"/>
+      <c r="AB76" s="361"/>
+      <c r="AC76" s="362"/>
+      <c r="AD76" s="360"/>
+      <c r="AE76" s="361"/>
+      <c r="AF76" s="361"/>
+      <c r="AG76" s="361"/>
+      <c r="AH76" s="362"/>
+    </row>
+    <row r="77" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C77" s="80"/>
       <c r="D77" s="51"/>
       <c r="E77" s="153">
         <v>5</v>
       </c>
-      <c r="F77" s="299"/>
-      <c r="G77" s="300"/>
-      <c r="H77" s="300"/>
-      <c r="I77" s="301"/>
-      <c r="J77" s="299"/>
-      <c r="K77" s="300"/>
-      <c r="L77" s="300"/>
-      <c r="M77" s="301"/>
-      <c r="N77" s="290"/>
-      <c r="O77" s="291"/>
-      <c r="P77" s="291"/>
-      <c r="Q77" s="291"/>
-      <c r="R77" s="291"/>
-      <c r="S77" s="292"/>
-      <c r="T77" s="292"/>
-      <c r="U77" s="292"/>
-      <c r="V77" s="292"/>
-      <c r="W77" s="281"/>
-      <c r="X77" s="282"/>
-      <c r="Y77" s="282"/>
-      <c r="Z77" s="282"/>
-      <c r="AA77" s="282"/>
-      <c r="AB77" s="282"/>
-      <c r="AC77" s="283"/>
-      <c r="AD77" s="281"/>
-      <c r="AE77" s="282"/>
-      <c r="AF77" s="282"/>
-      <c r="AG77" s="282"/>
-      <c r="AH77" s="283"/>
+      <c r="F77" s="328"/>
+      <c r="G77" s="329"/>
+      <c r="H77" s="329"/>
+      <c r="I77" s="330"/>
+      <c r="J77" s="328"/>
+      <c r="K77" s="329"/>
+      <c r="L77" s="329"/>
+      <c r="M77" s="330"/>
+      <c r="N77" s="326"/>
+      <c r="O77" s="327"/>
+      <c r="P77" s="327"/>
+      <c r="Q77" s="327"/>
+      <c r="R77" s="327"/>
+      <c r="S77" s="325"/>
+      <c r="T77" s="325"/>
+      <c r="U77" s="325"/>
+      <c r="V77" s="325"/>
+      <c r="W77" s="360"/>
+      <c r="X77" s="361"/>
+      <c r="Y77" s="361"/>
+      <c r="Z77" s="361"/>
+      <c r="AA77" s="361"/>
+      <c r="AB77" s="361"/>
+      <c r="AC77" s="362"/>
+      <c r="AD77" s="360"/>
+      <c r="AE77" s="361"/>
+      <c r="AF77" s="361"/>
+      <c r="AG77" s="361"/>
+      <c r="AH77" s="362"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:AC75"/>
+    <mergeCell ref="W76:AC76"/>
+    <mergeCell ref="W77:AC77"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="E47:X47"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="W73:AC73"/>
+    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="G66:L66"/>
@@ -13977,87 +14059,20 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E54:I54"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:AC75"/>
-    <mergeCell ref="W76:AC76"/>
-    <mergeCell ref="W77:AC77"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="E47:X47"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="W73:AC73"/>
-    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -14093,45 +14108,45 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.33203125" style="96"/>
+    <col min="1" max="1" width="16.875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="155" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="156" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="156" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="156" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="156" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F39B2-A96D-4EBD-AB40-AAA67DD45664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31C344-0AF1-48CA-A3EA-E9BE585F535A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>Client details acquisition response message</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Client ID</t>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>(1) Validation processing</t>
   </si>
   <si>
@@ -540,6 +534,13 @@
   </si>
   <si>
     <t>client.client_id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1319,9 +1320,114 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1433,86 +1539,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1550,59 +1629,47 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1640,82 +1707,148 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,27 +1857,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1754,24 +1866,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1781,14 +1875,8 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1806,15 +1894,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1867,119 +1946,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -5733,12 +5734,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="152">
+      <c r="I25" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
       <c r="L25" s="24"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6368,57 +6369,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="163" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="181" t="s">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="169" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="153" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="188" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="191">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="193"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6426,53 +6427,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="163" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="169" t="s">
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="166" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="191" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6480,45 +6481,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="163" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="189"/>
+      <c r="AE3" s="189"/>
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="193"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6555,1186 +6556,1030 @@
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="195"/>
+      <c r="D7" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="196"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="162" t="s">
+      <c r="H7" s="196"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="196"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="196"/>
+      <c r="AE7" s="195"/>
+      <c r="AF7" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="196"/>
+      <c r="AI7" s="195"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204">
+      <c r="C8" s="175"/>
+      <c r="D8" s="176">
         <v>43718</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="207" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="213"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
-      <c r="W8" s="214"/>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="214"/>
-      <c r="AB8" s="214"/>
-      <c r="AC8" s="214"/>
-      <c r="AD8" s="214"/>
-      <c r="AE8" s="215"/>
-      <c r="AF8" s="212" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="186"/>
+      <c r="AB8" s="186"/>
+      <c r="AC8" s="186"/>
+      <c r="AD8" s="186"/>
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
-      <c r="AI8" s="211"/>
+      <c r="AG8" s="182"/>
+      <c r="AH8" s="182"/>
+      <c r="AI8" s="183"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="201"/>
-      <c r="AF9" s="196"/>
-      <c r="AG9" s="197"/>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="198"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="169"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="200"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="200"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="200"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="196"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="198"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="168"/>
+      <c r="AH10" s="168"/>
+      <c r="AI10" s="169"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="194"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="199"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="201"/>
-      <c r="AF11" s="196"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="198"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="171"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="168"/>
+      <c r="AH11" s="168"/>
+      <c r="AI11" s="169"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="200"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="200"/>
-      <c r="AE12" s="201"/>
-      <c r="AF12" s="196"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="197"/>
-      <c r="AI12" s="198"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="171"/>
+      <c r="AA12" s="171"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="167"/>
+      <c r="AG12" s="168"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="169"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="200"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="200"/>
-      <c r="Z13" s="200"/>
-      <c r="AA13" s="200"/>
-      <c r="AB13" s="200"/>
-      <c r="AC13" s="200"/>
-      <c r="AD13" s="200"/>
-      <c r="AE13" s="201"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="197"/>
-      <c r="AI13" s="198"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="169"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="200"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="200"/>
-      <c r="Z14" s="200"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="200"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="200"/>
-      <c r="AE14" s="201"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="197"/>
-      <c r="AI14" s="198"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="168"/>
+      <c r="AH14" s="168"/>
+      <c r="AI14" s="169"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="190"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="199"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="200"/>
-      <c r="T15" s="200"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="200"/>
-      <c r="W15" s="200"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="200"/>
-      <c r="Z15" s="200"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="200"/>
-      <c r="AD15" s="200"/>
-      <c r="AE15" s="201"/>
-      <c r="AF15" s="196"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="198"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="168"/>
+      <c r="AH15" s="168"/>
+      <c r="AI15" s="169"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="199"/>
-      <c r="R16" s="200"/>
-      <c r="S16" s="200"/>
-      <c r="T16" s="200"/>
-      <c r="U16" s="200"/>
-      <c r="V16" s="200"/>
-      <c r="W16" s="200"/>
-      <c r="X16" s="200"/>
-      <c r="Y16" s="200"/>
-      <c r="Z16" s="200"/>
-      <c r="AA16" s="200"/>
-      <c r="AB16" s="200"/>
-      <c r="AC16" s="200"/>
-      <c r="AD16" s="200"/>
-      <c r="AE16" s="201"/>
-      <c r="AF16" s="196"/>
-      <c r="AG16" s="197"/>
-      <c r="AH16" s="197"/>
-      <c r="AI16" s="198"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="171"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="168"/>
+      <c r="AH16" s="168"/>
+      <c r="AI16" s="169"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
-      <c r="N17" s="197"/>
-      <c r="O17" s="197"/>
-      <c r="P17" s="198"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="200"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="200"/>
-      <c r="W17" s="200"/>
-      <c r="X17" s="200"/>
-      <c r="Y17" s="200"/>
-      <c r="Z17" s="200"/>
-      <c r="AA17" s="200"/>
-      <c r="AB17" s="200"/>
-      <c r="AC17" s="200"/>
-      <c r="AD17" s="200"/>
-      <c r="AE17" s="201"/>
-      <c r="AF17" s="196"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="197"/>
-      <c r="AI17" s="198"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="167"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="169"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="197"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="200"/>
-      <c r="X18" s="200"/>
-      <c r="Y18" s="200"/>
-      <c r="Z18" s="200"/>
-      <c r="AA18" s="200"/>
-      <c r="AB18" s="200"/>
-      <c r="AC18" s="200"/>
-      <c r="AD18" s="200"/>
-      <c r="AE18" s="201"/>
-      <c r="AF18" s="196"/>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="197"/>
-      <c r="AI18" s="198"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="167"/>
+      <c r="AG18" s="168"/>
+      <c r="AH18" s="168"/>
+      <c r="AI18" s="169"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="200"/>
-      <c r="V19" s="200"/>
-      <c r="W19" s="200"/>
-      <c r="X19" s="200"/>
-      <c r="Y19" s="200"/>
-      <c r="Z19" s="200"/>
-      <c r="AA19" s="200"/>
-      <c r="AB19" s="200"/>
-      <c r="AC19" s="200"/>
-      <c r="AD19" s="200"/>
-      <c r="AE19" s="201"/>
-      <c r="AF19" s="196"/>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="197"/>
-      <c r="AI19" s="198"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="171"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="167"/>
+      <c r="AG19" s="168"/>
+      <c r="AH19" s="168"/>
+      <c r="AI19" s="169"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="197"/>
-      <c r="P20" s="198"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="200"/>
-      <c r="S20" s="200"/>
-      <c r="T20" s="200"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="200"/>
-      <c r="W20" s="200"/>
-      <c r="X20" s="200"/>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="201"/>
-      <c r="AF20" s="196"/>
-      <c r="AG20" s="197"/>
-      <c r="AH20" s="197"/>
-      <c r="AI20" s="198"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="167"/>
+      <c r="AG20" s="168"/>
+      <c r="AH20" s="168"/>
+      <c r="AI20" s="169"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="200"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="200"/>
-      <c r="U21" s="200"/>
-      <c r="V21" s="200"/>
-      <c r="W21" s="200"/>
-      <c r="X21" s="200"/>
-      <c r="Y21" s="200"/>
-      <c r="Z21" s="200"/>
-      <c r="AA21" s="200"/>
-      <c r="AB21" s="200"/>
-      <c r="AC21" s="200"/>
-      <c r="AD21" s="200"/>
-      <c r="AE21" s="201"/>
-      <c r="AF21" s="196"/>
-      <c r="AG21" s="197"/>
-      <c r="AH21" s="197"/>
-      <c r="AI21" s="198"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="167"/>
+      <c r="AG21" s="168"/>
+      <c r="AH21" s="168"/>
+      <c r="AI21" s="169"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="198"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="200"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="200"/>
-      <c r="U22" s="200"/>
-      <c r="V22" s="200"/>
-      <c r="W22" s="200"/>
-      <c r="X22" s="200"/>
-      <c r="Y22" s="200"/>
-      <c r="Z22" s="200"/>
-      <c r="AA22" s="200"/>
-      <c r="AB22" s="200"/>
-      <c r="AC22" s="200"/>
-      <c r="AD22" s="200"/>
-      <c r="AE22" s="201"/>
-      <c r="AF22" s="196"/>
-      <c r="AG22" s="197"/>
-      <c r="AH22" s="197"/>
-      <c r="AI22" s="198"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="171"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="171"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="171"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="167"/>
+      <c r="AG22" s="168"/>
+      <c r="AH22" s="168"/>
+      <c r="AI22" s="169"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="197"/>
-      <c r="P23" s="198"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
-      <c r="T23" s="200"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="200"/>
-      <c r="W23" s="200"/>
-      <c r="X23" s="200"/>
-      <c r="Y23" s="200"/>
-      <c r="Z23" s="200"/>
-      <c r="AA23" s="200"/>
-      <c r="AB23" s="200"/>
-      <c r="AC23" s="200"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="201"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="197"/>
-      <c r="AH23" s="197"/>
-      <c r="AI23" s="198"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="171"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="171"/>
+      <c r="AB23" s="171"/>
+      <c r="AC23" s="171"/>
+      <c r="AD23" s="171"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="167"/>
+      <c r="AG23" s="168"/>
+      <c r="AH23" s="168"/>
+      <c r="AI23" s="169"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="200"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
-      <c r="X24" s="200"/>
-      <c r="Y24" s="200"/>
-      <c r="Z24" s="200"/>
-      <c r="AA24" s="200"/>
-      <c r="AB24" s="200"/>
-      <c r="AC24" s="200"/>
-      <c r="AD24" s="200"/>
-      <c r="AE24" s="201"/>
-      <c r="AF24" s="196"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="197"/>
-      <c r="AI24" s="198"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="167"/>
+      <c r="AG24" s="168"/>
+      <c r="AH24" s="168"/>
+      <c r="AI24" s="169"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="200"/>
-      <c r="S25" s="200"/>
-      <c r="T25" s="200"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="200"/>
-      <c r="W25" s="200"/>
-      <c r="X25" s="200"/>
-      <c r="Y25" s="200"/>
-      <c r="Z25" s="200"/>
-      <c r="AA25" s="200"/>
-      <c r="AB25" s="200"/>
-      <c r="AC25" s="200"/>
-      <c r="AD25" s="200"/>
-      <c r="AE25" s="201"/>
-      <c r="AF25" s="196"/>
-      <c r="AG25" s="197"/>
-      <c r="AH25" s="197"/>
-      <c r="AI25" s="198"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="167"/>
+      <c r="AG25" s="168"/>
+      <c r="AH25" s="168"/>
+      <c r="AI25" s="169"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="198"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="201"/>
-      <c r="AF26" s="196"/>
-      <c r="AG26" s="197"/>
-      <c r="AH26" s="197"/>
-      <c r="AI26" s="198"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="171"/>
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="171"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="167"/>
+      <c r="AG26" s="168"/>
+      <c r="AH26" s="168"/>
+      <c r="AI26" s="169"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="190"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="198"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="200"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="200"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="200"/>
-      <c r="Z27" s="200"/>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="200"/>
-      <c r="AC27" s="200"/>
-      <c r="AD27" s="200"/>
-      <c r="AE27" s="201"/>
-      <c r="AF27" s="196"/>
-      <c r="AG27" s="197"/>
-      <c r="AH27" s="197"/>
-      <c r="AI27" s="198"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="171"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="171"/>
+      <c r="W27" s="171"/>
+      <c r="X27" s="171"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="171"/>
+      <c r="AA27" s="171"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="171"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="167"/>
+      <c r="AG27" s="168"/>
+      <c r="AH27" s="168"/>
+      <c r="AI27" s="169"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="201"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="197"/>
-      <c r="AH28" s="197"/>
-      <c r="AI28" s="198"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="167"/>
+      <c r="AG28" s="168"/>
+      <c r="AH28" s="168"/>
+      <c r="AI28" s="169"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="190"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="198"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="200"/>
-      <c r="S29" s="200"/>
-      <c r="T29" s="200"/>
-      <c r="U29" s="200"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
-      <c r="Z29" s="200"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="200"/>
-      <c r="AC29" s="200"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="201"/>
-      <c r="AF29" s="196"/>
-      <c r="AG29" s="197"/>
-      <c r="AH29" s="197"/>
-      <c r="AI29" s="198"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="171"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="167"/>
+      <c r="AG29" s="168"/>
+      <c r="AH29" s="168"/>
+      <c r="AI29" s="169"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="197"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
-      <c r="AC30" s="200"/>
-      <c r="AD30" s="200"/>
-      <c r="AE30" s="201"/>
-      <c r="AF30" s="196"/>
-      <c r="AG30" s="197"/>
-      <c r="AH30" s="197"/>
-      <c r="AI30" s="198"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="172"/>
+      <c r="AF30" s="167"/>
+      <c r="AG30" s="168"/>
+      <c r="AH30" s="168"/>
+      <c r="AI30" s="169"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="200"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="200"/>
-      <c r="Z31" s="200"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="200"/>
-      <c r="AC31" s="200"/>
-      <c r="AD31" s="200"/>
-      <c r="AE31" s="201"/>
-      <c r="AF31" s="196"/>
-      <c r="AG31" s="197"/>
-      <c r="AH31" s="197"/>
-      <c r="AI31" s="198"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="169"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="167"/>
+      <c r="AG31" s="168"/>
+      <c r="AH31" s="168"/>
+      <c r="AI31" s="169"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="200"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="200"/>
-      <c r="U32" s="200"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="200"/>
-      <c r="Z32" s="200"/>
-      <c r="AA32" s="200"/>
-      <c r="AB32" s="200"/>
-      <c r="AC32" s="200"/>
-      <c r="AD32" s="200"/>
-      <c r="AE32" s="201"/>
-      <c r="AF32" s="196"/>
-      <c r="AG32" s="197"/>
-      <c r="AH32" s="197"/>
-      <c r="AI32" s="198"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="167"/>
+      <c r="AG32" s="168"/>
+      <c r="AH32" s="168"/>
+      <c r="AI32" s="169"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="197"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="200"/>
-      <c r="V33" s="200"/>
-      <c r="W33" s="200"/>
-      <c r="X33" s="200"/>
-      <c r="Y33" s="200"/>
-      <c r="Z33" s="200"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="200"/>
-      <c r="AC33" s="200"/>
-      <c r="AD33" s="200"/>
-      <c r="AE33" s="201"/>
-      <c r="AF33" s="196"/>
-      <c r="AG33" s="197"/>
-      <c r="AH33" s="197"/>
-      <c r="AI33" s="198"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="169"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="167"/>
+      <c r="AG33" s="168"/>
+      <c r="AH33" s="168"/>
+      <c r="AI33" s="169"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7758,6 +7603,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7913,157 +7914,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="217" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="232" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="235">
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="228">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="237"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="230"/>
     </row>
     <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="217" t="s">
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="235" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="236"/>
-      <c r="AI2" s="237"/>
+      <c r="AH2" s="229"/>
+      <c r="AI2" s="230"/>
     </row>
     <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="232" t="str">
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="235" t="str">
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="237"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="230"/>
     </row>
     <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
@@ -8120,7 +8121,7 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
@@ -8181,7 +8182,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8221,7 +8222,7 @@
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -8260,7 +8261,7 @@
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -8335,7 +8336,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="40"/>
@@ -9530,6 +9531,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9539,14 +9548,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9574,157 +9575,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="269" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="232" t="str">
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="260">
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="262"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="260" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="262"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="232" t="str">
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="260" t="str">
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="262"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
@@ -9766,7 +9767,7 @@
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -9806,7 +9807,7 @@
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -9880,92 +9881,92 @@
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="264" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="263" t="s">
+      <c r="D8" s="258" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="268"/>
+      <c r="Q8" s="268"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
     </row>
     <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="264" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="259" t="s">
+      <c r="D9" s="258" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="259"/>
-      <c r="J9" s="259"/>
-      <c r="K9" s="259"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="259"/>
-      <c r="N9" s="259"/>
-      <c r="O9" s="259"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
-      <c r="Z9" s="259"/>
-      <c r="AA9" s="259"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="259"/>
-      <c r="AD9" s="259"/>
-      <c r="AE9" s="259"/>
-      <c r="AF9" s="259"/>
-      <c r="AG9" s="259"/>
-      <c r="AH9" s="259"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="264"/>
+      <c r="M9" s="264"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="264"/>
+      <c r="P9" s="264"/>
+      <c r="Q9" s="264"/>
+      <c r="R9" s="264"/>
+      <c r="S9" s="264"/>
+      <c r="T9" s="264"/>
+      <c r="U9" s="264"/>
+      <c r="V9" s="264"/>
+      <c r="W9" s="264"/>
+      <c r="X9" s="264"/>
+      <c r="Y9" s="264"/>
+      <c r="Z9" s="264"/>
+      <c r="AA9" s="264"/>
+      <c r="AB9" s="264"/>
+      <c r="AC9" s="264"/>
+      <c r="AD9" s="264"/>
+      <c r="AE9" s="264"/>
+      <c r="AF9" s="264"/>
+      <c r="AG9" s="264"/>
+      <c r="AH9" s="264"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
-      <c r="D10" s="267" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="269"/>
+      <c r="D10" s="255" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
       <c r="H10" s="83" t="s">
         <v>54</v>
       </c>
@@ -10000,172 +10001,172 @@
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
-      <c r="D11" s="264" t="s">
+      <c r="D11" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="263" t="s">
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="263"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="263"/>
-      <c r="U11" s="263"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="263"/>
-      <c r="Y11" s="263"/>
-      <c r="Z11" s="263"/>
-      <c r="AA11" s="263"/>
-      <c r="AB11" s="263"/>
-      <c r="AC11" s="263"/>
-      <c r="AD11" s="263"/>
-      <c r="AE11" s="263"/>
-      <c r="AF11" s="263"/>
-      <c r="AG11" s="263"/>
-      <c r="AH11" s="263"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="268"/>
+      <c r="AD11" s="268"/>
+      <c r="AE11" s="268"/>
+      <c r="AF11" s="268"/>
+      <c r="AG11" s="268"/>
+      <c r="AH11" s="268"/>
     </row>
     <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="264" t="s">
+      <c r="D12" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="259" t="s">
+      <c r="E12" s="259"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="259"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="259"/>
-      <c r="Y12" s="259"/>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="259"/>
-      <c r="AD12" s="259"/>
-      <c r="AE12" s="259"/>
-      <c r="AF12" s="259"/>
-      <c r="AG12" s="259"/>
-      <c r="AH12" s="259"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="264"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="264"/>
+      <c r="M12" s="264"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="264"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="264"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="264"/>
+      <c r="T12" s="264"/>
+      <c r="U12" s="264"/>
+      <c r="V12" s="264"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
     </row>
     <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="264" t="s">
+      <c r="D13" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="265"/>
-      <c r="F13" s="265"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="259" t="s">
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="259"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="259"/>
-      <c r="S13" s="259"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="259"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="259"/>
-      <c r="X13" s="259"/>
-      <c r="Y13" s="259"/>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
-      <c r="AD13" s="259"/>
-      <c r="AE13" s="259"/>
-      <c r="AF13" s="259"/>
-      <c r="AG13" s="259"/>
-      <c r="AH13" s="259"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="264"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="264"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="264"/>
+      <c r="V13" s="264"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
     </row>
     <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="264" t="s">
+      <c r="D14" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="259" t="s">
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="264" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="259"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="259"/>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="259"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="259"/>
-      <c r="Y14" s="259"/>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="259"/>
-      <c r="AC14" s="259"/>
-      <c r="AD14" s="259"/>
-      <c r="AE14" s="259"/>
-      <c r="AF14" s="259"/>
-      <c r="AG14" s="259"/>
-      <c r="AH14" s="259"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="264"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="264"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="264"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="264"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="264"/>
+      <c r="X14" s="264"/>
+      <c r="Y14" s="264"/>
+      <c r="Z14" s="264"/>
+      <c r="AA14" s="264"/>
+      <c r="AB14" s="264"/>
+      <c r="AC14" s="264"/>
+      <c r="AD14" s="264"/>
+      <c r="AE14" s="264"/>
+      <c r="AF14" s="264"/>
+      <c r="AG14" s="264"/>
+      <c r="AH14" s="264"/>
     </row>
     <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="264" t="s">
+      <c r="D15" s="258" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="266"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="260"/>
       <c r="H15" s="86" t="s">
         <v>62</v>
       </c>
@@ -10317,30 +10318,30 @@
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="272"/>
-      <c r="L19" s="272"/>
-      <c r="M19" s="272"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="270"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="271"/>
-      <c r="S19" s="271"/>
-      <c r="T19" s="271"/>
-      <c r="U19" s="271"/>
-      <c r="V19" s="271"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
+      <c r="G19" s="263"/>
+      <c r="H19" s="263"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="263"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="262"/>
+      <c r="Q19" s="262"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="262"/>
+      <c r="T19" s="262"/>
+      <c r="U19" s="262"/>
+      <c r="V19" s="262"/>
+      <c r="W19" s="262"/>
+      <c r="X19" s="262"/>
+      <c r="Y19" s="262"/>
+      <c r="Z19" s="262"/>
+      <c r="AA19" s="262"/>
+      <c r="AB19" s="262"/>
+      <c r="AC19" s="262"/>
+      <c r="AD19" s="262"/>
       <c r="AE19" s="94"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10792,15 +10793,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10817,14 +10817,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10853,157 +10854,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="232" t="str">
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="260">
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="262"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
     </row>
     <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="260" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="262"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
     </row>
     <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="232" t="str">
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="260" t="str">
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="262"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11018,12 +11019,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11035,6 +11030,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11064,163 +11065,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="238" t="str">
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="235"/>
+      <c r="U1" s="235"/>
+      <c r="V1" s="235"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="235"/>
+      <c r="Y1" s="235"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="232" t="str">
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="260">
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="261"/>
-      <c r="AI1" s="262"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
       <c r="AJ1" s="97"/>
       <c r="AK1" s="97"/>
       <c r="AL1" s="98"/>
     </row>
     <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="269" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="241"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
+      <c r="Y2" s="238"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="269" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="271"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="260" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="262"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
       <c r="AJ2" s="97"/>
       <c r="AK2" s="97"/>
       <c r="AL2" s="97"/>
     </row>
     <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="269" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="232" t="str">
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="240"/>
+      <c r="T3" s="241"/>
+      <c r="U3" s="241"/>
+      <c r="V3" s="241"/>
+      <c r="W3" s="241"/>
+      <c r="X3" s="241"/>
+      <c r="Y3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="260" t="str">
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="262"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
       <c r="AJ3" s="97"/>
       <c r="AK3" s="97"/>
       <c r="AL3" s="97"/>
@@ -11338,65 +11339,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="342" t="s">
+      <c r="D8" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="344" t="s">
+      <c r="E8" s="291" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="345"/>
-      <c r="G8" s="345"/>
-      <c r="H8" s="345"/>
-      <c r="I8" s="345"/>
-      <c r="J8" s="346"/>
-      <c r="K8" s="344" t="s">
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="291" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="345"/>
-      <c r="M8" s="345"/>
-      <c r="N8" s="346"/>
-      <c r="O8" s="353" t="s">
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="358" t="s">
+      <c r="P8" s="310" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="359"/>
-      <c r="R8" s="359"/>
-      <c r="S8" s="359"/>
-      <c r="T8" s="359"/>
-      <c r="U8" s="360"/>
-      <c r="V8" s="355" t="s">
+      <c r="Q8" s="311"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="307" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="355"/>
-      <c r="X8" s="355"/>
-      <c r="Y8" s="355"/>
-      <c r="Z8" s="355"/>
-      <c r="AA8" s="355"/>
-      <c r="AB8" s="355"/>
-      <c r="AC8" s="355"/>
-      <c r="AD8" s="355"/>
-      <c r="AE8" s="355"/>
-      <c r="AF8" s="355"/>
-      <c r="AG8" s="355"/>
-      <c r="AH8" s="355"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="307"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="307"/>
+      <c r="AD8" s="307"/>
+      <c r="AE8" s="307"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="343"/>
-      <c r="E9" s="347"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="349"/>
-      <c r="K9" s="347"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="354"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="306"/>
       <c r="P9" s="100" t="s">
         <v>70</v>
       </c>
@@ -11409,23 +11410,23 @@
       <c r="S9" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="356" t="s">
+      <c r="T9" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="357"/>
-      <c r="V9" s="355"/>
-      <c r="W9" s="355"/>
-      <c r="X9" s="355"/>
-      <c r="Y9" s="355"/>
-      <c r="Z9" s="355"/>
-      <c r="AA9" s="355"/>
-      <c r="AB9" s="355"/>
-      <c r="AC9" s="355"/>
-      <c r="AD9" s="355"/>
-      <c r="AE9" s="355"/>
-      <c r="AF9" s="355"/>
-      <c r="AG9" s="355"/>
-      <c r="AH9" s="355"/>
+      <c r="U9" s="309"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="307"/>
+      <c r="Y9" s="307"/>
+      <c r="Z9" s="307"/>
+      <c r="AA9" s="307"/>
+      <c r="AB9" s="307"/>
+      <c r="AC9" s="307"/>
+      <c r="AD9" s="307"/>
+      <c r="AE9" s="307"/>
+      <c r="AF9" s="307"/>
+      <c r="AG9" s="307"/>
+      <c r="AH9" s="307"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="80"/>
@@ -11433,20 +11434,20 @@
       <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="282" t="s">
+      <c r="E10" s="300" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="282" t="s">
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="300" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="283"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="284"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="302"/>
       <c r="O10" s="102" t="s">
         <v>77</v>
       </c>
@@ -11462,23 +11463,23 @@
       <c r="S10" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="274" t="s">
+      <c r="T10" s="303" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="275"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="283"/>
-      <c r="X10" s="283"/>
-      <c r="Y10" s="283"/>
-      <c r="Z10" s="283"/>
-      <c r="AA10" s="283"/>
-      <c r="AB10" s="283"/>
-      <c r="AC10" s="283"/>
-      <c r="AD10" s="283"/>
-      <c r="AE10" s="283"/>
-      <c r="AF10" s="283"/>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="284"/>
+      <c r="U10" s="304"/>
+      <c r="V10" s="300"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
+      <c r="Y10" s="301"/>
+      <c r="Z10" s="301"/>
+      <c r="AA10" s="301"/>
+      <c r="AB10" s="301"/>
+      <c r="AC10" s="301"/>
+      <c r="AD10" s="301"/>
+      <c r="AE10" s="301"/>
+      <c r="AF10" s="301"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="302"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="80"/>
@@ -11486,20 +11487,20 @@
       <c r="D11" s="101">
         <v>2</v>
       </c>
-      <c r="E11" s="282" t="s">
+      <c r="E11" s="300" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="282" t="s">
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="301"/>
+      <c r="I11" s="301"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="283"/>
-      <c r="M11" s="283"/>
-      <c r="N11" s="284"/>
+      <c r="L11" s="301"/>
+      <c r="M11" s="301"/>
+      <c r="N11" s="302"/>
       <c r="O11" s="104" t="s">
         <v>81</v>
       </c>
@@ -11507,7 +11508,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="103" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="R11" s="103" t="s">
         <v>78</v>
@@ -11515,23 +11516,23 @@
       <c r="S11" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T11" s="274" t="s">
+      <c r="T11" s="303" t="s">
         <v>78</v>
       </c>
-      <c r="U11" s="275"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="283"/>
-      <c r="X11" s="283"/>
-      <c r="Y11" s="283"/>
-      <c r="Z11" s="283"/>
-      <c r="AA11" s="283"/>
-      <c r="AB11" s="283"/>
-      <c r="AC11" s="283"/>
-      <c r="AD11" s="283"/>
-      <c r="AE11" s="283"/>
-      <c r="AF11" s="283"/>
-      <c r="AG11" s="283"/>
-      <c r="AH11" s="284"/>
+      <c r="U11" s="304"/>
+      <c r="V11" s="300"/>
+      <c r="W11" s="301"/>
+      <c r="X11" s="301"/>
+      <c r="Y11" s="301"/>
+      <c r="Z11" s="301"/>
+      <c r="AA11" s="301"/>
+      <c r="AB11" s="301"/>
+      <c r="AC11" s="301"/>
+      <c r="AD11" s="301"/>
+      <c r="AE11" s="301"/>
+      <c r="AF11" s="301"/>
+      <c r="AG11" s="301"/>
+      <c r="AH11" s="302"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="80"/>
@@ -11539,20 +11540,20 @@
       <c r="D12" s="101">
         <v>3</v>
       </c>
-      <c r="E12" s="282" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="282" t="s">
+      <c r="E12" s="300" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="301"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="300" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="284"/>
+      <c r="L12" s="301"/>
+      <c r="M12" s="301"/>
+      <c r="N12" s="302"/>
       <c r="O12" s="104" t="s">
         <v>81</v>
       </c>
@@ -11568,23 +11569,23 @@
       <c r="S12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="274" t="s">
+      <c r="T12" s="303" t="s">
         <v>78</v>
       </c>
-      <c r="U12" s="275"/>
-      <c r="V12" s="282"/>
-      <c r="W12" s="283"/>
-      <c r="X12" s="283"/>
-      <c r="Y12" s="283"/>
-      <c r="Z12" s="283"/>
-      <c r="AA12" s="283"/>
-      <c r="AB12" s="283"/>
-      <c r="AC12" s="283"/>
-      <c r="AD12" s="283"/>
-      <c r="AE12" s="283"/>
-      <c r="AF12" s="283"/>
-      <c r="AG12" s="283"/>
-      <c r="AH12" s="284"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="300"/>
+      <c r="W12" s="301"/>
+      <c r="X12" s="301"/>
+      <c r="Y12" s="301"/>
+      <c r="Z12" s="301"/>
+      <c r="AA12" s="301"/>
+      <c r="AB12" s="301"/>
+      <c r="AC12" s="301"/>
+      <c r="AD12" s="301"/>
+      <c r="AE12" s="301"/>
+      <c r="AF12" s="301"/>
+      <c r="AG12" s="301"/>
+      <c r="AH12" s="302"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="80"/>
@@ -11734,40 +11735,40 @@
       <c r="D17" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="361" t="s">
+      <c r="E17" s="314" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="315"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="367" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="362"/>
-      <c r="G17" s="363"/>
-      <c r="H17" s="279" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="280"/>
-      <c r="J17" s="280"/>
-      <c r="K17" s="280"/>
-      <c r="L17" s="280"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="280"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
-      <c r="Z17" s="280"/>
-      <c r="AA17" s="280"/>
-      <c r="AB17" s="280"/>
-      <c r="AC17" s="280"/>
-      <c r="AD17" s="280"/>
-      <c r="AE17" s="280"/>
-      <c r="AF17" s="280"/>
-      <c r="AG17" s="280"/>
-      <c r="AH17" s="281"/>
+      <c r="I17" s="368"/>
+      <c r="J17" s="368"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="368"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="368"/>
+      <c r="U17" s="368"/>
+      <c r="V17" s="368"/>
+      <c r="W17" s="368"/>
+      <c r="X17" s="368"/>
+      <c r="Y17" s="368"/>
+      <c r="Z17" s="368"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="368"/>
+      <c r="AC17" s="368"/>
+      <c r="AD17" s="368"/>
+      <c r="AE17" s="368"/>
+      <c r="AF17" s="368"/>
+      <c r="AG17" s="368"/>
+      <c r="AH17" s="369"/>
     </row>
     <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="80"/>
@@ -11775,40 +11776,40 @@
       <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="282" t="s">
+      <c r="E18" s="300" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="301"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="300" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="283"/>
-      <c r="G18" s="284"/>
-      <c r="H18" s="282" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="283"/>
-      <c r="J18" s="283"/>
-      <c r="K18" s="283"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="283"/>
-      <c r="N18" s="283"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="283"/>
-      <c r="Q18" s="283"/>
-      <c r="R18" s="283"/>
-      <c r="S18" s="283"/>
-      <c r="T18" s="283"/>
-      <c r="U18" s="283"/>
-      <c r="V18" s="283"/>
-      <c r="W18" s="283"/>
-      <c r="X18" s="283"/>
-      <c r="Y18" s="283"/>
-      <c r="Z18" s="283"/>
-      <c r="AA18" s="283"/>
-      <c r="AB18" s="283"/>
-      <c r="AC18" s="283"/>
-      <c r="AD18" s="283"/>
-      <c r="AE18" s="283"/>
-      <c r="AF18" s="283"/>
-      <c r="AG18" s="283"/>
-      <c r="AH18" s="284"/>
+      <c r="I18" s="301"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="301"/>
+      <c r="X18" s="301"/>
+      <c r="Y18" s="301"/>
+      <c r="Z18" s="301"/>
+      <c r="AA18" s="301"/>
+      <c r="AB18" s="301"/>
+      <c r="AC18" s="301"/>
+      <c r="AD18" s="301"/>
+      <c r="AE18" s="301"/>
+      <c r="AF18" s="301"/>
+      <c r="AG18" s="301"/>
+      <c r="AH18" s="302"/>
     </row>
     <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
@@ -11816,40 +11817,40 @@
       <c r="D19" s="101">
         <v>2</v>
       </c>
-      <c r="E19" s="282" t="s">
+      <c r="E19" s="300" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="301"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="300" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="283"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="282" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="283"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="283"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="283"/>
-      <c r="Q19" s="283"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="283"/>
-      <c r="T19" s="283"/>
-      <c r="U19" s="283"/>
-      <c r="V19" s="283"/>
-      <c r="W19" s="283"/>
-      <c r="X19" s="283"/>
-      <c r="Y19" s="283"/>
-      <c r="Z19" s="283"/>
-      <c r="AA19" s="283"/>
-      <c r="AB19" s="283"/>
-      <c r="AC19" s="283"/>
-      <c r="AD19" s="283"/>
-      <c r="AE19" s="283"/>
-      <c r="AF19" s="283"/>
-      <c r="AG19" s="283"/>
-      <c r="AH19" s="284"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="301"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="301"/>
+      <c r="O19" s="301"/>
+      <c r="P19" s="301"/>
+      <c r="Q19" s="301"/>
+      <c r="R19" s="301"/>
+      <c r="S19" s="301"/>
+      <c r="T19" s="301"/>
+      <c r="U19" s="301"/>
+      <c r="V19" s="301"/>
+      <c r="W19" s="301"/>
+      <c r="X19" s="301"/>
+      <c r="Y19" s="301"/>
+      <c r="Z19" s="301"/>
+      <c r="AA19" s="301"/>
+      <c r="AB19" s="301"/>
+      <c r="AC19" s="301"/>
+      <c r="AD19" s="301"/>
+      <c r="AE19" s="301"/>
+      <c r="AF19" s="301"/>
+      <c r="AG19" s="301"/>
+      <c r="AH19" s="302"/>
     </row>
     <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
@@ -11857,40 +11858,40 @@
       <c r="D20" s="101">
         <v>3</v>
       </c>
-      <c r="E20" s="282" t="s">
+      <c r="E20" s="300" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="301"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="300" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="283"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="282" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="283"/>
-      <c r="J20" s="283"/>
-      <c r="K20" s="283"/>
-      <c r="L20" s="283"/>
-      <c r="M20" s="283"/>
-      <c r="N20" s="283"/>
-      <c r="O20" s="283"/>
-      <c r="P20" s="283"/>
-      <c r="Q20" s="283"/>
-      <c r="R20" s="283"/>
-      <c r="S20" s="283"/>
-      <c r="T20" s="283"/>
-      <c r="U20" s="283"/>
-      <c r="V20" s="283"/>
-      <c r="W20" s="283"/>
-      <c r="X20" s="283"/>
-      <c r="Y20" s="283"/>
-      <c r="Z20" s="283"/>
-      <c r="AA20" s="283"/>
-      <c r="AB20" s="283"/>
-      <c r="AC20" s="283"/>
-      <c r="AD20" s="283"/>
-      <c r="AE20" s="283"/>
-      <c r="AF20" s="283"/>
-      <c r="AG20" s="283"/>
-      <c r="AH20" s="284"/>
+      <c r="I20" s="301"/>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301"/>
+      <c r="L20" s="301"/>
+      <c r="M20" s="301"/>
+      <c r="N20" s="301"/>
+      <c r="O20" s="301"/>
+      <c r="P20" s="301"/>
+      <c r="Q20" s="301"/>
+      <c r="R20" s="301"/>
+      <c r="S20" s="301"/>
+      <c r="T20" s="301"/>
+      <c r="U20" s="301"/>
+      <c r="V20" s="301"/>
+      <c r="W20" s="301"/>
+      <c r="X20" s="301"/>
+      <c r="Y20" s="301"/>
+      <c r="Z20" s="301"/>
+      <c r="AA20" s="301"/>
+      <c r="AB20" s="301"/>
+      <c r="AC20" s="301"/>
+      <c r="AD20" s="301"/>
+      <c r="AE20" s="301"/>
+      <c r="AF20" s="301"/>
+      <c r="AG20" s="301"/>
+      <c r="AH20" s="302"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="112"/>
@@ -12003,7 +12004,7 @@
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
       <c r="D24" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="117"/>
       <c r="F24" s="117"/>
@@ -12071,47 +12072,47 @@
       <c r="AG25" s="118"/>
       <c r="AH25" s="118"/>
     </row>
-    <row r="26" spans="1:35" s="367" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="152" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
-      <c r="E26" s="368" t="s">
+      <c r="E26" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="369" t="s">
+      <c r="F26" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="370"/>
-      <c r="H26" s="370"/>
-      <c r="I26" s="370"/>
-      <c r="J26" s="370"/>
-      <c r="K26" s="371"/>
-      <c r="L26" s="369" t="s">
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="370"/>
-      <c r="N26" s="370"/>
-      <c r="O26" s="370"/>
-      <c r="P26" s="370"/>
-      <c r="Q26" s="370"/>
-      <c r="R26" s="370"/>
-      <c r="S26" s="370"/>
-      <c r="T26" s="370"/>
-      <c r="U26" s="371"/>
-      <c r="V26" s="372" t="s">
-        <v>147</v>
-      </c>
-      <c r="W26" s="369" t="s">
-        <v>95</v>
-      </c>
-      <c r="X26" s="370"/>
-      <c r="Y26" s="370"/>
-      <c r="Z26" s="370"/>
-      <c r="AA26" s="370"/>
-      <c r="AB26" s="373"/>
-      <c r="AC26" s="373"/>
-      <c r="AD26" s="371"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="156"/>
       <c r="AG26" s="151"/>
-      <c r="AH26" s="374"/>
+      <c r="AH26" s="159"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
@@ -12122,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="122"/>
       <c r="H27" s="122"/>
@@ -12130,7 +12131,7 @@
       <c r="J27" s="122"/>
       <c r="K27" s="123"/>
       <c r="L27" s="121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M27" s="122"/>
       <c r="N27" s="122"/>
@@ -12142,10 +12143,10 @@
       <c r="T27" s="122"/>
       <c r="U27" s="123"/>
       <c r="V27" s="121" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="W27" s="124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X27" s="125"/>
       <c r="Y27" s="125"/>
@@ -12242,7 +12243,7 @@
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -12321,43 +12322,43 @@
       <c r="E33" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="303" t="s">
+      <c r="F33" s="334" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="335"/>
+      <c r="H33" s="335"/>
+      <c r="I33" s="335"/>
+      <c r="J33" s="335"/>
+      <c r="K33" s="336"/>
+      <c r="L33" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="335"/>
+      <c r="N33" s="335"/>
+      <c r="O33" s="335"/>
+      <c r="P33" s="335"/>
+      <c r="Q33" s="335"/>
+      <c r="R33" s="335"/>
+      <c r="S33" s="335"/>
+      <c r="T33" s="335"/>
+      <c r="U33" s="336"/>
+      <c r="V33" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="304"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="304"/>
-      <c r="K33" s="305"/>
-      <c r="L33" s="303" t="s">
+      <c r="W33" s="287"/>
+      <c r="X33" s="288"/>
+      <c r="Y33" s="289" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="304"/>
-      <c r="N33" s="304"/>
-      <c r="O33" s="304"/>
-      <c r="P33" s="304"/>
-      <c r="Q33" s="304"/>
-      <c r="R33" s="304"/>
-      <c r="S33" s="304"/>
-      <c r="T33" s="304"/>
-      <c r="U33" s="305"/>
-      <c r="V33" s="306" t="s">
+      <c r="Z33" s="290"/>
+      <c r="AA33" s="290"/>
+      <c r="AB33" s="337"/>
+      <c r="AC33" s="338" t="s">
         <v>102</v>
       </c>
-      <c r="W33" s="307"/>
-      <c r="X33" s="308"/>
-      <c r="Y33" s="364" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z33" s="365"/>
-      <c r="AA33" s="365"/>
-      <c r="AB33" s="375"/>
-      <c r="AC33" s="309" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD33" s="310"/>
-      <c r="AE33" s="310"/>
-      <c r="AF33" s="311"/>
+      <c r="AD33" s="339"/>
+      <c r="AE33" s="339"/>
+      <c r="AF33" s="340"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
@@ -12370,43 +12371,43 @@
       <c r="E34" s="130">
         <v>1</v>
       </c>
-      <c r="F34" s="315" t="s">
+      <c r="F34" s="282" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="283"/>
+      <c r="H34" s="283"/>
+      <c r="I34" s="283"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="284"/>
+      <c r="L34" s="282" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="283"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="283"/>
+      <c r="S34" s="283"/>
+      <c r="T34" s="283"/>
+      <c r="U34" s="284"/>
+      <c r="V34" s="361" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="316"/>
-      <c r="H34" s="316"/>
-      <c r="I34" s="316"/>
-      <c r="J34" s="316"/>
-      <c r="K34" s="317"/>
-      <c r="L34" s="315" t="s">
-        <v>106</v>
-      </c>
-      <c r="M34" s="316"/>
-      <c r="N34" s="316"/>
-      <c r="O34" s="316"/>
-      <c r="P34" s="316"/>
-      <c r="Q34" s="316"/>
-      <c r="R34" s="316"/>
-      <c r="S34" s="316"/>
-      <c r="T34" s="316"/>
-      <c r="U34" s="317"/>
-      <c r="V34" s="335" t="s">
-        <v>107</v>
-      </c>
-      <c r="W34" s="336"/>
-      <c r="X34" s="337"/>
-      <c r="Y34" s="312" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z34" s="313"/>
-      <c r="AA34" s="313"/>
-      <c r="AB34" s="314"/>
-      <c r="AC34" s="315" t="s">
+      <c r="W34" s="362"/>
+      <c r="X34" s="363"/>
+      <c r="Y34" s="341" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z34" s="342"/>
+      <c r="AA34" s="342"/>
+      <c r="AB34" s="343"/>
+      <c r="AC34" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="AD34" s="316"/>
-      <c r="AE34" s="316"/>
-      <c r="AF34" s="317"/>
+      <c r="AD34" s="283"/>
+      <c r="AE34" s="283"/>
+      <c r="AF34" s="284"/>
       <c r="AG34" s="40"/>
       <c r="AH34" s="40"/>
       <c r="AI34" s="40"/>
@@ -12453,7 +12454,7 @@
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="E36" s="96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA36" s="40"/>
       <c r="AB36" s="40"/>
@@ -12469,79 +12470,79 @@
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="E37" s="364" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="365"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="273" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" s="273"/>
-      <c r="L37" s="273"/>
-      <c r="M37" s="306" t="s">
-        <v>102</v>
-      </c>
-      <c r="N37" s="307"/>
-      <c r="O37" s="307"/>
-      <c r="P37" s="307"/>
-      <c r="Q37" s="307"/>
-      <c r="R37" s="307"/>
-      <c r="S37" s="308"/>
-      <c r="T37" s="306" t="s">
-        <v>103</v>
-      </c>
-      <c r="U37" s="307"/>
-      <c r="V37" s="307"/>
-      <c r="W37" s="307"/>
-      <c r="X37" s="307"/>
-      <c r="Y37" s="307"/>
-      <c r="Z37" s="307"/>
-      <c r="AA37" s="307"/>
-      <c r="AB37" s="307"/>
-      <c r="AC37" s="307"/>
-      <c r="AD37" s="308"/>
+      <c r="E37" s="289" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="285" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="285"/>
+      <c r="L37" s="285"/>
+      <c r="M37" s="286" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="287"/>
+      <c r="O37" s="287"/>
+      <c r="P37" s="287"/>
+      <c r="Q37" s="287"/>
+      <c r="R37" s="287"/>
+      <c r="S37" s="288"/>
+      <c r="T37" s="286" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" s="287"/>
+      <c r="V37" s="287"/>
+      <c r="W37" s="287"/>
+      <c r="X37" s="287"/>
+      <c r="Y37" s="287"/>
+      <c r="Z37" s="287"/>
+      <c r="AA37" s="287"/>
+      <c r="AB37" s="287"/>
+      <c r="AC37" s="287"/>
+      <c r="AD37" s="288"/>
     </row>
     <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="E38" s="315" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="316"/>
-      <c r="G38" s="316"/>
-      <c r="H38" s="316"/>
-      <c r="I38" s="316"/>
-      <c r="J38" s="366" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="366"/>
-      <c r="L38" s="366"/>
-      <c r="M38" s="315" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" s="316"/>
-      <c r="O38" s="316"/>
-      <c r="P38" s="316"/>
-      <c r="Q38" s="316"/>
-      <c r="R38" s="316"/>
-      <c r="S38" s="317"/>
-      <c r="T38" s="315" t="s">
-        <v>107</v>
-      </c>
-      <c r="U38" s="316"/>
-      <c r="V38" s="316"/>
-      <c r="W38" s="316"/>
-      <c r="X38" s="316"/>
-      <c r="Y38" s="316"/>
-      <c r="Z38" s="316"/>
-      <c r="AA38" s="316"/>
-      <c r="AB38" s="316"/>
-      <c r="AC38" s="316"/>
-      <c r="AD38" s="317"/>
+      <c r="E38" s="282" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="283"/>
+      <c r="I38" s="283"/>
+      <c r="J38" s="281" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="281"/>
+      <c r="L38" s="281"/>
+      <c r="M38" s="282" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="283"/>
+      <c r="O38" s="283"/>
+      <c r="P38" s="283"/>
+      <c r="Q38" s="283"/>
+      <c r="R38" s="283"/>
+      <c r="S38" s="284"/>
+      <c r="T38" s="282" t="s">
+        <v>105</v>
+      </c>
+      <c r="U38" s="283"/>
+      <c r="V38" s="283"/>
+      <c r="W38" s="283"/>
+      <c r="X38" s="283"/>
+      <c r="Y38" s="283"/>
+      <c r="Z38" s="283"/>
+      <c r="AA38" s="283"/>
+      <c r="AB38" s="283"/>
+      <c r="AC38" s="283"/>
+      <c r="AD38" s="284"/>
     </row>
     <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
@@ -12610,7 +12611,7 @@
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -12686,30 +12687,30 @@
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="291" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="292"/>
-      <c r="G43" s="292"/>
-      <c r="H43" s="292"/>
-      <c r="I43" s="292"/>
-      <c r="J43" s="292"/>
-      <c r="K43" s="292"/>
-      <c r="L43" s="292"/>
-      <c r="M43" s="292"/>
-      <c r="N43" s="293"/>
-      <c r="O43" s="318" t="s">
-        <v>114</v>
-      </c>
-      <c r="P43" s="319"/>
-      <c r="Q43" s="319"/>
-      <c r="R43" s="319"/>
-      <c r="S43" s="319"/>
-      <c r="T43" s="319"/>
-      <c r="U43" s="319"/>
-      <c r="V43" s="319"/>
-      <c r="W43" s="319"/>
-      <c r="X43" s="320"/>
+      <c r="E43" s="373" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="374"/>
+      <c r="G43" s="374"/>
+      <c r="H43" s="374"/>
+      <c r="I43" s="374"/>
+      <c r="J43" s="374"/>
+      <c r="K43" s="374"/>
+      <c r="L43" s="374"/>
+      <c r="M43" s="374"/>
+      <c r="N43" s="375"/>
+      <c r="O43" s="344" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" s="345"/>
+      <c r="Q43" s="345"/>
+      <c r="R43" s="345"/>
+      <c r="S43" s="345"/>
+      <c r="T43" s="345"/>
+      <c r="U43" s="345"/>
+      <c r="V43" s="345"/>
+      <c r="W43" s="345"/>
+      <c r="X43" s="346"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -12727,30 +12728,30 @@
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="321" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="322"/>
-      <c r="G44" s="322"/>
-      <c r="H44" s="322"/>
-      <c r="I44" s="322"/>
-      <c r="J44" s="322"/>
-      <c r="K44" s="322"/>
-      <c r="L44" s="322"/>
-      <c r="M44" s="322"/>
-      <c r="N44" s="323"/>
-      <c r="O44" s="330" t="s">
-        <v>153</v>
-      </c>
-      <c r="P44" s="330"/>
-      <c r="Q44" s="330"/>
-      <c r="R44" s="330"/>
-      <c r="S44" s="330"/>
-      <c r="T44" s="330"/>
-      <c r="U44" s="330"/>
-      <c r="V44" s="330"/>
-      <c r="W44" s="330"/>
-      <c r="X44" s="331"/>
+      <c r="E44" s="347" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="348"/>
+      <c r="G44" s="348"/>
+      <c r="H44" s="348"/>
+      <c r="I44" s="348"/>
+      <c r="J44" s="348"/>
+      <c r="K44" s="348"/>
+      <c r="L44" s="348"/>
+      <c r="M44" s="348"/>
+      <c r="N44" s="349"/>
+      <c r="O44" s="356" t="s">
+        <v>151</v>
+      </c>
+      <c r="P44" s="356"/>
+      <c r="Q44" s="356"/>
+      <c r="R44" s="356"/>
+      <c r="S44" s="356"/>
+      <c r="T44" s="356"/>
+      <c r="U44" s="356"/>
+      <c r="V44" s="356"/>
+      <c r="W44" s="356"/>
+      <c r="X44" s="357"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -12768,28 +12769,28 @@
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="324"/>
-      <c r="F45" s="325"/>
-      <c r="G45" s="325"/>
-      <c r="H45" s="325"/>
-      <c r="I45" s="325"/>
-      <c r="J45" s="325"/>
-      <c r="K45" s="325"/>
-      <c r="L45" s="325"/>
-      <c r="M45" s="325"/>
-      <c r="N45" s="326"/>
-      <c r="O45" s="330" t="s">
-        <v>154</v>
-      </c>
-      <c r="P45" s="330"/>
-      <c r="Q45" s="330"/>
-      <c r="R45" s="330"/>
-      <c r="S45" s="330"/>
-      <c r="T45" s="330"/>
-      <c r="U45" s="330"/>
-      <c r="V45" s="330"/>
-      <c r="W45" s="330"/>
-      <c r="X45" s="331"/>
+      <c r="E45" s="350"/>
+      <c r="F45" s="351"/>
+      <c r="G45" s="351"/>
+      <c r="H45" s="351"/>
+      <c r="I45" s="351"/>
+      <c r="J45" s="351"/>
+      <c r="K45" s="351"/>
+      <c r="L45" s="351"/>
+      <c r="M45" s="351"/>
+      <c r="N45" s="352"/>
+      <c r="O45" s="356" t="s">
+        <v>152</v>
+      </c>
+      <c r="P45" s="356"/>
+      <c r="Q45" s="356"/>
+      <c r="R45" s="356"/>
+      <c r="S45" s="356"/>
+      <c r="T45" s="356"/>
+      <c r="U45" s="356"/>
+      <c r="V45" s="356"/>
+      <c r="W45" s="356"/>
+      <c r="X45" s="357"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -12807,28 +12808,28 @@
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="327"/>
-      <c r="F46" s="328"/>
-      <c r="G46" s="328"/>
-      <c r="H46" s="328"/>
-      <c r="I46" s="328"/>
-      <c r="J46" s="328"/>
-      <c r="K46" s="328"/>
-      <c r="L46" s="328"/>
-      <c r="M46" s="328"/>
-      <c r="N46" s="329"/>
-      <c r="O46" s="332" t="s">
-        <v>155</v>
-      </c>
-      <c r="P46" s="333"/>
-      <c r="Q46" s="333"/>
-      <c r="R46" s="333"/>
-      <c r="S46" s="333"/>
-      <c r="T46" s="333"/>
-      <c r="U46" s="333"/>
-      <c r="V46" s="333"/>
-      <c r="W46" s="333"/>
-      <c r="X46" s="334"/>
+      <c r="E46" s="353"/>
+      <c r="F46" s="354"/>
+      <c r="G46" s="354"/>
+      <c r="H46" s="354"/>
+      <c r="I46" s="354"/>
+      <c r="J46" s="354"/>
+      <c r="K46" s="354"/>
+      <c r="L46" s="354"/>
+      <c r="M46" s="354"/>
+      <c r="N46" s="355"/>
+      <c r="O46" s="358" t="s">
+        <v>153</v>
+      </c>
+      <c r="P46" s="359"/>
+      <c r="Q46" s="359"/>
+      <c r="R46" s="359"/>
+      <c r="S46" s="359"/>
+      <c r="T46" s="359"/>
+      <c r="U46" s="359"/>
+      <c r="V46" s="359"/>
+      <c r="W46" s="359"/>
+      <c r="X46" s="360"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -12846,28 +12847,28 @@
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="288" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="289"/>
-      <c r="G47" s="289"/>
-      <c r="H47" s="289"/>
-      <c r="I47" s="289"/>
-      <c r="J47" s="289"/>
-      <c r="K47" s="289"/>
-      <c r="L47" s="289"/>
-      <c r="M47" s="289"/>
-      <c r="N47" s="289"/>
-      <c r="O47" s="289"/>
-      <c r="P47" s="289"/>
-      <c r="Q47" s="289"/>
-      <c r="R47" s="289"/>
-      <c r="S47" s="289"/>
-      <c r="T47" s="289"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="289"/>
-      <c r="W47" s="289"/>
-      <c r="X47" s="290"/>
+      <c r="E47" s="370" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="371"/>
+      <c r="G47" s="371"/>
+      <c r="H47" s="371"/>
+      <c r="I47" s="371"/>
+      <c r="J47" s="371"/>
+      <c r="K47" s="371"/>
+      <c r="L47" s="371"/>
+      <c r="M47" s="371"/>
+      <c r="N47" s="371"/>
+      <c r="O47" s="371"/>
+      <c r="P47" s="371"/>
+      <c r="Q47" s="371"/>
+      <c r="R47" s="371"/>
+      <c r="S47" s="371"/>
+      <c r="T47" s="371"/>
+      <c r="U47" s="371"/>
+      <c r="V47" s="371"/>
+      <c r="W47" s="371"/>
+      <c r="X47" s="372"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
@@ -12924,19 +12925,19 @@
       <c r="D49" s="40"/>
       <c r="E49" s="136"/>
       <c r="F49" s="137" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G49" s="137"/>
       <c r="H49" s="137"/>
       <c r="I49" s="137"/>
       <c r="J49" s="138"/>
       <c r="K49" s="138" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L49" s="137"/>
       <c r="M49" s="137"/>
       <c r="N49" s="137" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O49" s="137"/>
       <c r="P49" s="137"/>
@@ -13039,7 +13040,7 @@
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="E52" s="96" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA52" s="40"/>
       <c r="AB52" s="40"/>
@@ -13055,79 +13056,79 @@
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
-      <c r="E53" s="364" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="365"/>
-      <c r="G53" s="365"/>
-      <c r="H53" s="365"/>
-      <c r="I53" s="365"/>
-      <c r="J53" s="273" t="s">
-        <v>109</v>
-      </c>
-      <c r="K53" s="273"/>
-      <c r="L53" s="273"/>
-      <c r="M53" s="306" t="s">
-        <v>102</v>
-      </c>
-      <c r="N53" s="307"/>
-      <c r="O53" s="307"/>
-      <c r="P53" s="307"/>
-      <c r="Q53" s="307"/>
-      <c r="R53" s="307"/>
-      <c r="S53" s="308"/>
-      <c r="T53" s="306" t="s">
-        <v>103</v>
-      </c>
-      <c r="U53" s="307"/>
-      <c r="V53" s="307"/>
-      <c r="W53" s="307"/>
-      <c r="X53" s="307"/>
-      <c r="Y53" s="307"/>
-      <c r="Z53" s="307"/>
-      <c r="AA53" s="307"/>
-      <c r="AB53" s="307"/>
-      <c r="AC53" s="307"/>
-      <c r="AD53" s="308"/>
+      <c r="E53" s="289" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="290"/>
+      <c r="G53" s="290"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="285" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53" s="285"/>
+      <c r="L53" s="285"/>
+      <c r="M53" s="286" t="s">
+        <v>100</v>
+      </c>
+      <c r="N53" s="287"/>
+      <c r="O53" s="287"/>
+      <c r="P53" s="287"/>
+      <c r="Q53" s="287"/>
+      <c r="R53" s="287"/>
+      <c r="S53" s="288"/>
+      <c r="T53" s="286" t="s">
+        <v>101</v>
+      </c>
+      <c r="U53" s="287"/>
+      <c r="V53" s="287"/>
+      <c r="W53" s="287"/>
+      <c r="X53" s="287"/>
+      <c r="Y53" s="287"/>
+      <c r="Z53" s="287"/>
+      <c r="AA53" s="287"/>
+      <c r="AB53" s="287"/>
+      <c r="AC53" s="287"/>
+      <c r="AD53" s="288"/>
     </row>
     <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
-      <c r="E54" s="315" t="s">
+      <c r="E54" s="282" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="283"/>
+      <c r="G54" s="283"/>
+      <c r="H54" s="283"/>
+      <c r="I54" s="283"/>
+      <c r="J54" s="281" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="281"/>
+      <c r="L54" s="281"/>
+      <c r="M54" s="282" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="316"/>
-      <c r="G54" s="316"/>
-      <c r="H54" s="316"/>
-      <c r="I54" s="316"/>
-      <c r="J54" s="366" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="366"/>
-      <c r="L54" s="366"/>
-      <c r="M54" s="315" t="s">
-        <v>123</v>
-      </c>
-      <c r="N54" s="316"/>
-      <c r="O54" s="316"/>
-      <c r="P54" s="316"/>
-      <c r="Q54" s="316"/>
-      <c r="R54" s="316"/>
-      <c r="S54" s="317"/>
-      <c r="T54" s="315" t="s">
+      <c r="N54" s="283"/>
+      <c r="O54" s="283"/>
+      <c r="P54" s="283"/>
+      <c r="Q54" s="283"/>
+      <c r="R54" s="283"/>
+      <c r="S54" s="284"/>
+      <c r="T54" s="282" t="s">
         <v>62</v>
       </c>
-      <c r="U54" s="316"/>
-      <c r="V54" s="316"/>
-      <c r="W54" s="316"/>
-      <c r="X54" s="316"/>
-      <c r="Y54" s="316"/>
-      <c r="Z54" s="316"/>
-      <c r="AA54" s="316"/>
-      <c r="AB54" s="316"/>
-      <c r="AC54" s="316"/>
-      <c r="AD54" s="317"/>
+      <c r="U54" s="283"/>
+      <c r="V54" s="283"/>
+      <c r="W54" s="283"/>
+      <c r="X54" s="283"/>
+      <c r="Y54" s="283"/>
+      <c r="Z54" s="283"/>
+      <c r="AA54" s="283"/>
+      <c r="AB54" s="283"/>
+      <c r="AC54" s="283"/>
+      <c r="AD54" s="284"/>
     </row>
     <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40"/>
@@ -13165,7 +13166,7 @@
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -13242,7 +13243,7 @@
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -13386,7 +13387,7 @@
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
@@ -13452,7 +13453,7 @@
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="E64" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -13517,44 +13518,44 @@
     <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="338" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="338"/>
-      <c r="G66" s="350" t="s">
-        <v>128</v>
-      </c>
-      <c r="H66" s="351"/>
-      <c r="I66" s="351"/>
-      <c r="J66" s="351"/>
-      <c r="K66" s="351"/>
-      <c r="L66" s="352"/>
-      <c r="M66" s="338" t="s">
-        <v>129</v>
-      </c>
-      <c r="N66" s="338"/>
-      <c r="O66" s="350" t="s">
-        <v>83</v>
-      </c>
-      <c r="P66" s="351"/>
-      <c r="Q66" s="351"/>
-      <c r="R66" s="351"/>
-      <c r="S66" s="351"/>
-      <c r="T66" s="351"/>
-      <c r="U66" s="351"/>
-      <c r="V66" s="351"/>
-      <c r="W66" s="351"/>
-      <c r="X66" s="351"/>
-      <c r="Y66" s="351"/>
-      <c r="Z66" s="351"/>
-      <c r="AA66" s="351"/>
-      <c r="AB66" s="351"/>
-      <c r="AC66" s="351"/>
-      <c r="AD66" s="351"/>
-      <c r="AE66" s="351"/>
-      <c r="AF66" s="351"/>
-      <c r="AG66" s="351"/>
-      <c r="AH66" s="352"/>
+      <c r="E66" s="313" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="313"/>
+      <c r="G66" s="297" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" s="298"/>
+      <c r="I66" s="298"/>
+      <c r="J66" s="298"/>
+      <c r="K66" s="298"/>
+      <c r="L66" s="299"/>
+      <c r="M66" s="313" t="s">
+        <v>127</v>
+      </c>
+      <c r="N66" s="313"/>
+      <c r="O66" s="297" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" s="298"/>
+      <c r="Q66" s="298"/>
+      <c r="R66" s="298"/>
+      <c r="S66" s="298"/>
+      <c r="T66" s="298"/>
+      <c r="U66" s="298"/>
+      <c r="V66" s="298"/>
+      <c r="W66" s="298"/>
+      <c r="X66" s="298"/>
+      <c r="Y66" s="298"/>
+      <c r="Z66" s="298"/>
+      <c r="AA66" s="298"/>
+      <c r="AB66" s="298"/>
+      <c r="AC66" s="298"/>
+      <c r="AD66" s="298"/>
+      <c r="AE66" s="298"/>
+      <c r="AF66" s="298"/>
+      <c r="AG66" s="298"/>
+      <c r="AH66" s="299"/>
     </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
@@ -13623,7 +13624,7 @@
     <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E69" s="80"/>
       <c r="F69" s="80"/>
@@ -13689,86 +13690,86 @@
     <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
-      <c r="E71" s="339" t="s">
+      <c r="E71" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="297" t="s">
+      <c r="F71" s="317" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="318"/>
+      <c r="H71" s="318"/>
+      <c r="I71" s="319"/>
+      <c r="J71" s="317" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71" s="318"/>
+      <c r="L71" s="318"/>
+      <c r="M71" s="319"/>
+      <c r="N71" s="325" t="s">
         <v>131</v>
       </c>
-      <c r="G71" s="298"/>
-      <c r="H71" s="298"/>
-      <c r="I71" s="299"/>
-      <c r="J71" s="297" t="s">
+      <c r="O71" s="325"/>
+      <c r="P71" s="325"/>
+      <c r="Q71" s="325"/>
+      <c r="R71" s="325"/>
+      <c r="S71" s="325"/>
+      <c r="T71" s="325"/>
+      <c r="U71" s="325"/>
+      <c r="V71" s="325"/>
+      <c r="W71" s="317" t="s">
         <v>132</v>
       </c>
-      <c r="K71" s="298"/>
-      <c r="L71" s="298"/>
-      <c r="M71" s="299"/>
-      <c r="N71" s="341" t="s">
-        <v>133</v>
-      </c>
-      <c r="O71" s="341"/>
-      <c r="P71" s="341"/>
-      <c r="Q71" s="341"/>
-      <c r="R71" s="341"/>
-      <c r="S71" s="341"/>
-      <c r="T71" s="341"/>
-      <c r="U71" s="341"/>
-      <c r="V71" s="341"/>
-      <c r="W71" s="297" t="s">
-        <v>134</v>
-      </c>
-      <c r="X71" s="298"/>
-      <c r="Y71" s="298"/>
-      <c r="Z71" s="298"/>
-      <c r="AA71" s="298"/>
-      <c r="AB71" s="298"/>
-      <c r="AC71" s="299"/>
-      <c r="AD71" s="297" t="s">
+      <c r="X71" s="318"/>
+      <c r="Y71" s="318"/>
+      <c r="Z71" s="318"/>
+      <c r="AA71" s="318"/>
+      <c r="AB71" s="318"/>
+      <c r="AC71" s="319"/>
+      <c r="AD71" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="AE71" s="298"/>
-      <c r="AF71" s="298"/>
-      <c r="AG71" s="298"/>
-      <c r="AH71" s="299"/>
+      <c r="AE71" s="318"/>
+      <c r="AF71" s="318"/>
+      <c r="AG71" s="318"/>
+      <c r="AH71" s="319"/>
     </row>
     <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="340"/>
-      <c r="F72" s="300"/>
-      <c r="G72" s="301"/>
-      <c r="H72" s="301"/>
-      <c r="I72" s="302"/>
-      <c r="J72" s="300"/>
-      <c r="K72" s="301"/>
-      <c r="L72" s="301"/>
-      <c r="M72" s="302"/>
-      <c r="N72" s="341" t="s">
-        <v>135</v>
-      </c>
-      <c r="O72" s="341"/>
-      <c r="P72" s="341"/>
-      <c r="Q72" s="341"/>
-      <c r="R72" s="341"/>
-      <c r="S72" s="273" t="s">
-        <v>132</v>
-      </c>
-      <c r="T72" s="273"/>
-      <c r="U72" s="273"/>
-      <c r="V72" s="273"/>
-      <c r="W72" s="300"/>
-      <c r="X72" s="301"/>
-      <c r="Y72" s="301"/>
-      <c r="Z72" s="301"/>
-      <c r="AA72" s="301"/>
-      <c r="AB72" s="301"/>
-      <c r="AC72" s="302"/>
-      <c r="AD72" s="300"/>
-      <c r="AE72" s="301"/>
-      <c r="AF72" s="301"/>
-      <c r="AG72" s="301"/>
-      <c r="AH72" s="302"/>
+      <c r="E72" s="324"/>
+      <c r="F72" s="320"/>
+      <c r="G72" s="321"/>
+      <c r="H72" s="321"/>
+      <c r="I72" s="322"/>
+      <c r="J72" s="320"/>
+      <c r="K72" s="321"/>
+      <c r="L72" s="321"/>
+      <c r="M72" s="322"/>
+      <c r="N72" s="325" t="s">
+        <v>133</v>
+      </c>
+      <c r="O72" s="325"/>
+      <c r="P72" s="325"/>
+      <c r="Q72" s="325"/>
+      <c r="R72" s="325"/>
+      <c r="S72" s="285" t="s">
+        <v>130</v>
+      </c>
+      <c r="T72" s="285"/>
+      <c r="U72" s="285"/>
+      <c r="V72" s="285"/>
+      <c r="W72" s="320"/>
+      <c r="X72" s="321"/>
+      <c r="Y72" s="321"/>
+      <c r="Z72" s="321"/>
+      <c r="AA72" s="321"/>
+      <c r="AB72" s="321"/>
+      <c r="AC72" s="322"/>
+      <c r="AD72" s="320"/>
+      <c r="AE72" s="321"/>
+      <c r="AF72" s="321"/>
+      <c r="AG72" s="321"/>
+      <c r="AH72" s="322"/>
     </row>
     <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
@@ -13776,43 +13777,43 @@
       <c r="E73" s="147">
         <v>1</v>
       </c>
-      <c r="F73" s="294" t="s">
+      <c r="F73" s="331" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="332"/>
+      <c r="H73" s="332"/>
+      <c r="I73" s="333"/>
+      <c r="J73" s="331" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="295"/>
-      <c r="H73" s="295"/>
-      <c r="I73" s="296"/>
-      <c r="J73" s="294" t="s">
-        <v>97</v>
-      </c>
-      <c r="K73" s="295"/>
-      <c r="L73" s="295"/>
-      <c r="M73" s="296"/>
-      <c r="N73" s="285" t="s">
+      <c r="K73" s="332"/>
+      <c r="L73" s="332"/>
+      <c r="M73" s="333"/>
+      <c r="N73" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="O73" s="286"/>
-      <c r="P73" s="286"/>
-      <c r="Q73" s="286"/>
-      <c r="R73" s="286"/>
-      <c r="S73" s="287" t="s">
-        <v>97</v>
-      </c>
-      <c r="T73" s="287"/>
-      <c r="U73" s="287"/>
-      <c r="V73" s="287"/>
-      <c r="W73" s="276"/>
-      <c r="X73" s="277"/>
-      <c r="Y73" s="277"/>
-      <c r="Z73" s="277"/>
-      <c r="AA73" s="277"/>
-      <c r="AB73" s="277"/>
-      <c r="AC73" s="278"/>
-      <c r="AD73" s="276"/>
-      <c r="AE73" s="277"/>
-      <c r="AF73" s="277"/>
-      <c r="AG73" s="277"/>
-      <c r="AH73" s="278"/>
+      <c r="O73" s="330"/>
+      <c r="P73" s="330"/>
+      <c r="Q73" s="330"/>
+      <c r="R73" s="330"/>
+      <c r="S73" s="328" t="s">
+        <v>96</v>
+      </c>
+      <c r="T73" s="328"/>
+      <c r="U73" s="328"/>
+      <c r="V73" s="328"/>
+      <c r="W73" s="364"/>
+      <c r="X73" s="365"/>
+      <c r="Y73" s="365"/>
+      <c r="Z73" s="365"/>
+      <c r="AA73" s="365"/>
+      <c r="AB73" s="365"/>
+      <c r="AC73" s="366"/>
+      <c r="AD73" s="364"/>
+      <c r="AE73" s="365"/>
+      <c r="AF73" s="365"/>
+      <c r="AG73" s="365"/>
+      <c r="AH73" s="366"/>
     </row>
     <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="80"/>
@@ -13820,43 +13821,43 @@
       <c r="E74" s="147">
         <v>2</v>
       </c>
-      <c r="F74" s="294" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="295"/>
-      <c r="H74" s="295"/>
-      <c r="I74" s="296"/>
-      <c r="J74" s="294" t="s">
-        <v>115</v>
-      </c>
-      <c r="K74" s="295"/>
-      <c r="L74" s="295"/>
-      <c r="M74" s="296"/>
-      <c r="N74" s="285" t="s">
+      <c r="F74" s="331" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="332"/>
+      <c r="H74" s="332"/>
+      <c r="I74" s="333"/>
+      <c r="J74" s="331" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" s="332"/>
+      <c r="L74" s="332"/>
+      <c r="M74" s="333"/>
+      <c r="N74" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="O74" s="286"/>
-      <c r="P74" s="286"/>
-      <c r="Q74" s="286"/>
-      <c r="R74" s="286"/>
-      <c r="S74" s="287" t="s">
-        <v>115</v>
-      </c>
-      <c r="T74" s="287"/>
-      <c r="U74" s="287"/>
-      <c r="V74" s="287"/>
-      <c r="W74" s="276"/>
-      <c r="X74" s="277"/>
-      <c r="Y74" s="277"/>
-      <c r="Z74" s="277"/>
-      <c r="AA74" s="277"/>
-      <c r="AB74" s="277"/>
-      <c r="AC74" s="278"/>
-      <c r="AD74" s="276"/>
-      <c r="AE74" s="277"/>
-      <c r="AF74" s="277"/>
-      <c r="AG74" s="277"/>
-      <c r="AH74" s="278"/>
+      <c r="O74" s="330"/>
+      <c r="P74" s="330"/>
+      <c r="Q74" s="330"/>
+      <c r="R74" s="330"/>
+      <c r="S74" s="328" t="s">
+        <v>113</v>
+      </c>
+      <c r="T74" s="328"/>
+      <c r="U74" s="328"/>
+      <c r="V74" s="328"/>
+      <c r="W74" s="364"/>
+      <c r="X74" s="365"/>
+      <c r="Y74" s="365"/>
+      <c r="Z74" s="365"/>
+      <c r="AA74" s="365"/>
+      <c r="AB74" s="365"/>
+      <c r="AC74" s="366"/>
+      <c r="AD74" s="364"/>
+      <c r="AE74" s="365"/>
+      <c r="AF74" s="365"/>
+      <c r="AG74" s="365"/>
+      <c r="AH74" s="366"/>
     </row>
     <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="80"/>
@@ -13864,43 +13865,43 @@
       <c r="E75" s="147">
         <v>3</v>
       </c>
-      <c r="F75" s="294" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="295"/>
-      <c r="H75" s="295"/>
-      <c r="I75" s="296"/>
-      <c r="J75" s="294" t="s">
-        <v>116</v>
-      </c>
-      <c r="K75" s="295"/>
-      <c r="L75" s="295"/>
-      <c r="M75" s="296"/>
-      <c r="N75" s="285" t="s">
+      <c r="F75" s="331" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="332"/>
+      <c r="H75" s="332"/>
+      <c r="I75" s="333"/>
+      <c r="J75" s="331" t="s">
+        <v>114</v>
+      </c>
+      <c r="K75" s="332"/>
+      <c r="L75" s="332"/>
+      <c r="M75" s="333"/>
+      <c r="N75" s="329" t="s">
         <v>79</v>
       </c>
-      <c r="O75" s="286"/>
-      <c r="P75" s="286"/>
-      <c r="Q75" s="286"/>
-      <c r="R75" s="286"/>
-      <c r="S75" s="287" t="s">
-        <v>116</v>
-      </c>
-      <c r="T75" s="287"/>
-      <c r="U75" s="287"/>
-      <c r="V75" s="287"/>
-      <c r="W75" s="276"/>
-      <c r="X75" s="277"/>
-      <c r="Y75" s="277"/>
-      <c r="Z75" s="277"/>
-      <c r="AA75" s="277"/>
-      <c r="AB75" s="277"/>
-      <c r="AC75" s="278"/>
-      <c r="AD75" s="276"/>
-      <c r="AE75" s="277"/>
-      <c r="AF75" s="277"/>
-      <c r="AG75" s="277"/>
-      <c r="AH75" s="278"/>
+      <c r="O75" s="330"/>
+      <c r="P75" s="330"/>
+      <c r="Q75" s="330"/>
+      <c r="R75" s="330"/>
+      <c r="S75" s="328" t="s">
+        <v>114</v>
+      </c>
+      <c r="T75" s="328"/>
+      <c r="U75" s="328"/>
+      <c r="V75" s="328"/>
+      <c r="W75" s="364"/>
+      <c r="X75" s="365"/>
+      <c r="Y75" s="365"/>
+      <c r="Z75" s="365"/>
+      <c r="AA75" s="365"/>
+      <c r="AB75" s="365"/>
+      <c r="AC75" s="366"/>
+      <c r="AD75" s="364"/>
+      <c r="AE75" s="365"/>
+      <c r="AF75" s="365"/>
+      <c r="AG75" s="365"/>
+      <c r="AH75" s="366"/>
     </row>
     <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="80"/>
@@ -13908,35 +13909,35 @@
       <c r="E76" s="147">
         <v>4</v>
       </c>
-      <c r="F76" s="294"/>
-      <c r="G76" s="295"/>
-      <c r="H76" s="295"/>
-      <c r="I76" s="296"/>
-      <c r="J76" s="294"/>
-      <c r="K76" s="295"/>
-      <c r="L76" s="295"/>
-      <c r="M76" s="296"/>
-      <c r="N76" s="285"/>
-      <c r="O76" s="286"/>
-      <c r="P76" s="286"/>
-      <c r="Q76" s="286"/>
-      <c r="R76" s="286"/>
-      <c r="S76" s="287"/>
-      <c r="T76" s="287"/>
-      <c r="U76" s="287"/>
-      <c r="V76" s="287"/>
-      <c r="W76" s="276"/>
-      <c r="X76" s="277"/>
-      <c r="Y76" s="277"/>
-      <c r="Z76" s="277"/>
-      <c r="AA76" s="277"/>
-      <c r="AB76" s="277"/>
-      <c r="AC76" s="278"/>
-      <c r="AD76" s="276"/>
-      <c r="AE76" s="277"/>
-      <c r="AF76" s="277"/>
-      <c r="AG76" s="277"/>
-      <c r="AH76" s="278"/>
+      <c r="F76" s="331"/>
+      <c r="G76" s="332"/>
+      <c r="H76" s="332"/>
+      <c r="I76" s="333"/>
+      <c r="J76" s="331"/>
+      <c r="K76" s="332"/>
+      <c r="L76" s="332"/>
+      <c r="M76" s="333"/>
+      <c r="N76" s="329"/>
+      <c r="O76" s="330"/>
+      <c r="P76" s="330"/>
+      <c r="Q76" s="330"/>
+      <c r="R76" s="330"/>
+      <c r="S76" s="328"/>
+      <c r="T76" s="328"/>
+      <c r="U76" s="328"/>
+      <c r="V76" s="328"/>
+      <c r="W76" s="364"/>
+      <c r="X76" s="365"/>
+      <c r="Y76" s="365"/>
+      <c r="Z76" s="365"/>
+      <c r="AA76" s="365"/>
+      <c r="AB76" s="365"/>
+      <c r="AC76" s="366"/>
+      <c r="AD76" s="364"/>
+      <c r="AE76" s="365"/>
+      <c r="AF76" s="365"/>
+      <c r="AG76" s="365"/>
+      <c r="AH76" s="366"/>
     </row>
     <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="80"/>
@@ -13944,52 +13945,119 @@
       <c r="E77" s="147">
         <v>5</v>
       </c>
-      <c r="F77" s="294"/>
-      <c r="G77" s="295"/>
-      <c r="H77" s="295"/>
-      <c r="I77" s="296"/>
-      <c r="J77" s="294"/>
-      <c r="K77" s="295"/>
-      <c r="L77" s="295"/>
-      <c r="M77" s="296"/>
-      <c r="N77" s="285"/>
-      <c r="O77" s="286"/>
-      <c r="P77" s="286"/>
-      <c r="Q77" s="286"/>
-      <c r="R77" s="286"/>
-      <c r="S77" s="287"/>
-      <c r="T77" s="287"/>
-      <c r="U77" s="287"/>
-      <c r="V77" s="287"/>
-      <c r="W77" s="276"/>
-      <c r="X77" s="277"/>
-      <c r="Y77" s="277"/>
-      <c r="Z77" s="277"/>
-      <c r="AA77" s="277"/>
-      <c r="AB77" s="277"/>
-      <c r="AC77" s="278"/>
-      <c r="AD77" s="276"/>
-      <c r="AE77" s="277"/>
-      <c r="AF77" s="277"/>
-      <c r="AG77" s="277"/>
-      <c r="AH77" s="278"/>
+      <c r="F77" s="331"/>
+      <c r="G77" s="332"/>
+      <c r="H77" s="332"/>
+      <c r="I77" s="333"/>
+      <c r="J77" s="331"/>
+      <c r="K77" s="332"/>
+      <c r="L77" s="332"/>
+      <c r="M77" s="333"/>
+      <c r="N77" s="329"/>
+      <c r="O77" s="330"/>
+      <c r="P77" s="330"/>
+      <c r="Q77" s="330"/>
+      <c r="R77" s="330"/>
+      <c r="S77" s="328"/>
+      <c r="T77" s="328"/>
+      <c r="U77" s="328"/>
+      <c r="V77" s="328"/>
+      <c r="W77" s="364"/>
+      <c r="X77" s="365"/>
+      <c r="Y77" s="365"/>
+      <c r="Z77" s="365"/>
+      <c r="AA77" s="365"/>
+      <c r="AB77" s="365"/>
+      <c r="AC77" s="366"/>
+      <c r="AD77" s="364"/>
+      <c r="AE77" s="365"/>
+      <c r="AF77" s="365"/>
+      <c r="AG77" s="365"/>
+      <c r="AH77" s="366"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:AC75"/>
+    <mergeCell ref="W76:AC76"/>
+    <mergeCell ref="W77:AC77"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="E47:X47"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="W73:AC73"/>
+    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="G66:L66"/>
@@ -14014,98 +14082,28 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E54:I54"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:AC75"/>
-    <mergeCell ref="W76:AC76"/>
-    <mergeCell ref="W77:AC77"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="E47:X47"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="W73:AC73"/>
-    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"I,O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -14138,7 +14136,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -14158,17 +14156,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="150" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="150" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
